--- a/default/data/paid channel/backup data.xlsx
+++ b/default/data/paid channel/backup data.xlsx
@@ -1,25 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Yash\Python Projects\tgm_stk_tkr\default\data\paid channel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="125">
+  <si>
+    <t>What</t>
+  </si>
   <si>
     <t>Type</t>
   </si>
@@ -48,6 +51,75 @@
     <t>T3</t>
   </si>
   <si>
+    <t>FO</t>
+  </si>
+  <si>
+    <t>Bullish</t>
+  </si>
+  <si>
+    <t>VOLTAS.NS</t>
+  </si>
+  <si>
+    <t>Bearish</t>
+  </si>
+  <si>
+    <t>MUTHOOTFIN.NS</t>
+  </si>
+  <si>
+    <t>SBICARD.NS</t>
+  </si>
+  <si>
+    <t>HCLTECH.NS</t>
+  </si>
+  <si>
+    <t>TATACOMM.NS</t>
+  </si>
+  <si>
+    <t>POLYCAB.NS</t>
+  </si>
+  <si>
+    <t>IRCTC.NS</t>
+  </si>
+  <si>
+    <t>LT.NS</t>
+  </si>
+  <si>
+    <t>LALPATHLAB.NS</t>
+  </si>
+  <si>
+    <t>NESTLEIND.NS</t>
+  </si>
+  <si>
+    <t>GMRINFRA.NS</t>
+  </si>
+  <si>
+    <t>VEDL.NS</t>
+  </si>
+  <si>
+    <t>MPHASIS.NS</t>
+  </si>
+  <si>
+    <t>TORNTPHARM.NS</t>
+  </si>
+  <si>
+    <t>BEL.NS</t>
+  </si>
+  <si>
+    <t>SRF.NS</t>
+  </si>
+  <si>
+    <t>LTI.NS</t>
+  </si>
+  <si>
+    <t>INFY.NS</t>
+  </si>
+  <si>
+    <t>MCX.NS</t>
+  </si>
+  <si>
+    <t>GRASIM.NS</t>
+  </si>
+  <si>
     <t>OBEROIRLTY.NS</t>
   </si>
   <si>
@@ -87,18 +159,12 @@
     <t>GAIL.NS</t>
   </si>
   <si>
-    <t>INFY.NS</t>
-  </si>
-  <si>
     <t>BAJAJFINSV.NS</t>
   </si>
   <si>
     <t>POWERGRID.NS</t>
   </si>
   <si>
-    <t>TORNTPHARM.NS</t>
-  </si>
-  <si>
     <t>MRF.NS</t>
   </si>
   <si>
@@ -126,15 +192,9 @@
     <t>HAVELLS.NS</t>
   </si>
   <si>
-    <t>VEDL.NS</t>
-  </si>
-  <si>
     <t>TORNTPOWER.NS</t>
   </si>
   <si>
-    <t>SRF.NS</t>
-  </si>
-  <si>
     <t>METROPOLIS.NS</t>
   </si>
   <si>
@@ -150,9 +210,6 @@
     <t>ABBOTINDIA.NS</t>
   </si>
   <si>
-    <t>LALPATHLAB.NS</t>
-  </si>
-  <si>
     <t>EICHERMOT.NS</t>
   </si>
   <si>
@@ -165,9 +222,6 @@
     <t>CONCOR.NS</t>
   </si>
   <si>
-    <t>SBICARD.NS</t>
-  </si>
-  <si>
     <t>DEEPAKNTR.NS</t>
   </si>
   <si>
@@ -198,18 +252,12 @@
     <t>BALKRISIND.NS</t>
   </si>
   <si>
-    <t>MCX.NS</t>
-  </si>
-  <si>
     <t>ADANIENT.NS</t>
   </si>
   <si>
     <t>BSOFT.NS</t>
   </si>
   <si>
-    <t>POLYCAB.NS</t>
-  </si>
-  <si>
     <t>ESCORTS.NS</t>
   </si>
   <si>
@@ -225,9 +273,6 @@
     <t>PIDILITIND.NS</t>
   </si>
   <si>
-    <t>MUTHOOTFIN.NS</t>
-  </si>
-  <si>
     <t>DIVISLAB.NS</t>
   </si>
   <si>
@@ -249,18 +294,9 @@
     <t>HINDALCO.NS</t>
   </si>
   <si>
-    <t>MPHASIS.NS</t>
-  </si>
-  <si>
-    <t>VOLTAS.NS</t>
-  </si>
-  <si>
     <t>SUNPHARMA.NS</t>
   </si>
   <si>
-    <t>BEL.NS</t>
-  </si>
-  <si>
     <t>PAGEIND.NS</t>
   </si>
   <si>
@@ -294,9 +330,6 @@
     <t>TVSMOTOR.NS</t>
   </si>
   <si>
-    <t>GRASIM.NS</t>
-  </si>
-  <si>
     <t>BERGEPAINT.NS</t>
   </si>
   <si>
@@ -321,9 +354,6 @@
     <t>ADANIPORTS.NS</t>
   </si>
   <si>
-    <t>LTI.NS</t>
-  </si>
-  <si>
     <t>INDIAMART.NS</t>
   </si>
   <si>
@@ -342,9 +372,6 @@
     <t>JKCEMENT.NS</t>
   </si>
   <si>
-    <t>LT.NS</t>
-  </si>
-  <si>
     <t>TATASTEEL.NS</t>
   </si>
   <si>
@@ -360,9 +387,6 @@
     <t>IDFCFIRSTB.NS</t>
   </si>
   <si>
-    <t>HCLTECH.NS</t>
-  </si>
-  <si>
     <t>BAJFINANCE.NS</t>
   </si>
   <si>
@@ -370,18 +394,6 @@
   </si>
   <si>
     <t>WIPRO.NS</t>
-  </si>
-  <si>
-    <t>Bearish</t>
-  </si>
-  <si>
-    <t>Bullish</t>
-  </si>
-  <si>
-    <t>FO</t>
-  </si>
-  <si>
-    <t>What</t>
   </si>
 </sst>
 </file>
@@ -389,7 +401,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -402,10 +414,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -448,7 +457,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -509,7 +518,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -541,10 +550,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -576,7 +584,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -753,6710 +760,7092 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J211"/>
+  <dimension ref="A1:J223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" customWidth="1"/>
     <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2">
-        <v>44560</v>
+        <v>44575</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="E2">
-        <v>333.05</v>
+        <v>1290.0999999999999</v>
       </c>
       <c r="F2">
-        <v>334.12</v>
+        <v>1227.22</v>
       </c>
       <c r="G2">
-        <v>334.99</v>
+        <v>1226.97</v>
       </c>
       <c r="H2">
-        <v>326.39</v>
+        <v>1328.8</v>
       </c>
       <c r="I2">
-        <v>319.57</v>
+        <v>1338.38</v>
       </c>
       <c r="J2">
-        <v>314.57</v>
+        <v>1464.38</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2">
-        <v>44560</v>
+        <v>44572</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="E3">
-        <v>3356.55</v>
+        <v>1524.55</v>
       </c>
       <c r="F3">
-        <v>3239.23</v>
+        <v>1547.43</v>
       </c>
       <c r="G3">
-        <v>3182.7</v>
+        <v>1573.33</v>
       </c>
       <c r="H3">
-        <v>3457.25</v>
+        <v>1494.06</v>
       </c>
       <c r="I3">
-        <v>3741.45</v>
+        <v>1489.34</v>
       </c>
       <c r="J3">
-        <v>4411.25</v>
+        <v>1464.22</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2">
-        <v>44559</v>
+        <v>44572</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E4">
-        <v>3196.7</v>
+        <v>889.35</v>
       </c>
       <c r="F4">
-        <v>3084.66</v>
+        <v>911.19</v>
       </c>
       <c r="G4">
-        <v>3025.08</v>
+        <v>936.12</v>
       </c>
       <c r="H4">
-        <v>3282.13</v>
+        <v>871.56</v>
       </c>
       <c r="I4">
-        <v>3292.6</v>
+        <v>852.23</v>
       </c>
       <c r="J4">
-        <v>3402.18</v>
+        <v>814.27</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2">
-        <v>44559</v>
+        <v>44572</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="E5">
-        <v>211</v>
+        <v>1340.5</v>
       </c>
       <c r="F5">
-        <v>207.42</v>
+        <v>1260.77</v>
       </c>
       <c r="G5">
-        <v>206.24</v>
+        <v>1212.28</v>
       </c>
       <c r="H5">
-        <v>215.88</v>
+        <v>1380.72</v>
       </c>
       <c r="I5">
-        <v>217.33</v>
+        <v>1388.57</v>
       </c>
       <c r="J5">
-        <v>224.9</v>
+        <v>1423.3</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2">
-        <v>44552</v>
+        <v>44571</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E6">
-        <v>2299.25</v>
+        <v>1493.3</v>
       </c>
       <c r="F6">
-        <v>2168.3000000000002</v>
+        <v>1411.27</v>
       </c>
       <c r="G6">
-        <v>2123.6999999999998</v>
+        <v>1370.55</v>
       </c>
       <c r="H6">
-        <v>2353.15</v>
+        <v>1538.1</v>
       </c>
       <c r="I6">
-        <v>2368.23</v>
+        <v>1556.82</v>
       </c>
       <c r="J6">
-        <v>2630</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C7" s="2">
-        <v>44552</v>
+        <v>44568</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="E7">
-        <v>7196.35</v>
+        <v>2466.4</v>
       </c>
       <c r="F7">
-        <v>6779.22</v>
+        <v>2416.34</v>
       </c>
       <c r="G7">
-        <v>6729.5</v>
+        <v>2396.91</v>
       </c>
       <c r="H7">
-        <v>7412.24</v>
+        <v>2540.39</v>
       </c>
       <c r="I7">
-        <v>7452.32</v>
+        <v>2648.1</v>
       </c>
       <c r="J7">
-        <v>7773.63</v>
+        <v>2738.9</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C8" s="2">
-        <v>44551</v>
+        <v>44568</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E8">
-        <v>1830</v>
+        <v>886.3</v>
       </c>
       <c r="F8">
-        <v>1742.65</v>
+        <v>847.49</v>
       </c>
       <c r="G8">
-        <v>1739.31</v>
+        <v>842.71</v>
       </c>
       <c r="H8">
-        <v>1870.05</v>
+        <v>912.89</v>
       </c>
       <c r="I8">
-        <v>1884.9</v>
+        <v>927.72</v>
       </c>
       <c r="J8">
-        <v>2009.85</v>
+        <v>1025.22</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2">
-        <v>44550</v>
+        <v>44567</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>1558.9</v>
+        <v>1925</v>
       </c>
       <c r="F9">
-        <v>1615.21</v>
+        <v>1949.25</v>
       </c>
       <c r="G9">
-        <v>1676.08</v>
+        <v>1975.92</v>
       </c>
       <c r="H9">
-        <v>1527.72</v>
+        <v>1886.5</v>
       </c>
       <c r="I9">
-        <v>1445.38</v>
+        <v>1880.65</v>
       </c>
       <c r="J9">
-        <v>1368.55</v>
+        <v>1865.71</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="C10" s="2">
-        <v>44550</v>
+        <v>44566</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="E10">
-        <v>1615</v>
+        <v>1467</v>
       </c>
       <c r="F10">
-        <v>1641.31</v>
+        <v>1398.63</v>
       </c>
       <c r="G10">
-        <v>1706.62</v>
+        <v>1367.54</v>
       </c>
       <c r="H10">
-        <v>1582.7</v>
+        <v>1511.01</v>
       </c>
       <c r="I10">
-        <v>1572.43</v>
+        <v>1556.82</v>
       </c>
       <c r="J10">
-        <v>1536.54</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="C11" s="2">
-        <v>44550</v>
+        <v>44566</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>796.35</v>
+        <v>3884.95</v>
       </c>
       <c r="F11">
-        <v>835.41</v>
+        <v>3725.44</v>
       </c>
       <c r="G11">
-        <v>859.65</v>
+        <v>3596.4</v>
       </c>
       <c r="H11">
-        <v>780.42</v>
+        <v>4001.5</v>
       </c>
       <c r="I11">
-        <v>737.87</v>
+        <v>4030.8</v>
       </c>
       <c r="J11">
-        <v>716.12</v>
+        <v>4239.3500000000004</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="C12" s="2">
-        <v>44550</v>
+        <v>44565</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>25145.8</v>
+        <v>19819.8</v>
       </c>
       <c r="F12">
-        <v>26171.13</v>
+        <v>19382.259999999998</v>
       </c>
       <c r="G12">
-        <v>27039.8</v>
+        <v>19309.849999999999</v>
       </c>
       <c r="H12">
-        <v>24642.880000000001</v>
+        <v>20367.8</v>
       </c>
       <c r="I12">
-        <v>24260.7</v>
+        <v>20414.39</v>
       </c>
       <c r="J12">
-        <v>23339.919999999998</v>
+        <v>20588.5</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="C13" s="2">
-        <v>44550</v>
+        <v>44561</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>449.6</v>
+        <v>46.15</v>
       </c>
       <c r="F13">
-        <v>464</v>
+        <v>46.17</v>
       </c>
       <c r="G13">
-        <v>478.75</v>
+        <v>53.27</v>
       </c>
       <c r="H13">
-        <v>440.61</v>
+        <v>45.23</v>
       </c>
       <c r="I13">
-        <v>429.13</v>
+        <v>43.38</v>
       </c>
       <c r="J13">
-        <v>428.12</v>
+        <v>41.63</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="C14" s="2">
-        <v>44550</v>
+        <v>44560</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E14">
-        <v>177.5</v>
+        <v>333.05</v>
       </c>
       <c r="F14">
-        <v>184.95</v>
+        <v>334.12</v>
       </c>
       <c r="G14">
-        <v>188.87</v>
+        <v>334.99</v>
       </c>
       <c r="H14">
-        <v>173.95</v>
+        <v>326.39</v>
       </c>
       <c r="I14">
-        <v>167.37</v>
+        <v>319.57</v>
       </c>
       <c r="J14">
-        <v>159.03</v>
+        <v>314.57</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C15" s="2">
-        <v>44547</v>
+        <v>44560</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E15">
-        <v>5460</v>
+        <v>3356.55</v>
       </c>
       <c r="F15">
-        <v>5360.21</v>
+        <v>3239.23</v>
       </c>
       <c r="G15">
-        <v>5355.77</v>
+        <v>3182.7</v>
       </c>
       <c r="H15">
-        <v>5623.8</v>
+        <v>3457.25</v>
       </c>
       <c r="I15">
-        <v>5949.43</v>
+        <v>3741.45</v>
       </c>
       <c r="J15">
-        <v>6208.35</v>
+        <v>4411.25</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="C16" s="2">
-        <v>44547</v>
+        <v>44559</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E16">
-        <v>7293.25</v>
+        <v>3196.7</v>
       </c>
       <c r="F16">
-        <v>7399.49</v>
+        <v>3084.66</v>
       </c>
       <c r="G16">
-        <v>7475.5</v>
+        <v>3025.08</v>
       </c>
       <c r="H16">
-        <v>7147.39</v>
+        <v>3282.13</v>
       </c>
       <c r="I16">
-        <v>7139.25</v>
+        <v>3292.6</v>
       </c>
       <c r="J16">
-        <v>6583</v>
+        <v>3402.18</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C17" s="2">
-        <v>44547</v>
+        <v>44559</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E17">
-        <v>4646.95</v>
+        <v>211</v>
       </c>
       <c r="F17">
-        <v>4605.92</v>
+        <v>207.42</v>
       </c>
       <c r="G17">
-        <v>4563.1099999999997</v>
+        <v>206.24</v>
       </c>
       <c r="H17">
-        <v>4786.3599999999997</v>
+        <v>215.88</v>
       </c>
       <c r="I17">
-        <v>4851.3500000000004</v>
+        <v>217.33</v>
       </c>
       <c r="J17">
-        <v>5374.15</v>
+        <v>224.9</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="C18" s="2">
-        <v>44547</v>
+        <v>44552</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E18">
-        <v>216.85</v>
+        <v>2299.25</v>
       </c>
       <c r="F18">
-        <v>222.83</v>
+        <v>2168.3000000000002</v>
       </c>
       <c r="G18">
-        <v>224.8</v>
+        <v>2123.6999999999998</v>
       </c>
       <c r="H18">
-        <v>212.51</v>
+        <v>2353.15</v>
       </c>
       <c r="I18">
-        <v>210.25</v>
+        <v>2368.23</v>
       </c>
       <c r="J18">
-        <v>205.45</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="C19" s="2">
-        <v>44547</v>
+        <v>44552</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E19">
-        <v>130.69999999999999</v>
+        <v>7196.35</v>
       </c>
       <c r="F19">
-        <v>134.08000000000001</v>
+        <v>6779.22</v>
       </c>
       <c r="G19">
-        <v>138.78</v>
+        <v>6729.5</v>
       </c>
       <c r="H19">
-        <v>128.09</v>
+        <v>7412.24</v>
       </c>
       <c r="I19">
-        <v>121.92</v>
+        <v>7452.32</v>
       </c>
       <c r="J19">
-        <v>115.6</v>
+        <v>7773.63</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="C20" s="2">
-        <v>44547</v>
+        <v>44551</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E20">
-        <v>755.9</v>
+        <v>1830</v>
       </c>
       <c r="F20">
-        <v>781.8</v>
+        <v>1742.65</v>
       </c>
       <c r="G20">
-        <v>782.03</v>
+        <v>1739.31</v>
       </c>
       <c r="H20">
-        <v>740.78</v>
+        <v>1870.05</v>
       </c>
       <c r="I20">
-        <v>691.8</v>
+        <v>1884.9</v>
       </c>
       <c r="J20">
-        <v>601.79999999999995</v>
+        <v>2009.85</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="C21" s="2">
-        <v>44547</v>
+        <v>44550</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E21">
-        <v>566.29999999999995</v>
+        <v>1558.9</v>
       </c>
       <c r="F21">
-        <v>573.6</v>
+        <v>1615.21</v>
       </c>
       <c r="G21">
-        <v>595.69000000000005</v>
+        <v>1676.08</v>
       </c>
       <c r="H21">
-        <v>554.97</v>
+        <v>1527.72</v>
       </c>
       <c r="I21">
-        <v>550.67999999999995</v>
+        <v>1445.38</v>
       </c>
       <c r="J21">
-        <v>530.98</v>
+        <v>1368.55</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="C22" s="2">
-        <v>44546</v>
+        <v>44550</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E22">
-        <v>2467</v>
+        <v>1615</v>
       </c>
       <c r="F22">
-        <v>2519.6799999999998</v>
+        <v>1641.31</v>
       </c>
       <c r="G22">
-        <v>2552.7199999999998</v>
+        <v>1706.62</v>
       </c>
       <c r="H22">
-        <v>2417.66</v>
+        <v>1582.7</v>
       </c>
       <c r="I22">
-        <v>2320.63</v>
+        <v>1572.43</v>
       </c>
       <c r="J22">
-        <v>2256.3000000000002</v>
+        <v>1536.54</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="C23" s="2">
-        <v>44546</v>
+        <v>44550</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E23">
-        <v>129.69999999999999</v>
+        <v>796.35</v>
       </c>
       <c r="F23">
-        <v>134.09</v>
+        <v>835.41</v>
       </c>
       <c r="G23">
-        <v>137.85</v>
+        <v>859.65</v>
       </c>
       <c r="H23">
-        <v>127.11</v>
+        <v>780.42</v>
       </c>
       <c r="I23">
-        <v>120.9</v>
+        <v>737.87</v>
       </c>
       <c r="J23">
-        <v>116.45</v>
+        <v>716.12</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="C24" s="2">
-        <v>44546</v>
+        <v>44550</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E24">
-        <v>1770.9</v>
+        <v>25145.8</v>
       </c>
       <c r="F24">
-        <v>1734.02</v>
+        <v>26171.13</v>
       </c>
       <c r="G24">
-        <v>1731.49</v>
+        <v>27039.8</v>
       </c>
       <c r="H24">
-        <v>1824.03</v>
+        <v>24642.880000000001</v>
       </c>
       <c r="I24">
-        <v>1830.7</v>
+        <v>24260.7</v>
       </c>
       <c r="J24">
-        <v>1870.05</v>
+        <v>23339.919999999998</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="C25" s="2">
-        <v>44544</v>
+        <v>44550</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E25">
-        <v>17179</v>
+        <v>449.6</v>
       </c>
       <c r="F25">
-        <v>17340.669999999998</v>
+        <v>464</v>
       </c>
       <c r="G25">
-        <v>17423.900000000001</v>
+        <v>478.75</v>
       </c>
       <c r="H25">
-        <v>16835.419999999998</v>
+        <v>440.61</v>
       </c>
       <c r="I25">
-        <v>16745.22</v>
+        <v>429.13</v>
       </c>
       <c r="J25">
-        <v>16170.33</v>
+        <v>428.12</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="C26" s="2">
-        <v>44544</v>
+        <v>44550</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E26">
-        <v>210.1</v>
+        <v>177.5</v>
       </c>
       <c r="F26">
-        <v>202.21</v>
+        <v>184.95</v>
       </c>
       <c r="G26">
-        <v>195.13</v>
+        <v>188.87</v>
       </c>
       <c r="H26">
-        <v>216.4</v>
+        <v>173.95</v>
       </c>
       <c r="I26">
-        <v>217.4</v>
+        <v>167.37</v>
       </c>
       <c r="J26">
-        <v>222.72</v>
+        <v>159.03</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C27" s="2">
-        <v>44544</v>
+        <v>44547</v>
       </c>
       <c r="D27" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E27">
-        <v>3132.1</v>
+        <v>5460</v>
       </c>
       <c r="F27">
-        <v>3018.75</v>
+        <v>5360.21</v>
       </c>
       <c r="G27">
-        <v>2970.2</v>
+        <v>5355.77</v>
       </c>
       <c r="H27">
-        <v>3226.06</v>
+        <v>5623.8</v>
       </c>
       <c r="I27">
-        <v>3282.13</v>
+        <v>5949.43</v>
       </c>
       <c r="J27">
-        <v>3402.18</v>
+        <v>6208.35</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="C28" s="2">
-        <v>44543</v>
+        <v>44547</v>
       </c>
       <c r="D28" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E28">
-        <v>73720</v>
+        <v>7293.25</v>
       </c>
       <c r="F28">
-        <v>75357.8</v>
+        <v>7399.49</v>
       </c>
       <c r="G28">
-        <v>76056.88</v>
+        <v>7475.5</v>
       </c>
       <c r="H28">
-        <v>72245.600000000006</v>
+        <v>7147.39</v>
       </c>
       <c r="I28">
-        <v>71623.92</v>
+        <v>7139.25</v>
       </c>
       <c r="J28">
-        <v>70120.479999999996</v>
+        <v>6583</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="C29" s="2">
-        <v>44543</v>
+        <v>44547</v>
       </c>
       <c r="D29" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E29">
-        <v>2411.8000000000002</v>
+        <v>4646.95</v>
       </c>
       <c r="F29">
-        <v>2436.71</v>
+        <v>4605.92</v>
       </c>
       <c r="G29">
-        <v>2438.87</v>
+        <v>4563.1099999999997</v>
       </c>
       <c r="H29">
-        <v>2363.56</v>
+        <v>4786.3599999999997</v>
       </c>
       <c r="I29">
-        <v>2275.5300000000002</v>
+        <v>4851.3500000000004</v>
       </c>
       <c r="J29">
-        <v>2227.34</v>
+        <v>5374.15</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="C30" s="2">
-        <v>44543</v>
+        <v>44547</v>
       </c>
       <c r="D30" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E30">
-        <v>1473.15</v>
+        <v>216.85</v>
       </c>
       <c r="F30">
-        <v>1481.71</v>
+        <v>222.83</v>
       </c>
       <c r="G30">
-        <v>1497.22</v>
+        <v>224.8</v>
       </c>
       <c r="H30">
-        <v>1443.69</v>
+        <v>212.51</v>
       </c>
       <c r="I30">
-        <v>1407.59</v>
+        <v>210.25</v>
       </c>
       <c r="J30">
-        <v>1397.48</v>
+        <v>205.45</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="C31" s="2">
-        <v>44543</v>
+        <v>44547</v>
       </c>
       <c r="D31" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E31">
-        <v>2523.1</v>
+        <v>130.69999999999999</v>
       </c>
       <c r="F31">
-        <v>2545.17</v>
+        <v>134.08000000000001</v>
       </c>
       <c r="G31">
-        <v>2560.54</v>
+        <v>138.78</v>
       </c>
       <c r="H31">
-        <v>2472.64</v>
+        <v>128.09</v>
       </c>
       <c r="I31">
-        <v>2391.33</v>
+        <v>121.92</v>
       </c>
       <c r="J31">
-        <v>2331.35</v>
+        <v>115.6</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="C32" s="2">
-        <v>44540</v>
+        <v>44547</v>
       </c>
       <c r="D32" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="E32">
-        <v>493.8</v>
+        <v>755.9</v>
       </c>
       <c r="F32">
-        <v>490.43</v>
+        <v>781.8</v>
       </c>
       <c r="G32">
-        <v>485.79</v>
+        <v>782.03</v>
       </c>
       <c r="H32">
-        <v>508.61</v>
+        <v>740.78</v>
       </c>
       <c r="I32">
-        <v>517.13</v>
+        <v>691.8</v>
       </c>
       <c r="J32">
-        <v>573.72</v>
+        <v>601.79999999999995</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="C33" s="2">
-        <v>44540</v>
+        <v>44547</v>
       </c>
       <c r="D33" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E33">
-        <v>217.25</v>
+        <v>566.29999999999995</v>
       </c>
       <c r="F33">
-        <v>212.85</v>
+        <v>573.6</v>
       </c>
       <c r="G33">
-        <v>204.9</v>
+        <v>595.69000000000005</v>
       </c>
       <c r="H33">
-        <v>223.38</v>
+        <v>554.97</v>
       </c>
       <c r="I33">
-        <v>223.77</v>
+        <v>550.67999999999995</v>
       </c>
       <c r="J33">
-        <v>232.92</v>
+        <v>530.98</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="C34" s="2">
-        <v>44540</v>
+        <v>44546</v>
       </c>
       <c r="D34" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="E34">
-        <v>2396.85</v>
+        <v>2467</v>
       </c>
       <c r="F34">
-        <v>2247.5500000000002</v>
+        <v>2519.6799999999998</v>
       </c>
       <c r="G34">
-        <v>2243.5700000000002</v>
+        <v>2552.7199999999998</v>
       </c>
       <c r="H34">
-        <v>2468.7600000000002</v>
+        <v>2417.66</v>
       </c>
       <c r="I34">
-        <v>2623.3</v>
+        <v>2320.63</v>
       </c>
       <c r="J34">
-        <v>3042.3</v>
+        <v>2256.3000000000002</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="C35" s="2">
-        <v>44539</v>
+        <v>44546</v>
       </c>
       <c r="D35" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="E35">
-        <v>1438.35</v>
+        <v>129.69999999999999</v>
       </c>
       <c r="F35">
-        <v>1467.78</v>
+        <v>134.09</v>
       </c>
       <c r="G35">
-        <v>1468.62</v>
+        <v>137.85</v>
       </c>
       <c r="H35">
-        <v>1409.58</v>
+        <v>127.11</v>
       </c>
       <c r="I35">
-        <v>1380.57</v>
+        <v>120.9</v>
       </c>
       <c r="J35">
-        <v>1353.67</v>
+        <v>116.45</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="C36" s="2">
-        <v>44539</v>
+        <v>44546</v>
       </c>
       <c r="D36" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E36">
-        <v>2369.65</v>
+        <v>1770.9</v>
       </c>
       <c r="F36">
-        <v>2392.6799999999998</v>
+        <v>1734.02</v>
       </c>
       <c r="G36">
-        <v>2393.1999999999998</v>
+        <v>1731.49</v>
       </c>
       <c r="H36">
-        <v>2322.2600000000002</v>
+        <v>1824.03</v>
       </c>
       <c r="I36">
-        <v>2213.6999999999998</v>
+        <v>1830.7</v>
       </c>
       <c r="J36">
-        <v>2139.4499999999998</v>
+        <v>1870.05</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="C37" s="2">
-        <v>44537</v>
+        <v>44544</v>
       </c>
       <c r="D37" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E37">
-        <v>1396.95</v>
+        <v>17179</v>
       </c>
       <c r="F37">
-        <v>1368.62</v>
+        <v>17340.669999999998</v>
       </c>
       <c r="G37">
-        <v>1359.7</v>
+        <v>17423.900000000001</v>
       </c>
       <c r="H37">
-        <v>1436.27</v>
+        <v>16835.419999999998</v>
       </c>
       <c r="I37">
-        <v>1438.86</v>
+        <v>16745.22</v>
       </c>
       <c r="J37">
-        <v>1474.22</v>
+        <v>16170.33</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C38" s="2">
-        <v>44537</v>
+        <v>44544</v>
       </c>
       <c r="D38" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="E38">
-        <v>343.85</v>
+        <v>210.1</v>
       </c>
       <c r="F38">
-        <v>336.81</v>
+        <v>202.21</v>
       </c>
       <c r="G38">
-        <v>322.44</v>
+        <v>195.13</v>
       </c>
       <c r="H38">
-        <v>354.17</v>
+        <v>216.4</v>
       </c>
       <c r="I38">
-        <v>377.93</v>
+        <v>217.4</v>
       </c>
       <c r="J38">
-        <v>397.48</v>
+        <v>222.72</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C39" s="2">
-        <v>44532</v>
+        <v>44544</v>
       </c>
       <c r="D39" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E39">
-        <v>563</v>
+        <v>3132.1</v>
       </c>
       <c r="F39">
-        <v>537.13</v>
+        <v>3018.75</v>
       </c>
       <c r="G39">
-        <v>518.1</v>
+        <v>2970.2</v>
       </c>
       <c r="H39">
-        <v>576.47</v>
+        <v>3226.06</v>
       </c>
       <c r="I39">
-        <v>579.89</v>
+        <v>3282.13</v>
       </c>
       <c r="J39">
-        <v>589.1</v>
+        <v>3402.18</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="C40" s="2">
-        <v>44531</v>
+        <v>44543</v>
       </c>
       <c r="D40" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E40">
-        <v>2083</v>
+        <v>73720</v>
       </c>
       <c r="F40">
-        <v>1996.36</v>
+        <v>75357.8</v>
       </c>
       <c r="G40">
-        <v>1619.92</v>
+        <v>76056.88</v>
       </c>
       <c r="H40">
-        <v>2127.9</v>
+        <v>72245.600000000006</v>
       </c>
       <c r="I40">
-        <v>2145.4899999999998</v>
+        <v>71623.92</v>
       </c>
       <c r="J40">
-        <v>2179.5</v>
+        <v>70120.479999999996</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="C41" s="2">
-        <v>44530</v>
+        <v>44543</v>
       </c>
       <c r="D41" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E41">
-        <v>3261.7</v>
+        <v>2411.8000000000002</v>
       </c>
       <c r="F41">
-        <v>3106.05</v>
+        <v>2436.71</v>
       </c>
       <c r="G41">
-        <v>2961.96</v>
+        <v>2438.87</v>
       </c>
       <c r="H41">
-        <v>3359.55</v>
+        <v>2363.56</v>
       </c>
       <c r="I41">
-        <v>3685.62</v>
+        <v>2275.5300000000002</v>
+      </c>
+      <c r="J41">
+        <v>2227.34</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="C42" s="2">
-        <v>44530</v>
+        <v>44543</v>
       </c>
       <c r="D42" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E42">
-        <v>4119.95</v>
+        <v>1473.15</v>
       </c>
       <c r="F42">
-        <v>4118.8599999999997</v>
+        <v>1481.71</v>
       </c>
       <c r="G42">
-        <v>3953.01</v>
+        <v>1497.22</v>
       </c>
       <c r="H42">
-        <v>4243.55</v>
+        <v>1443.69</v>
       </c>
       <c r="I42">
-        <v>4342.47</v>
+        <v>1407.59</v>
       </c>
       <c r="J42">
-        <v>4551.8500000000004</v>
+        <v>1397.48</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="C43" s="2">
-        <v>44529</v>
+        <v>44543</v>
       </c>
       <c r="D43" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E43">
-        <v>2717.3</v>
+        <v>2523.1</v>
       </c>
       <c r="F43">
-        <v>2735.84</v>
+        <v>2545.17</v>
       </c>
       <c r="G43">
-        <v>2828.77</v>
+        <v>2560.54</v>
       </c>
       <c r="H43">
-        <v>2662.95</v>
+        <v>2472.64</v>
       </c>
       <c r="I43">
-        <v>2642.47</v>
+        <v>2391.33</v>
       </c>
       <c r="J43">
-        <v>2574.37</v>
+        <v>2331.35</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C44" s="2">
-        <v>44529</v>
+        <v>44540</v>
       </c>
       <c r="D44" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E44">
-        <v>978.25</v>
+        <v>493.8</v>
       </c>
       <c r="F44">
-        <v>931</v>
+        <v>490.43</v>
       </c>
       <c r="G44">
-        <v>926.82</v>
+        <v>485.79</v>
       </c>
       <c r="H44">
-        <v>1007.6</v>
+        <v>508.61</v>
       </c>
       <c r="I44">
-        <v>1040.78</v>
+        <v>517.13</v>
       </c>
       <c r="J44">
-        <v>1152.48</v>
+        <v>573.72</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="C45" s="2">
-        <v>44524</v>
+        <v>44540</v>
       </c>
       <c r="D45" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E45">
-        <v>19246.2</v>
+        <v>217.25</v>
       </c>
       <c r="F45">
-        <v>19545.009999999998</v>
+        <v>212.85</v>
       </c>
       <c r="G45">
-        <v>19956.689999999999</v>
+        <v>204.9</v>
       </c>
       <c r="H45">
-        <v>18861.28</v>
+        <v>223.38</v>
       </c>
       <c r="I45">
-        <v>18521.45</v>
+        <v>223.77</v>
       </c>
       <c r="J45">
-        <v>17757.47</v>
+        <v>232.92</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C46" s="2">
-        <v>44524</v>
+        <v>44540</v>
       </c>
       <c r="D46" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E46">
-        <v>556.54999999999995</v>
+        <v>2396.85</v>
       </c>
       <c r="F46">
-        <v>523.66</v>
+        <v>2247.5500000000002</v>
       </c>
       <c r="G46">
-        <v>510.71</v>
+        <v>2243.5700000000002</v>
       </c>
       <c r="H46">
-        <v>571.67999999999995</v>
+        <v>2468.7600000000002</v>
       </c>
       <c r="I46">
-        <v>573.25</v>
+        <v>2623.3</v>
       </c>
       <c r="J46">
-        <v>634.33000000000004</v>
+        <v>3042.3</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="C47" s="2">
-        <v>44523</v>
+        <v>44539</v>
       </c>
       <c r="D47" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E47">
-        <v>3365.55</v>
+        <v>1438.35</v>
       </c>
       <c r="F47">
-        <v>3531.32</v>
+        <v>1467.78</v>
       </c>
       <c r="G47">
-        <v>3583.32</v>
+        <v>1468.62</v>
       </c>
       <c r="H47">
-        <v>3298.24</v>
+        <v>1409.58</v>
       </c>
       <c r="I47">
-        <v>3262.63</v>
+        <v>1380.57</v>
       </c>
       <c r="J47">
-        <v>3223.52</v>
+        <v>1353.67</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="C48" s="2">
-        <v>44522</v>
+        <v>44539</v>
       </c>
       <c r="D48" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E48">
-        <v>2525.85</v>
+        <v>2369.65</v>
       </c>
       <c r="F48">
-        <v>2622.69</v>
+        <v>2392.6799999999998</v>
       </c>
       <c r="G48">
-        <v>2653.44</v>
+        <v>2393.1999999999998</v>
       </c>
       <c r="H48">
-        <v>2475.33</v>
+        <v>2322.2600000000002</v>
       </c>
       <c r="I48">
-        <v>2317.65</v>
+        <v>2213.6999999999998</v>
       </c>
       <c r="J48">
-        <v>2234.0700000000002</v>
+        <v>2139.4499999999998</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="C49" s="2">
-        <v>44522</v>
+        <v>44537</v>
       </c>
       <c r="D49" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="E49">
-        <v>75820.899999999994</v>
+        <v>1396.95</v>
       </c>
       <c r="F49">
-        <v>78495.789999999994</v>
+        <v>1368.62</v>
       </c>
       <c r="G49">
-        <v>80044.039999999994</v>
+        <v>1359.7</v>
       </c>
       <c r="H49">
-        <v>74304.479999999996</v>
+        <v>1436.27</v>
       </c>
       <c r="I49">
-        <v>73455.429999999993</v>
+        <v>1438.86</v>
       </c>
       <c r="J49">
-        <v>71529.070000000007</v>
+        <v>1474.22</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B50" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C50" s="2">
-        <v>44522</v>
+        <v>44537</v>
       </c>
       <c r="D50" t="s">
         <v>24</v>
       </c>
       <c r="E50">
-        <v>196.1</v>
+        <v>343.85</v>
       </c>
       <c r="F50">
-        <v>188.03</v>
+        <v>336.81</v>
       </c>
       <c r="G50">
-        <v>186.78</v>
+        <v>322.44</v>
       </c>
       <c r="H50">
-        <v>201.98</v>
+        <v>354.17</v>
       </c>
       <c r="I50">
-        <v>202.9</v>
+        <v>377.93</v>
       </c>
       <c r="J50">
-        <v>220.75</v>
+        <v>397.48</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B51" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="C51" s="2">
-        <v>44518</v>
+        <v>44532</v>
       </c>
       <c r="D51" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E51">
-        <v>899.1</v>
+        <v>563</v>
       </c>
       <c r="F51">
-        <v>928.34</v>
+        <v>537.13</v>
       </c>
       <c r="G51">
-        <v>944.62</v>
+        <v>518.1</v>
       </c>
       <c r="H51">
-        <v>881.12</v>
+        <v>576.47</v>
       </c>
       <c r="I51">
-        <v>873.97</v>
+        <v>579.89</v>
       </c>
       <c r="J51">
-        <v>849.5</v>
+        <v>589.1</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="C52" s="2">
-        <v>44518</v>
+        <v>44531</v>
       </c>
       <c r="D52" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="E52">
-        <v>3569.95</v>
+        <v>2083</v>
       </c>
       <c r="F52">
-        <v>3635.6</v>
+        <v>1996.36</v>
       </c>
       <c r="G52">
-        <v>3670.74</v>
+        <v>1619.92</v>
       </c>
       <c r="H52">
-        <v>3498.55</v>
+        <v>2127.9</v>
       </c>
       <c r="I52">
-        <v>3447.15</v>
+        <v>2145.4899999999998</v>
       </c>
       <c r="J52">
-        <v>3370.95</v>
+        <v>2179.5</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="C53" s="2">
-        <v>44518</v>
+        <v>44530</v>
       </c>
       <c r="D53" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E53">
-        <v>652.4</v>
+        <v>3261.7</v>
       </c>
       <c r="F53">
-        <v>676.12</v>
+        <v>3106.05</v>
       </c>
       <c r="G53">
-        <v>684.64</v>
+        <v>2961.96</v>
       </c>
       <c r="H53">
-        <v>639.35</v>
+        <v>3359.55</v>
       </c>
       <c r="I53">
-        <v>618.73</v>
-      </c>
-      <c r="J53">
-        <v>600.54999999999995</v>
+        <v>3685.62</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="C54" s="2">
-        <v>44518</v>
+        <v>44530</v>
       </c>
       <c r="D54" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E54">
-        <v>1036.95</v>
+        <v>4119.95</v>
       </c>
       <c r="F54">
-        <v>1053.01</v>
+        <v>4118.8599999999997</v>
       </c>
       <c r="G54">
-        <v>1086.1400000000001</v>
+        <v>3953.01</v>
       </c>
       <c r="H54">
-        <v>1016.21</v>
+        <v>4243.55</v>
       </c>
       <c r="I54">
-        <v>999.2</v>
+        <v>4342.47</v>
       </c>
       <c r="J54">
-        <v>943.3</v>
+        <v>4551.8500000000004</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="C55" s="2">
-        <v>44518</v>
+        <v>44529</v>
       </c>
       <c r="D55" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="E55">
-        <v>2257.5</v>
+        <v>2717.3</v>
       </c>
       <c r="F55">
-        <v>2336.2399999999998</v>
+        <v>2735.84</v>
       </c>
       <c r="G55">
-        <v>2478.66</v>
+        <v>2828.77</v>
       </c>
       <c r="H55">
-        <v>2212.35</v>
+        <v>2662.95</v>
       </c>
       <c r="I55">
-        <v>1936</v>
+        <v>2642.47</v>
       </c>
       <c r="J55">
-        <v>1788.83</v>
+        <v>2574.37</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C56" s="2">
-        <v>44518</v>
+        <v>44529</v>
       </c>
       <c r="D56" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="E56">
-        <v>2241</v>
+        <v>978.25</v>
       </c>
       <c r="F56">
-        <v>2204.42</v>
+        <v>931</v>
       </c>
       <c r="G56">
-        <v>2150.1</v>
+        <v>926.82</v>
       </c>
       <c r="H56">
-        <v>2308.23</v>
+        <v>1007.6</v>
       </c>
       <c r="I56">
-        <v>2327.65</v>
+        <v>1040.78</v>
       </c>
       <c r="J56">
-        <v>2415.1999999999998</v>
+        <v>1152.48</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="C57" s="2">
-        <v>44517</v>
+        <v>44524</v>
       </c>
       <c r="D57" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E57">
-        <v>665.1</v>
+        <v>19246.2</v>
       </c>
       <c r="F57">
-        <v>690.11</v>
+        <v>19545.009999999998</v>
       </c>
       <c r="G57">
-        <v>714.34</v>
+        <v>19956.689999999999</v>
       </c>
       <c r="H57">
-        <v>651.79999999999995</v>
+        <v>18861.28</v>
       </c>
       <c r="I57">
-        <v>640.48</v>
+        <v>18521.45</v>
       </c>
       <c r="J57">
-        <v>624.17999999999995</v>
+        <v>17757.47</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C58" s="2">
-        <v>44516</v>
+        <v>44524</v>
       </c>
       <c r="D58" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E58">
-        <v>295.64999999999998</v>
+        <v>556.54999999999995</v>
       </c>
       <c r="F58">
-        <v>288.73</v>
+        <v>523.66</v>
       </c>
       <c r="G58">
-        <v>284.8</v>
+        <v>510.71</v>
       </c>
       <c r="H58">
-        <v>304.52</v>
+        <v>571.67999999999995</v>
       </c>
       <c r="I58">
-        <v>310.98</v>
+        <v>573.25</v>
       </c>
       <c r="J58">
-        <v>350.47</v>
+        <v>634.33000000000004</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="C59" s="2">
-        <v>44516</v>
+        <v>44523</v>
       </c>
       <c r="D59" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="E59">
-        <v>6554.85</v>
+        <v>3365.55</v>
       </c>
       <c r="F59">
-        <v>6494.46</v>
+        <v>3531.32</v>
       </c>
       <c r="G59">
-        <v>6294.15</v>
+        <v>3583.32</v>
       </c>
       <c r="H59">
-        <v>6751.5</v>
+        <v>3298.24</v>
       </c>
       <c r="I59">
-        <v>6770.38</v>
+        <v>3262.63</v>
       </c>
       <c r="J59">
-        <v>7070.18</v>
+        <v>3223.52</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B60" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="C60" s="2">
-        <v>44516</v>
+        <v>44522</v>
       </c>
       <c r="D60" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="E60">
-        <v>18349.2</v>
+        <v>2525.85</v>
       </c>
       <c r="F60">
-        <v>18142.73</v>
+        <v>2622.69</v>
       </c>
       <c r="G60">
-        <v>17748.240000000002</v>
+        <v>2653.44</v>
       </c>
       <c r="H60">
-        <v>18899.68</v>
+        <v>2475.33</v>
       </c>
       <c r="I60">
-        <v>19080.77</v>
+        <v>2317.65</v>
       </c>
       <c r="J60">
-        <v>19710.580000000002</v>
+        <v>2234.0700000000002</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B61" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="C61" s="2">
-        <v>44516</v>
+        <v>44522</v>
       </c>
       <c r="D61" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="E61">
-        <v>332.45</v>
+        <v>75820.899999999994</v>
       </c>
       <c r="F61">
-        <v>324.3</v>
+        <v>78495.789999999994</v>
       </c>
       <c r="G61">
-        <v>311.52999999999997</v>
+        <v>80044.039999999994</v>
       </c>
       <c r="H61">
-        <v>342.42</v>
+        <v>74304.479999999996</v>
       </c>
       <c r="I61">
-        <v>365.55</v>
+        <v>73455.429999999993</v>
       </c>
       <c r="J61">
-        <v>396.32</v>
+        <v>71529.070000000007</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B62" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C62" s="2">
-        <v>44515</v>
+        <v>44522</v>
       </c>
       <c r="D62" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E62">
-        <v>323.5</v>
+        <v>196.1</v>
       </c>
       <c r="F62">
-        <v>312.17</v>
+        <v>188.03</v>
       </c>
       <c r="G62">
-        <v>285.49</v>
+        <v>186.78</v>
       </c>
       <c r="H62">
-        <v>333.2</v>
+        <v>201.98</v>
       </c>
       <c r="I62">
-        <v>340.43</v>
+        <v>202.9</v>
       </c>
       <c r="J62">
-        <v>353.58</v>
+        <v>220.75</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B63" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="C63" s="2">
-        <v>44515</v>
+        <v>44518</v>
       </c>
       <c r="D63" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E63">
-        <v>147.75</v>
+        <v>899.1</v>
       </c>
       <c r="F63">
-        <v>143.44</v>
+        <v>928.34</v>
       </c>
       <c r="G63">
-        <v>135</v>
+        <v>944.62</v>
       </c>
       <c r="H63">
-        <v>151.72999999999999</v>
+        <v>881.12</v>
       </c>
       <c r="I63">
-        <v>152.18</v>
+        <v>873.97</v>
       </c>
       <c r="J63">
-        <v>156.4</v>
+        <v>849.5</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B64" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="C64" s="2">
-        <v>44515</v>
+        <v>44518</v>
       </c>
       <c r="D64" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E64">
-        <v>1589.5</v>
+        <v>3569.95</v>
       </c>
       <c r="F64">
-        <v>1533.2</v>
+        <v>3635.6</v>
       </c>
       <c r="G64">
-        <v>1473.57</v>
+        <v>3670.74</v>
       </c>
       <c r="H64">
-        <v>1637.18</v>
+        <v>3498.55</v>
       </c>
       <c r="I64">
-        <v>1688.42</v>
+        <v>3447.15</v>
       </c>
       <c r="J64">
-        <v>1758.62</v>
+        <v>3370.95</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B65" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="C65" s="2">
-        <v>44512</v>
+        <v>44518</v>
       </c>
       <c r="D65" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E65">
-        <v>766.9</v>
+        <v>652.4</v>
       </c>
       <c r="F65">
-        <v>773.17</v>
+        <v>676.12</v>
       </c>
       <c r="G65">
-        <v>774.91</v>
+        <v>684.64</v>
       </c>
       <c r="H65">
-        <v>751.56</v>
+        <v>639.35</v>
       </c>
       <c r="I65">
-        <v>742.23</v>
+        <v>618.73</v>
       </c>
       <c r="J65">
-        <v>716.97</v>
+        <v>600.54999999999995</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B66" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="C66" s="2">
-        <v>44512</v>
+        <v>44518</v>
       </c>
       <c r="D66" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="E66">
-        <v>738.8</v>
+        <v>1036.95</v>
       </c>
       <c r="F66">
-        <v>703.2</v>
+        <v>1053.01</v>
       </c>
       <c r="G66">
-        <v>698.86</v>
+        <v>1086.1400000000001</v>
       </c>
       <c r="H66">
-        <v>760.96</v>
+        <v>1016.21</v>
       </c>
       <c r="I66">
-        <v>783.22</v>
+        <v>999.2</v>
+      </c>
+      <c r="J66">
+        <v>943.3</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B67" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="C67" s="2">
-        <v>44512</v>
+        <v>44518</v>
       </c>
       <c r="D67" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E67">
-        <v>2355</v>
+        <v>2257.5</v>
       </c>
       <c r="F67">
-        <v>2410.02</v>
+        <v>2336.2399999999998</v>
       </c>
       <c r="G67">
-        <v>2485.77</v>
+        <v>2478.66</v>
       </c>
       <c r="H67">
-        <v>2307.9</v>
+        <v>2212.35</v>
       </c>
       <c r="I67">
-        <v>2290.5700000000002</v>
+        <v>1936</v>
       </c>
       <c r="J67">
-        <v>2234.0700000000002</v>
+        <v>1788.83</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B68" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C68" s="2">
-        <v>44512</v>
+        <v>44518</v>
       </c>
       <c r="D68" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E68">
-        <v>4174.3999999999996</v>
+        <v>2241</v>
       </c>
       <c r="F68">
-        <v>4068.59</v>
+        <v>2204.42</v>
       </c>
       <c r="G68">
-        <v>3816.5</v>
+        <v>2150.1</v>
       </c>
       <c r="H68">
-        <v>4299.63</v>
+        <v>2308.23</v>
       </c>
       <c r="I68">
-        <v>4342.47</v>
+        <v>2327.65</v>
       </c>
       <c r="J68">
-        <v>4551.8500000000004</v>
+        <v>2415.1999999999998</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B69" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="C69" s="2">
-        <v>44510</v>
+        <v>44517</v>
       </c>
       <c r="D69" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E69">
-        <v>295.75</v>
+        <v>665.1</v>
       </c>
       <c r="F69">
-        <v>290.58</v>
+        <v>690.11</v>
       </c>
       <c r="G69">
-        <v>278.82</v>
+        <v>714.34</v>
       </c>
       <c r="H69">
-        <v>304.62</v>
+        <v>651.79999999999995</v>
       </c>
       <c r="I69">
-        <v>310.98</v>
+        <v>640.48</v>
       </c>
       <c r="J69">
-        <v>350.47</v>
+        <v>624.17999999999995</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B70" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C70" s="2">
-        <v>44510</v>
+        <v>44516</v>
       </c>
       <c r="D70" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E70">
-        <v>1911.35</v>
+        <v>295.64999999999998</v>
       </c>
       <c r="F70">
-        <v>1835.89</v>
+        <v>288.73</v>
       </c>
       <c r="G70">
-        <v>1729.17</v>
+        <v>284.8</v>
       </c>
       <c r="H70">
-        <v>1968.69</v>
+        <v>304.52</v>
       </c>
       <c r="I70">
-        <v>2015.1</v>
+        <v>310.98</v>
       </c>
       <c r="J70">
-        <v>2170.7800000000002</v>
+        <v>350.47</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B71" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="C71" s="2">
-        <v>44509</v>
+        <v>44516</v>
       </c>
       <c r="D71" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="E71">
-        <v>153.1</v>
+        <v>6554.85</v>
       </c>
       <c r="F71">
-        <v>154.79</v>
+        <v>6494.46</v>
       </c>
       <c r="G71">
-        <v>155.13</v>
+        <v>6294.15</v>
       </c>
       <c r="H71">
-        <v>150.04</v>
+        <v>6751.5</v>
       </c>
       <c r="I71">
-        <v>140.58000000000001</v>
+        <v>6770.38</v>
       </c>
       <c r="J71">
-        <v>136.55000000000001</v>
+        <v>7070.18</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B72" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C72" s="2">
-        <v>44509</v>
+        <v>44516</v>
       </c>
       <c r="D72" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="E72">
-        <v>1656.3</v>
+        <v>18349.2</v>
       </c>
       <c r="F72">
-        <v>1540.16</v>
+        <v>18142.73</v>
       </c>
       <c r="G72">
-        <v>1523.39</v>
+        <v>17748.240000000002</v>
       </c>
       <c r="H72">
-        <v>1705.99</v>
+        <v>18899.68</v>
       </c>
       <c r="I72">
-        <v>1793.33</v>
+        <v>19080.77</v>
       </c>
       <c r="J72">
-        <v>2098.58</v>
+        <v>19710.580000000002</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B73" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="C73" s="2">
-        <v>44509</v>
+        <v>44516</v>
       </c>
       <c r="D73" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="E73">
-        <v>1079.5999999999999</v>
+        <v>332.45</v>
       </c>
       <c r="F73">
-        <v>1091.52</v>
+        <v>324.3</v>
       </c>
       <c r="G73">
-        <v>1108.82</v>
+        <v>311.52999999999997</v>
       </c>
       <c r="H73">
-        <v>1058.01</v>
+        <v>342.42</v>
       </c>
       <c r="I73">
-        <v>1039.42</v>
+        <v>365.55</v>
       </c>
       <c r="J73">
-        <v>999.2</v>
+        <v>396.32</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B74" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C74" s="2">
-        <v>44509</v>
+        <v>44515</v>
       </c>
       <c r="D74" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E74">
-        <v>424.45</v>
+        <v>323.5</v>
       </c>
       <c r="F74">
-        <v>415.79</v>
+        <v>312.17</v>
       </c>
       <c r="G74">
-        <v>415.56</v>
+        <v>285.49</v>
       </c>
       <c r="H74">
-        <v>437.1</v>
+        <v>333.2</v>
       </c>
       <c r="I74">
-        <v>437.18</v>
+        <v>340.43</v>
       </c>
       <c r="J74">
-        <v>467.75</v>
+        <v>353.58</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B75" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C75" s="2">
-        <v>44509</v>
+        <v>44515</v>
       </c>
       <c r="D75" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="E75">
-        <v>2413.8000000000002</v>
+        <v>147.75</v>
       </c>
       <c r="F75">
-        <v>2375.0500000000002</v>
+        <v>143.44</v>
       </c>
       <c r="G75">
-        <v>2360.8000000000002</v>
+        <v>135</v>
       </c>
       <c r="H75">
-        <v>2486.21</v>
+        <v>151.72999999999999</v>
       </c>
       <c r="I75">
-        <v>2565.9</v>
+        <v>152.18</v>
       </c>
       <c r="J75">
-        <v>2870.4</v>
+        <v>156.4</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C76" s="2">
-        <v>44509</v>
+        <v>44515</v>
       </c>
       <c r="D76" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E76">
-        <v>1563</v>
+        <v>1589.5</v>
       </c>
       <c r="F76">
-        <v>1517.24</v>
+        <v>1533.2</v>
       </c>
       <c r="G76">
-        <v>1467.89</v>
+        <v>1473.57</v>
       </c>
       <c r="H76">
-        <v>1609.89</v>
+        <v>1637.18</v>
       </c>
       <c r="I76">
-        <v>1630.93</v>
+        <v>1688.42</v>
       </c>
       <c r="J76">
-        <v>1661.7</v>
+        <v>1758.62</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B77" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="C77" s="2">
-        <v>44508</v>
+        <v>44512</v>
       </c>
       <c r="D77" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E77">
-        <v>467.55</v>
+        <v>766.9</v>
       </c>
       <c r="F77">
-        <v>470.83</v>
+        <v>773.17</v>
       </c>
       <c r="G77">
-        <v>476.29</v>
+        <v>774.91</v>
       </c>
       <c r="H77">
-        <v>458.2</v>
+        <v>751.56</v>
       </c>
       <c r="I77">
-        <v>432.8</v>
+        <v>742.23</v>
       </c>
       <c r="J77">
-        <v>416.4</v>
+        <v>716.97</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B78" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C78" s="2">
-        <v>44508</v>
+        <v>44512</v>
       </c>
       <c r="D78" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E78">
-        <v>2764.8</v>
+        <v>738.8</v>
       </c>
       <c r="F78">
-        <v>2705.82</v>
+        <v>703.2</v>
       </c>
       <c r="G78">
-        <v>2677.54</v>
+        <v>698.86</v>
       </c>
       <c r="H78">
-        <v>2847.74</v>
+        <v>760.96</v>
       </c>
       <c r="I78">
-        <v>2907.8</v>
-      </c>
-      <c r="J78">
-        <v>3060.82</v>
+        <v>783.22</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B79" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="C79" s="2">
-        <v>44508</v>
+        <v>44512</v>
       </c>
       <c r="D79" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="E79">
-        <v>2139</v>
+        <v>2355</v>
       </c>
       <c r="F79">
-        <v>2037.09</v>
+        <v>2410.02</v>
       </c>
       <c r="G79">
-        <v>1886.57</v>
+        <v>2485.77</v>
       </c>
       <c r="H79">
-        <v>2203.17</v>
+        <v>2307.9</v>
       </c>
       <c r="I79">
-        <v>2207.3000000000002</v>
+        <v>2290.5700000000002</v>
       </c>
       <c r="J79">
-        <v>2321.2199999999998</v>
+        <v>2234.0700000000002</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B80" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C80" s="2">
-        <v>44508</v>
+        <v>44512</v>
       </c>
       <c r="D80" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="E80">
-        <v>2484.3000000000002</v>
+        <v>4174.3999999999996</v>
       </c>
       <c r="F80">
-        <v>2442.6799999999998</v>
+        <v>4068.59</v>
       </c>
       <c r="G80">
-        <v>2215.5700000000002</v>
+        <v>3816.5</v>
       </c>
       <c r="H80">
-        <v>2558.83</v>
+        <v>4299.63</v>
       </c>
       <c r="I80">
-        <v>2666.75</v>
+        <v>4342.47</v>
       </c>
       <c r="J80">
-        <v>2808.35</v>
+        <v>4551.8500000000004</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B81" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="C81" s="2">
-        <v>44508</v>
+        <v>44510</v>
       </c>
       <c r="D81" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E81">
-        <v>2359.65</v>
+        <v>295.75</v>
       </c>
       <c r="F81">
-        <v>2379.3000000000002</v>
+        <v>290.58</v>
       </c>
       <c r="G81">
-        <v>2391.1999999999998</v>
+        <v>278.82</v>
       </c>
       <c r="H81">
-        <v>2312.46</v>
+        <v>304.62</v>
       </c>
       <c r="I81">
-        <v>2198.4299999999998</v>
+        <v>310.98</v>
       </c>
       <c r="J81">
-        <v>2140.8200000000002</v>
+        <v>350.47</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B82" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C82" s="2">
-        <v>44508</v>
+        <v>44510</v>
       </c>
       <c r="D82" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="E82">
-        <v>1577.85</v>
+        <v>1911.35</v>
       </c>
       <c r="F82">
-        <v>1529.28</v>
+        <v>1835.89</v>
       </c>
       <c r="G82">
-        <v>1519.88</v>
+        <v>1729.17</v>
       </c>
       <c r="H82">
-        <v>1620.42</v>
+        <v>1968.69</v>
       </c>
       <c r="I82">
-        <v>1625.19</v>
+        <v>2015.1</v>
       </c>
       <c r="J82">
-        <v>1671.32</v>
+        <v>2170.7800000000002</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B83" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="C83" s="2">
-        <v>44504</v>
+        <v>44509</v>
       </c>
       <c r="D83" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="E83">
-        <v>5220</v>
+        <v>153.1</v>
       </c>
       <c r="F83">
-        <v>5165.45</v>
+        <v>154.79</v>
       </c>
       <c r="G83">
-        <v>5108.8100000000004</v>
+        <v>155.13</v>
       </c>
       <c r="H83">
-        <v>5376.6</v>
+        <v>150.04</v>
       </c>
       <c r="I83">
-        <v>5456.83</v>
+        <v>140.58000000000001</v>
       </c>
       <c r="J83">
-        <v>5610.18</v>
+        <v>136.55000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B84" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C84" s="2">
-        <v>44504</v>
+        <v>44509</v>
       </c>
       <c r="D84" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E84">
-        <v>173.8</v>
+        <v>1656.3</v>
       </c>
       <c r="F84">
-        <v>169.94</v>
+        <v>1540.16</v>
       </c>
       <c r="G84">
-        <v>163.85</v>
+        <v>1523.39</v>
       </c>
       <c r="H84">
-        <v>179.01</v>
+        <v>1705.99</v>
       </c>
       <c r="I84">
-        <v>182.83</v>
+        <v>1793.33</v>
       </c>
       <c r="J84">
-        <v>190.18</v>
+        <v>2098.58</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B85" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="C85" s="2">
-        <v>44504</v>
+        <v>44509</v>
       </c>
       <c r="D85" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E85">
-        <v>2499.6</v>
+        <v>1079.5999999999999</v>
       </c>
       <c r="F85">
-        <v>2495.31</v>
+        <v>1091.52</v>
       </c>
       <c r="G85">
-        <v>2310.7199999999998</v>
+        <v>1108.82</v>
       </c>
       <c r="H85">
-        <v>2574.59</v>
+        <v>1058.01</v>
       </c>
       <c r="I85">
-        <v>2693.4</v>
+        <v>1039.42</v>
       </c>
       <c r="J85">
-        <v>2771.97</v>
+        <v>999.2</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B86" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="C86" s="2">
-        <v>44503</v>
+        <v>44509</v>
       </c>
       <c r="D86" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E86">
-        <v>3654.6</v>
+        <v>424.45</v>
       </c>
       <c r="F86">
-        <v>3805.37</v>
+        <v>415.79</v>
       </c>
       <c r="G86">
-        <v>3850.49</v>
+        <v>415.56</v>
       </c>
       <c r="H86">
-        <v>3581.51</v>
+        <v>437.1</v>
       </c>
       <c r="I86">
-        <v>3446.93</v>
+        <v>437.18</v>
       </c>
       <c r="J86">
-        <v>3365.07</v>
+        <v>467.75</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B87" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="C87" s="2">
-        <v>44503</v>
+        <v>44509</v>
       </c>
       <c r="D87" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="E87">
-        <v>1322.95</v>
+        <v>2413.8000000000002</v>
       </c>
       <c r="F87">
-        <v>1359.45</v>
+        <v>2375.0500000000002</v>
       </c>
       <c r="G87">
-        <v>1359.87</v>
+        <v>2360.8000000000002</v>
       </c>
       <c r="H87">
-        <v>1296.49</v>
+        <v>2486.21</v>
       </c>
       <c r="I87">
-        <v>1171.67</v>
+        <v>2565.9</v>
       </c>
       <c r="J87">
-        <v>1104.2</v>
+        <v>2870.4</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B88" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C88" s="2">
-        <v>44503</v>
+        <v>44509</v>
       </c>
       <c r="D88" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E88">
-        <v>3078.95</v>
+        <v>1563</v>
       </c>
       <c r="F88">
-        <v>2886.93</v>
+        <v>1517.24</v>
       </c>
       <c r="G88">
-        <v>2865.44</v>
+        <v>1467.89</v>
       </c>
       <c r="H88">
-        <v>3171.32</v>
+        <v>1609.89</v>
       </c>
       <c r="I88">
-        <v>3201.05</v>
+        <v>1630.93</v>
       </c>
       <c r="J88">
-        <v>3280.67</v>
+        <v>1661.7</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B89" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="C89" s="2">
-        <v>44503</v>
+        <v>44508</v>
       </c>
       <c r="D89" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E89">
-        <v>203.8</v>
+        <v>467.55</v>
       </c>
       <c r="F89">
-        <v>197.77</v>
+        <v>470.83</v>
       </c>
       <c r="G89">
-        <v>179.94</v>
+        <v>476.29</v>
       </c>
       <c r="H89">
-        <v>209.91</v>
+        <v>458.2</v>
       </c>
       <c r="I89">
-        <v>222.67</v>
+        <v>432.8</v>
       </c>
       <c r="J89">
-        <v>230.1</v>
+        <v>416.4</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B90" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C90" s="2">
-        <v>44502</v>
+        <v>44508</v>
       </c>
       <c r="D90" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="E90">
-        <v>2447.3000000000002</v>
+        <v>2764.8</v>
       </c>
       <c r="F90">
-        <v>2411.42</v>
+        <v>2705.82</v>
       </c>
       <c r="G90">
-        <v>2180.0100000000002</v>
+        <v>2677.54</v>
       </c>
       <c r="H90">
-        <v>2520.7199999999998</v>
+        <v>2847.74</v>
       </c>
       <c r="I90">
-        <v>2666.75</v>
+        <v>2907.8</v>
       </c>
       <c r="J90">
-        <v>2808.35</v>
+        <v>3060.82</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B91" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C91" s="2">
-        <v>44502</v>
+        <v>44508</v>
       </c>
       <c r="D91" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="E91">
-        <v>511.55</v>
+        <v>2139</v>
       </c>
       <c r="F91">
-        <v>507.55</v>
+        <v>2037.09</v>
       </c>
       <c r="G91">
-        <v>495.11</v>
+        <v>1886.57</v>
       </c>
       <c r="H91">
-        <v>522.41999999999996</v>
+        <v>2203.17</v>
       </c>
       <c r="I91">
-        <v>526.9</v>
+        <v>2207.3000000000002</v>
       </c>
       <c r="J91">
-        <v>535.82000000000005</v>
+        <v>2321.2199999999998</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B92" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C92" s="2">
-        <v>44502</v>
+        <v>44508</v>
       </c>
       <c r="D92" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E92">
-        <v>20187.5</v>
+        <v>2484.3000000000002</v>
       </c>
       <c r="F92">
-        <v>19069.46</v>
+        <v>2442.6799999999998</v>
       </c>
       <c r="G92">
-        <v>17068.93</v>
+        <v>2215.5700000000002</v>
       </c>
       <c r="H92">
-        <v>20793.13</v>
+        <v>2558.83</v>
       </c>
       <c r="I92">
-        <v>21991.919999999998</v>
+        <v>2666.75</v>
       </c>
       <c r="J92">
-        <v>22755.9</v>
+        <v>2808.35</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B93" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="C93" s="2">
-        <v>44501</v>
+        <v>44508</v>
       </c>
       <c r="D93" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="E93">
-        <v>7636.25</v>
+        <v>2359.65</v>
       </c>
       <c r="F93">
-        <v>7460.39</v>
+        <v>2379.3000000000002</v>
       </c>
       <c r="G93">
-        <v>7183.1</v>
+        <v>2391.1999999999998</v>
       </c>
       <c r="H93">
-        <v>7834.8</v>
+        <v>2312.46</v>
       </c>
       <c r="I93">
-        <v>7865.34</v>
+        <v>2198.4299999999998</v>
       </c>
       <c r="J93">
-        <v>8011</v>
+        <v>2140.8200000000002</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B94" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C94" s="2">
-        <v>44501</v>
+        <v>44508</v>
       </c>
       <c r="D94" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="E94">
-        <v>2359.75</v>
+        <v>1577.85</v>
       </c>
       <c r="F94">
-        <v>2292.5500000000002</v>
+        <v>1529.28</v>
       </c>
       <c r="G94">
-        <v>2057.4699999999998</v>
+        <v>1519.88</v>
       </c>
       <c r="H94">
-        <v>2422.8200000000002</v>
+        <v>1620.42</v>
       </c>
       <c r="I94">
-        <v>2430.54</v>
+        <v>1625.19</v>
       </c>
       <c r="J94">
-        <v>2480.4299999999998</v>
+        <v>1671.32</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B95" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C95" s="2">
-        <v>44501</v>
+        <v>44504</v>
       </c>
       <c r="D95" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="E95">
-        <v>1166.3499999999999</v>
+        <v>5220</v>
       </c>
       <c r="F95">
-        <v>1122.46</v>
+        <v>5165.45</v>
       </c>
       <c r="G95">
-        <v>1019.71</v>
+        <v>5108.8100000000004</v>
       </c>
       <c r="H95">
-        <v>1201.3399999999999</v>
+        <v>5376.6</v>
       </c>
       <c r="I95">
-        <v>1209.72</v>
+        <v>5456.83</v>
       </c>
       <c r="J95">
-        <v>1237.53</v>
+        <v>5610.18</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B96" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C96" s="2">
-        <v>44501</v>
+        <v>44504</v>
       </c>
       <c r="D96" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="E96">
-        <v>474</v>
+        <v>173.8</v>
       </c>
       <c r="F96">
-        <v>472.95</v>
+        <v>169.94</v>
       </c>
       <c r="G96">
-        <v>437.76</v>
+        <v>163.85</v>
       </c>
       <c r="H96">
-        <v>488.22</v>
+        <v>179.01</v>
       </c>
       <c r="I96">
-        <v>505.82</v>
+        <v>182.83</v>
       </c>
       <c r="J96">
-        <v>523.28</v>
+        <v>190.18</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B97" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C97" s="2">
-        <v>44501</v>
+        <v>44504</v>
       </c>
       <c r="D97" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="E97">
-        <v>3325.2</v>
+        <v>2499.6</v>
       </c>
       <c r="F97">
-        <v>3252.88</v>
+        <v>2495.31</v>
       </c>
       <c r="G97">
-        <v>3117.9</v>
+        <v>2310.7199999999998</v>
       </c>
       <c r="H97">
-        <v>3424.96</v>
+        <v>2574.59</v>
       </c>
       <c r="I97">
-        <v>3615.18</v>
+        <v>2693.4</v>
       </c>
       <c r="J97">
-        <v>3804.88</v>
+        <v>2771.97</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B98" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="C98" s="2">
-        <v>44498</v>
+        <v>44503</v>
       </c>
       <c r="D98" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="E98">
-        <v>1221.2</v>
+        <v>3654.6</v>
       </c>
       <c r="F98">
-        <v>1177.3399999999999</v>
+        <v>3805.37</v>
       </c>
       <c r="G98">
-        <v>1102.5899999999999</v>
+        <v>3850.49</v>
       </c>
       <c r="H98">
-        <v>1257.8399999999999</v>
+        <v>3581.51</v>
       </c>
       <c r="I98">
-        <v>1320.7</v>
+        <v>3446.93</v>
       </c>
       <c r="J98">
-        <v>1372.03</v>
+        <v>3365.07</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B99" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="C99" s="2">
-        <v>44498</v>
+        <v>44503</v>
       </c>
       <c r="D99" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="E99">
-        <v>798.95</v>
+        <v>1322.95</v>
       </c>
       <c r="F99">
-        <v>821.93</v>
+        <v>1359.45</v>
       </c>
       <c r="G99">
-        <v>784.65</v>
+        <v>1359.87</v>
       </c>
       <c r="H99">
-        <v>782.97</v>
+        <v>1296.49</v>
       </c>
       <c r="I99">
-        <v>768.55</v>
+        <v>1171.67</v>
+      </c>
+      <c r="J99">
+        <v>1104.2</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B100" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C100" s="2">
-        <v>44498</v>
+        <v>44503</v>
       </c>
       <c r="D100" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="E100">
-        <v>209.8</v>
+        <v>3078.95</v>
       </c>
       <c r="F100">
-        <v>205.76</v>
+        <v>2886.93</v>
       </c>
       <c r="G100">
-        <v>199.16</v>
+        <v>2865.44</v>
       </c>
       <c r="H100">
-        <v>214.75</v>
+        <v>3171.32</v>
       </c>
       <c r="I100">
-        <v>216.09</v>
+        <v>3201.05</v>
       </c>
       <c r="J100">
-        <v>220.65</v>
+        <v>3280.67</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B101" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C101" s="2">
-        <v>44498</v>
+        <v>44503</v>
       </c>
       <c r="D101" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E101">
-        <v>37896.85</v>
+        <v>203.8</v>
       </c>
       <c r="F101">
-        <v>36639.31</v>
+        <v>197.77</v>
       </c>
       <c r="G101">
-        <v>33911.24</v>
+        <v>179.94</v>
       </c>
       <c r="H101">
-        <v>39033.760000000002</v>
+        <v>209.91</v>
       </c>
       <c r="I101">
-        <v>39813.47</v>
+        <v>222.67</v>
+      </c>
+      <c r="J101">
+        <v>230.1</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B102" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C102" s="2">
-        <v>44498</v>
+        <v>44502</v>
       </c>
       <c r="D102" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="E102">
-        <v>205.75</v>
+        <v>2447.3000000000002</v>
       </c>
       <c r="F102">
-        <v>195.21</v>
+        <v>2411.42</v>
       </c>
       <c r="G102">
-        <v>178.9</v>
+        <v>2180.0100000000002</v>
       </c>
       <c r="H102">
-        <v>211.92</v>
+        <v>2520.7199999999998</v>
+      </c>
+      <c r="I102">
+        <v>2666.75</v>
+      </c>
+      <c r="J102">
+        <v>2808.35</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B103" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="C103" s="2">
-        <v>44497</v>
+        <v>44502</v>
       </c>
       <c r="D103" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="E103">
-        <v>493.5</v>
+        <v>511.55</v>
       </c>
       <c r="F103">
-        <v>507.5</v>
+        <v>507.55</v>
       </c>
       <c r="G103">
-        <v>484.98</v>
+        <v>495.11</v>
       </c>
       <c r="H103">
-        <v>483.63</v>
+        <v>522.41999999999996</v>
       </c>
       <c r="I103">
-        <v>470.85</v>
+        <v>526.9</v>
+      </c>
+      <c r="J103">
+        <v>535.82000000000005</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B104" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="C104" s="2">
-        <v>44496</v>
+        <v>44502</v>
       </c>
       <c r="D104" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="E104">
-        <v>2885.1</v>
+        <v>20187.5</v>
       </c>
       <c r="F104">
-        <v>3021.3</v>
+        <v>19069.46</v>
       </c>
       <c r="G104">
-        <v>3068.4</v>
+        <v>17068.93</v>
       </c>
       <c r="H104">
-        <v>2827.4</v>
+        <v>20793.13</v>
       </c>
       <c r="I104">
-        <v>2656.42</v>
+        <v>21991.919999999998</v>
+      </c>
+      <c r="J104">
+        <v>22755.9</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B105" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C105" s="2">
-        <v>44495</v>
+        <v>44501</v>
       </c>
       <c r="D105" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="E105">
-        <v>141.5</v>
+        <v>7636.25</v>
       </c>
       <c r="F105">
-        <v>136.66999999999999</v>
+        <v>7460.39</v>
       </c>
       <c r="G105">
-        <v>129.02000000000001</v>
+        <v>7183.1</v>
       </c>
       <c r="H105">
-        <v>145.75</v>
+        <v>7834.8</v>
       </c>
       <c r="I105">
-        <v>159.18</v>
+        <v>7865.34</v>
+      </c>
+      <c r="J105">
+        <v>8011</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B106" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C106" s="2">
-        <v>44495</v>
+        <v>44501</v>
       </c>
       <c r="D106" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E106">
-        <v>106.8</v>
+        <v>2359.75</v>
       </c>
       <c r="F106">
-        <v>102.38</v>
+        <v>2292.5500000000002</v>
       </c>
       <c r="G106">
-        <v>94.16</v>
+        <v>2057.4699999999998</v>
       </c>
       <c r="H106">
-        <v>110</v>
+        <v>2422.8200000000002</v>
       </c>
       <c r="I106">
-        <v>110.93</v>
+        <v>2430.54</v>
       </c>
       <c r="J106">
-        <v>128.18</v>
+        <v>2480.4299999999998</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B107" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C107" s="2">
-        <v>44495</v>
+        <v>44501</v>
       </c>
       <c r="D107" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E107">
-        <v>1049.0999999999999</v>
+        <v>1166.3499999999999</v>
       </c>
       <c r="F107">
-        <v>1012.39</v>
+        <v>1122.46</v>
       </c>
       <c r="G107">
-        <v>950.73</v>
+        <v>1019.71</v>
       </c>
       <c r="H107">
-        <v>1080.57</v>
+        <v>1201.3399999999999</v>
       </c>
       <c r="I107">
-        <v>1086.42</v>
+        <v>1209.72</v>
       </c>
       <c r="J107">
-        <v>1106.6199999999999</v>
+        <v>1237.53</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B108" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C108" s="2">
-        <v>44495</v>
+        <v>44501</v>
       </c>
       <c r="D108" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E108">
-        <v>331.65</v>
+        <v>474</v>
       </c>
       <c r="F108">
-        <v>316.91000000000003</v>
+        <v>472.95</v>
       </c>
       <c r="G108">
-        <v>286.43</v>
+        <v>437.76</v>
       </c>
       <c r="H108">
-        <v>341.6</v>
+        <v>488.22</v>
       </c>
       <c r="I108">
-        <v>367.12</v>
+        <v>505.82</v>
+      </c>
+      <c r="J108">
+        <v>523.28</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B109" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C109" s="2">
-        <v>44495</v>
+        <v>44501</v>
       </c>
       <c r="D109" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="E109">
-        <v>4571.25</v>
+        <v>3325.2</v>
       </c>
       <c r="F109">
-        <v>4293.3599999999997</v>
+        <v>3252.88</v>
       </c>
       <c r="G109">
-        <v>3811.67</v>
+        <v>3117.9</v>
       </c>
       <c r="H109">
-        <v>4708.3900000000003</v>
+        <v>3424.96</v>
       </c>
       <c r="I109">
-        <v>4743.75</v>
+        <v>3615.18</v>
       </c>
       <c r="J109">
-        <v>4849.03</v>
+        <v>3804.88</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B110" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C110" s="2">
-        <v>44495</v>
+        <v>44498</v>
       </c>
       <c r="D110" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="E110">
-        <v>602.9</v>
+        <v>1221.2</v>
       </c>
       <c r="F110">
-        <v>580.78</v>
+        <v>1177.3399999999999</v>
       </c>
       <c r="G110">
-        <v>564.62</v>
+        <v>1102.5899999999999</v>
       </c>
       <c r="H110">
-        <v>620.99</v>
+        <v>1257.8399999999999</v>
       </c>
       <c r="I110">
-        <v>630.83000000000004</v>
+        <v>1320.7</v>
       </c>
       <c r="J110">
-        <v>653.02</v>
+        <v>1372.03</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B111" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="C111" s="2">
-        <v>44495</v>
+        <v>44498</v>
       </c>
       <c r="D111" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="E111">
-        <v>708.5</v>
+        <v>798.95</v>
       </c>
       <c r="F111">
-        <v>691.39</v>
+        <v>821.93</v>
       </c>
       <c r="G111">
-        <v>677.62</v>
+        <v>784.65</v>
       </c>
       <c r="H111">
-        <v>729.75</v>
+        <v>782.97</v>
       </c>
       <c r="I111">
-        <v>744.87</v>
-      </c>
-      <c r="J111">
-        <v>773.15</v>
+        <v>768.55</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B112" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C112" s="2">
-        <v>44495</v>
+        <v>44498</v>
       </c>
       <c r="D112" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="E112">
-        <v>1001.55</v>
+        <v>209.8</v>
       </c>
       <c r="F112">
-        <v>986.77</v>
+        <v>205.76</v>
       </c>
       <c r="G112">
-        <v>900.53</v>
+        <v>199.16</v>
       </c>
       <c r="H112">
-        <v>1031.5999999999999</v>
+        <v>214.75</v>
       </c>
       <c r="I112">
-        <v>1047.07</v>
+        <v>216.09</v>
       </c>
       <c r="J112">
-        <v>1212.52</v>
+        <v>220.65</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B113" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C113" s="2">
-        <v>44495</v>
+        <v>44498</v>
       </c>
       <c r="D113" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="E113">
-        <v>20200.25</v>
+        <v>37896.85</v>
       </c>
       <c r="F113">
-        <v>18859.75</v>
+        <v>36639.31</v>
       </c>
       <c r="G113">
-        <v>16952.77</v>
+        <v>33911.24</v>
       </c>
       <c r="H113">
-        <v>20806.259999999998</v>
+        <v>39033.760000000002</v>
       </c>
       <c r="I113">
-        <v>21858.2</v>
-      </c>
-      <c r="J113">
-        <v>22528.400000000001</v>
+        <v>39813.47</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B114" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C114" s="2">
-        <v>44494</v>
+        <v>44498</v>
       </c>
       <c r="D114" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="E114">
-        <v>3142.45</v>
+        <v>205.75</v>
       </c>
       <c r="F114">
-        <v>3089.56</v>
+        <v>195.21</v>
       </c>
       <c r="G114">
-        <v>3082.08</v>
+        <v>178.9</v>
       </c>
       <c r="H114">
-        <v>3217.38</v>
-      </c>
-      <c r="I114">
-        <v>3236.72</v>
-      </c>
-      <c r="J114">
-        <v>3349.27</v>
+        <v>211.92</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B115" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="C115" s="2">
-        <v>44494</v>
+        <v>44497</v>
       </c>
       <c r="D115" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="E115">
-        <v>556.20000000000005</v>
+        <v>493.5</v>
       </c>
       <c r="F115">
-        <v>563.34</v>
+        <v>507.5</v>
       </c>
       <c r="G115">
-        <v>545.08000000000004</v>
+        <v>484.98</v>
       </c>
       <c r="H115">
-        <v>529.88</v>
+        <v>483.63</v>
       </c>
       <c r="I115">
-        <v>521.08000000000004</v>
+        <v>470.85</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B116" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="C116" s="2">
-        <v>44491</v>
+        <v>44496</v>
       </c>
       <c r="D116" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="E116">
-        <v>2457.0500000000002</v>
+        <v>2885.1</v>
       </c>
       <c r="F116">
-        <v>2426.4899999999998</v>
+        <v>3021.3</v>
       </c>
       <c r="G116">
-        <v>2155.9699999999998</v>
+        <v>3068.4</v>
       </c>
       <c r="H116">
-        <v>2530.7600000000002</v>
+        <v>2827.4</v>
       </c>
       <c r="I116">
-        <v>2531.6999999999998</v>
-      </c>
-      <c r="J116">
-        <v>2594.2800000000002</v>
+        <v>2656.42</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B117" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="C117" s="2">
-        <v>44491</v>
+        <v>44495</v>
       </c>
       <c r="D117" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="E117">
-        <v>798.05</v>
+        <v>141.5</v>
       </c>
       <c r="F117">
-        <v>823.46</v>
+        <v>136.66999999999999</v>
       </c>
       <c r="G117">
-        <v>839.56</v>
+        <v>129.02000000000001</v>
       </c>
       <c r="H117">
-        <v>782.09</v>
+        <v>145.75</v>
       </c>
       <c r="I117">
-        <v>773.15</v>
-      </c>
-      <c r="J117">
-        <v>759.67</v>
+        <v>159.18</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B118" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C118" s="2">
-        <v>44491</v>
+        <v>44495</v>
       </c>
       <c r="D118" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="E118">
-        <v>1595.15</v>
+        <v>106.8</v>
       </c>
       <c r="F118">
-        <v>1524.23</v>
+        <v>102.38</v>
       </c>
       <c r="G118">
-        <v>1514.54</v>
+        <v>94.16</v>
       </c>
       <c r="H118">
-        <v>1643</v>
+        <v>110</v>
       </c>
       <c r="I118">
-        <v>1748.32</v>
+        <v>110.93</v>
+      </c>
+      <c r="J118">
+        <v>128.18</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B119" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C119" s="2">
-        <v>44491</v>
+        <v>44495</v>
       </c>
       <c r="D119" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="E119">
-        <v>2271.65</v>
+        <v>1049.0999999999999</v>
       </c>
       <c r="F119">
-        <v>2257.91</v>
+        <v>1012.39</v>
       </c>
       <c r="G119">
-        <v>2067.2800000000002</v>
+        <v>950.73</v>
       </c>
       <c r="H119">
-        <v>2339.8000000000002</v>
+        <v>1080.57</v>
       </c>
       <c r="I119">
-        <v>2667.22</v>
+        <v>1086.42</v>
       </c>
       <c r="J119">
-        <v>2806.32</v>
+        <v>1106.6199999999999</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B120" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C120" s="2">
-        <v>44491</v>
+        <v>44495</v>
       </c>
       <c r="D120" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E120">
-        <v>1670.25</v>
+        <v>331.65</v>
       </c>
       <c r="F120">
-        <v>1635.79</v>
+        <v>316.91000000000003</v>
       </c>
       <c r="G120">
-        <v>1565.17</v>
+        <v>286.43</v>
       </c>
       <c r="H120">
-        <v>1720.36</v>
+        <v>341.6</v>
       </c>
       <c r="I120">
-        <v>1736.97</v>
-      </c>
-      <c r="J120">
-        <v>1792.13</v>
+        <v>367.12</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B121" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C121" s="2">
-        <v>44491</v>
+        <v>44495</v>
       </c>
       <c r="D121" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="E121">
-        <v>3826</v>
+        <v>4571.25</v>
       </c>
       <c r="F121">
-        <v>3568.29</v>
+        <v>4293.3599999999997</v>
       </c>
       <c r="G121">
-        <v>3216.52</v>
+        <v>3811.67</v>
       </c>
       <c r="H121">
-        <v>3940.78</v>
+        <v>4708.3900000000003</v>
       </c>
       <c r="I121">
-        <v>4139.1499999999996</v>
+        <v>4743.75</v>
       </c>
       <c r="J121">
-        <v>4218.3500000000004</v>
+        <v>4849.03</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B122" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C122" s="2">
-        <v>44491</v>
+        <v>44495</v>
       </c>
       <c r="D122" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E122">
-        <v>618.35</v>
+        <v>602.9</v>
       </c>
       <c r="F122">
-        <v>580.01</v>
+        <v>580.78</v>
       </c>
       <c r="G122">
-        <v>576.19000000000005</v>
+        <v>564.62</v>
       </c>
       <c r="H122">
-        <v>636.9</v>
+        <v>620.99</v>
+      </c>
+      <c r="I122">
+        <v>630.83000000000004</v>
+      </c>
+      <c r="J122">
+        <v>653.02</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B123" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C123" s="2">
-        <v>44490</v>
+        <v>44495</v>
       </c>
       <c r="D123" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="E123">
-        <v>1739</v>
+        <v>708.5</v>
       </c>
       <c r="F123">
-        <v>1661.54</v>
+        <v>691.39</v>
       </c>
       <c r="G123">
-        <v>1575.67</v>
+        <v>677.62</v>
       </c>
       <c r="H123">
-        <v>1788.92</v>
+        <v>729.75</v>
       </c>
       <c r="I123">
-        <v>1791.17</v>
+        <v>744.87</v>
       </c>
       <c r="J123">
-        <v>1828.75</v>
+        <v>773.15</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B124" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="C124" s="2">
-        <v>44490</v>
+        <v>44495</v>
       </c>
       <c r="D124" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="E124">
-        <v>2318.9</v>
+        <v>1001.55</v>
       </c>
       <c r="F124">
-        <v>2353.17</v>
+        <v>986.77</v>
       </c>
       <c r="G124">
-        <v>2433.41</v>
+        <v>900.53</v>
       </c>
       <c r="H124">
-        <v>2283.27</v>
+        <v>1031.5999999999999</v>
       </c>
       <c r="I124">
-        <v>2272.52</v>
+        <v>1047.07</v>
       </c>
       <c r="J124">
-        <v>2184.58</v>
+        <v>1212.52</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B125" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="C125" s="2">
-        <v>44490</v>
+        <v>44495</v>
       </c>
       <c r="D125" t="s">
         <v>62</v>
       </c>
       <c r="E125">
-        <v>2215</v>
+        <v>20200.25</v>
       </c>
       <c r="F125">
-        <v>2248.75</v>
+        <v>18859.75</v>
       </c>
       <c r="G125">
-        <v>2420.09</v>
+        <v>16952.77</v>
       </c>
       <c r="H125">
-        <v>2170.6999999999998</v>
+        <v>20806.259999999998</v>
       </c>
       <c r="I125">
-        <v>2070.5700000000002</v>
+        <v>21858.2</v>
       </c>
       <c r="J125">
-        <v>1752.13</v>
+        <v>22528.400000000001</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B126" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C126" s="2">
-        <v>44490</v>
+        <v>44494</v>
       </c>
       <c r="D126" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E126">
-        <v>2840.95</v>
+        <v>3142.45</v>
       </c>
       <c r="F126">
-        <v>2776.4</v>
+        <v>3089.56</v>
       </c>
       <c r="G126">
-        <v>2762.74</v>
+        <v>3082.08</v>
       </c>
       <c r="H126">
-        <v>2926.18</v>
+        <v>3217.38</v>
       </c>
       <c r="I126">
-        <v>2940.77</v>
+        <v>3236.72</v>
       </c>
       <c r="J126">
-        <v>3098.92</v>
+        <v>3349.27</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B127" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="C127" s="2">
-        <v>44490</v>
+        <v>44494</v>
       </c>
       <c r="D127" t="s">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="E127">
-        <v>2757.95</v>
+        <v>556.20000000000005</v>
       </c>
       <c r="F127">
-        <v>2812.63</v>
+        <v>563.34</v>
       </c>
       <c r="G127">
-        <v>2860.02</v>
+        <v>545.08000000000004</v>
       </c>
       <c r="H127">
-        <v>2705.25</v>
+        <v>529.88</v>
       </c>
       <c r="I127">
-        <v>2702.79</v>
-      </c>
-      <c r="J127">
-        <v>2578</v>
+        <v>521.08000000000004</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B128" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="C128" s="2">
-        <v>44490</v>
+        <v>44491</v>
       </c>
       <c r="D128" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="E128">
-        <v>780</v>
+        <v>2457.0500000000002</v>
       </c>
       <c r="F128">
-        <v>785.02</v>
+        <v>2426.4899999999998</v>
       </c>
       <c r="G128">
-        <v>819.17</v>
+        <v>2155.9699999999998</v>
       </c>
       <c r="H128">
-        <v>764.4</v>
+        <v>2530.7600000000002</v>
       </c>
       <c r="I128">
-        <v>729.6</v>
+        <v>2531.6999999999998</v>
+      </c>
+      <c r="J128">
+        <v>2594.2800000000002</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B129" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="C129" s="2">
-        <v>44490</v>
+        <v>44491</v>
       </c>
       <c r="D129" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E129">
-        <v>3013.4</v>
+        <v>798.05</v>
       </c>
       <c r="F129">
-        <v>3093.03</v>
+        <v>823.46</v>
       </c>
       <c r="G129">
-        <v>3209.51</v>
+        <v>839.56</v>
       </c>
       <c r="H129">
-        <v>2953.13</v>
+        <v>782.09</v>
       </c>
       <c r="I129">
-        <v>2921.82</v>
+        <v>773.15</v>
       </c>
       <c r="J129">
-        <v>2836.32</v>
+        <v>759.67</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B130" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C130" s="2">
-        <v>44490</v>
+        <v>44491</v>
       </c>
       <c r="D130" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="E130">
-        <v>2070</v>
+        <v>1595.15</v>
       </c>
       <c r="F130">
-        <v>2006.33</v>
+        <v>1524.23</v>
       </c>
       <c r="G130">
-        <v>1886.39</v>
+        <v>1514.54</v>
       </c>
       <c r="H130">
-        <v>2132.1</v>
+        <v>1643</v>
       </c>
       <c r="I130">
-        <v>2142.87</v>
-      </c>
-      <c r="J130">
-        <v>2211.5500000000002</v>
+        <v>1748.32</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B131" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C131" s="2">
-        <v>44489</v>
+        <v>44491</v>
       </c>
       <c r="D131" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="E131">
-        <v>756.85</v>
+        <v>2271.65</v>
       </c>
       <c r="F131">
-        <v>714.7</v>
+        <v>2257.91</v>
       </c>
       <c r="G131">
-        <v>710.34</v>
+        <v>2067.2800000000002</v>
       </c>
       <c r="H131">
-        <v>779.56</v>
+        <v>2339.8000000000002</v>
       </c>
       <c r="I131">
-        <v>792.22</v>
+        <v>2667.22</v>
+      </c>
+      <c r="J131">
+        <v>2806.32</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B132" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C132" s="2">
-        <v>44488</v>
+        <v>44491</v>
       </c>
       <c r="D132" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="E132">
-        <v>3145</v>
+        <v>1670.25</v>
       </c>
       <c r="F132">
-        <v>3104.52</v>
+        <v>1635.79</v>
       </c>
       <c r="G132">
-        <v>3082.78</v>
+        <v>1565.17</v>
       </c>
       <c r="H132">
-        <v>3217.38</v>
+        <v>1720.36</v>
       </c>
       <c r="I132">
-        <v>3239.35</v>
+        <v>1736.97</v>
       </c>
       <c r="J132">
-        <v>3349.27</v>
+        <v>1792.13</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B133" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C133" s="2">
-        <v>44488</v>
+        <v>44491</v>
       </c>
       <c r="D133" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="E133">
-        <v>2315.6999999999998</v>
+        <v>3826</v>
       </c>
       <c r="F133">
-        <v>2201.96</v>
+        <v>3568.29</v>
       </c>
       <c r="G133">
-        <v>2197.67</v>
+        <v>3216.52</v>
       </c>
       <c r="H133">
-        <v>2385.17</v>
+        <v>3940.78</v>
       </c>
       <c r="I133">
-        <v>2419.13</v>
+        <v>4139.1499999999996</v>
       </c>
       <c r="J133">
-        <v>2665.13</v>
+        <v>4218.3500000000004</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B134" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="C134" s="2">
-        <v>44487</v>
+        <v>44491</v>
       </c>
       <c r="D134" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E134">
-        <v>738.5</v>
+        <v>618.35</v>
       </c>
       <c r="F134">
-        <v>752.84</v>
+        <v>580.01</v>
       </c>
       <c r="G134">
-        <v>809.51</v>
+        <v>576.19000000000005</v>
       </c>
       <c r="H134">
-        <v>724.92</v>
-      </c>
-      <c r="I134">
-        <v>723.73</v>
-      </c>
-      <c r="J134">
-        <v>708.23</v>
+        <v>636.9</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B135" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C135" s="2">
-        <v>44487</v>
+        <v>44490</v>
       </c>
       <c r="D135" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E135">
-        <v>22036.95</v>
+        <v>1739</v>
       </c>
       <c r="F135">
-        <v>21531.06</v>
+        <v>1661.54</v>
       </c>
       <c r="G135">
-        <v>20240.98</v>
+        <v>1575.67</v>
       </c>
       <c r="H135">
-        <v>22528.400000000001</v>
+        <v>1788.92</v>
       </c>
       <c r="I135">
-        <v>22698.06</v>
+        <v>1791.17</v>
       </c>
       <c r="J135">
-        <v>23198.6</v>
+        <v>1828.75</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B136" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="C136" s="2">
-        <v>44487</v>
+        <v>44490</v>
       </c>
       <c r="D136" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="E136">
-        <v>660.6</v>
+        <v>2318.9</v>
       </c>
       <c r="F136">
-        <v>639.37</v>
+        <v>2353.17</v>
       </c>
       <c r="G136">
-        <v>565.70000000000005</v>
+        <v>2433.41</v>
       </c>
       <c r="H136">
-        <v>680.42</v>
+        <v>2283.27</v>
       </c>
       <c r="I136">
-        <v>713.77</v>
+        <v>2272.52</v>
       </c>
       <c r="J136">
-        <v>734.73</v>
+        <v>2184.58</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B137" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="C137" s="2">
-        <v>44483</v>
+        <v>44490</v>
       </c>
       <c r="D137" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E137">
-        <v>231.05</v>
+        <v>2215</v>
       </c>
       <c r="F137">
-        <v>233.59</v>
+        <v>2248.75</v>
       </c>
       <c r="G137">
-        <v>235.15</v>
+        <v>2420.09</v>
       </c>
       <c r="H137">
-        <v>226.43</v>
+        <v>2170.6999999999998</v>
       </c>
       <c r="I137">
-        <v>219.38</v>
+        <v>2070.5700000000002</v>
       </c>
       <c r="J137">
-        <v>202.83</v>
+        <v>1752.13</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B138" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="C138" s="2">
-        <v>44483</v>
+        <v>44490</v>
       </c>
       <c r="D138" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="E138">
-        <v>615</v>
+        <v>2840.95</v>
       </c>
       <c r="F138">
-        <v>617.76</v>
+        <v>2776.4</v>
       </c>
       <c r="G138">
-        <v>627.91</v>
+        <v>2762.74</v>
       </c>
       <c r="H138">
-        <v>602.70000000000005</v>
+        <v>2926.18</v>
       </c>
       <c r="I138">
-        <v>602.15</v>
+        <v>2940.77</v>
       </c>
       <c r="J138">
-        <v>594.70000000000005</v>
+        <v>3098.92</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B139" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="C139" s="2">
-        <v>44483</v>
+        <v>44490</v>
       </c>
       <c r="D139" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="E139">
-        <v>715.95</v>
+        <v>2757.95</v>
       </c>
       <c r="F139">
-        <v>708.75</v>
+        <v>2812.63</v>
       </c>
       <c r="G139">
-        <v>707.41</v>
+        <v>2860.02</v>
       </c>
       <c r="H139">
-        <v>737.43</v>
+        <v>2705.25</v>
       </c>
       <c r="I139">
-        <v>751.22</v>
+        <v>2702.79</v>
       </c>
       <c r="J139">
-        <v>792.22</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="C140" s="2">
-        <v>44483</v>
+        <v>44490</v>
       </c>
       <c r="D140" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="E140">
-        <v>2279.3000000000002</v>
+        <v>780</v>
       </c>
       <c r="F140">
-        <v>2192.52</v>
+        <v>785.02</v>
       </c>
       <c r="G140">
-        <v>2184.6799999999998</v>
+        <v>819.17</v>
       </c>
       <c r="H140">
-        <v>2347.6799999999998</v>
+        <v>764.4</v>
       </c>
       <c r="I140">
-        <v>2419.13</v>
-      </c>
-      <c r="J140">
-        <v>2665.13</v>
+        <v>729.6</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B141" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="C141" s="2">
-        <v>44483</v>
+        <v>44490</v>
       </c>
       <c r="D141" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="E141">
-        <v>1432</v>
+        <v>3013.4</v>
       </c>
       <c r="F141">
-        <v>1365.27</v>
+        <v>3093.03</v>
       </c>
       <c r="G141">
-        <v>1292.6400000000001</v>
+        <v>3209.51</v>
       </c>
       <c r="H141">
-        <v>1474.96</v>
+        <v>2953.13</v>
       </c>
       <c r="I141">
-        <v>1556.75</v>
+        <v>2921.82</v>
       </c>
       <c r="J141">
-        <v>1727.7</v>
+        <v>2836.32</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B142" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C142" s="2">
-        <v>44483</v>
+        <v>44490</v>
       </c>
       <c r="D142" t="s">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="E142">
-        <v>1440.35</v>
+        <v>2070</v>
       </c>
       <c r="F142">
-        <v>1399.42</v>
+        <v>2006.33</v>
       </c>
       <c r="G142">
-        <v>1344.51</v>
+        <v>1886.39</v>
       </c>
       <c r="H142">
-        <v>1481.82</v>
+        <v>2132.1</v>
       </c>
       <c r="I142">
-        <v>1483.56</v>
+        <v>2142.87</v>
       </c>
       <c r="J142">
-        <v>1536.17</v>
+        <v>2211.5500000000002</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B143" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C143" s="2">
-        <v>44483</v>
+        <v>44489</v>
       </c>
       <c r="D143" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="E143">
-        <v>855</v>
+        <v>756.85</v>
       </c>
       <c r="F143">
-        <v>823.23</v>
+        <v>714.7</v>
       </c>
       <c r="G143">
-        <v>822.2</v>
+        <v>710.34</v>
       </c>
       <c r="H143">
-        <v>880.65</v>
+        <v>779.56</v>
       </c>
       <c r="I143">
-        <v>916</v>
+        <v>792.22</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B144" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C144" s="2">
-        <v>44483</v>
+        <v>44488</v>
       </c>
       <c r="D144" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="E144">
-        <v>602.65</v>
+        <v>3145</v>
       </c>
       <c r="F144">
-        <v>575.32000000000005</v>
+        <v>3104.52</v>
       </c>
       <c r="G144">
-        <v>553.48</v>
+        <v>3082.78</v>
       </c>
       <c r="H144">
-        <v>620.73</v>
+        <v>3217.38</v>
       </c>
       <c r="I144">
-        <v>630.83000000000004</v>
+        <v>3239.35</v>
       </c>
       <c r="J144">
-        <v>653.02</v>
+        <v>3349.27</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B145" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C145" s="2">
-        <v>44483</v>
+        <v>44488</v>
       </c>
       <c r="D145" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="E145">
-        <v>778.75</v>
+        <v>2315.6999999999998</v>
       </c>
       <c r="F145">
-        <v>745.75</v>
+        <v>2201.96</v>
       </c>
       <c r="G145">
-        <v>732.68</v>
+        <v>2197.67</v>
       </c>
       <c r="H145">
-        <v>802.11</v>
+        <v>2385.17</v>
       </c>
       <c r="I145">
-        <v>805.3</v>
+        <v>2419.13</v>
       </c>
       <c r="J145">
-        <v>858.3</v>
+        <v>2665.13</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B146" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="C146" s="2">
-        <v>44483</v>
+        <v>44487</v>
       </c>
       <c r="D146" t="s">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="E146">
-        <v>2783.7</v>
+        <v>738.5</v>
       </c>
       <c r="F146">
-        <v>2765.46</v>
+        <v>752.84</v>
       </c>
       <c r="G146">
-        <v>2748.62</v>
+        <v>809.51</v>
       </c>
       <c r="H146">
-        <v>2847.53</v>
+        <v>724.92</v>
       </c>
       <c r="I146">
-        <v>2867.21</v>
+        <v>723.73</v>
       </c>
       <c r="J146">
-        <v>2940.77</v>
+        <v>708.23</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B147" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C147" s="2">
-        <v>44482</v>
+        <v>44487</v>
       </c>
       <c r="D147" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="E147">
-        <v>5975.05</v>
+        <v>22036.95</v>
       </c>
       <c r="F147">
-        <v>5821.78</v>
+        <v>21531.06</v>
       </c>
       <c r="G147">
-        <v>5391.9</v>
+        <v>20240.98</v>
       </c>
       <c r="H147">
-        <v>6154.3</v>
+        <v>22528.400000000001</v>
       </c>
       <c r="I147">
-        <v>6420.52</v>
+        <v>22698.06</v>
       </c>
       <c r="J147">
-        <v>6748.2</v>
+        <v>23198.6</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B148" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C148" s="2">
-        <v>44482</v>
+        <v>44487</v>
       </c>
       <c r="D148" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E148">
-        <v>9004.2000000000007</v>
+        <v>660.6</v>
       </c>
       <c r="F148">
-        <v>8508.01</v>
+        <v>639.37</v>
       </c>
       <c r="G148">
-        <v>8023.97</v>
+        <v>565.70000000000005</v>
       </c>
       <c r="H148">
-        <v>9239.27</v>
+        <v>680.42</v>
       </c>
       <c r="I148">
-        <v>9274.33</v>
+        <v>713.77</v>
       </c>
       <c r="J148">
-        <v>9669.4500000000007</v>
+        <v>734.73</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B149" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="C149" s="2">
-        <v>44482</v>
+        <v>44483</v>
       </c>
       <c r="D149" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="E149">
-        <v>1667</v>
+        <v>231.05</v>
       </c>
       <c r="F149">
-        <v>1618.92</v>
+        <v>233.59</v>
       </c>
       <c r="G149">
-        <v>1556.89</v>
+        <v>235.15</v>
       </c>
       <c r="H149">
-        <v>1717.01</v>
+        <v>226.43</v>
       </c>
       <c r="I149">
-        <v>1749.1</v>
+        <v>219.38</v>
       </c>
       <c r="J149">
-        <v>1788.92</v>
+        <v>202.83</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B150" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="C150" s="2">
-        <v>44482</v>
+        <v>44483</v>
       </c>
       <c r="D150" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="E150">
-        <v>3970.9</v>
+        <v>615</v>
       </c>
       <c r="F150">
-        <v>3930.84</v>
+        <v>617.76</v>
       </c>
       <c r="G150">
-        <v>3814</v>
+        <v>627.91</v>
       </c>
       <c r="H150">
-        <v>4090.03</v>
+        <v>602.70000000000005</v>
       </c>
       <c r="I150">
-        <v>4139.1499999999996</v>
+        <v>602.15</v>
       </c>
       <c r="J150">
-        <v>4218.3500000000004</v>
+        <v>594.70000000000005</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B151" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C151" s="2">
-        <v>44482</v>
+        <v>44483</v>
       </c>
       <c r="D151" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="E151">
-        <v>86454.8</v>
+        <v>715.95</v>
       </c>
       <c r="F151">
-        <v>82346.850000000006</v>
+        <v>708.75</v>
       </c>
       <c r="G151">
-        <v>80904.34</v>
+        <v>707.41</v>
       </c>
       <c r="H151">
-        <v>89048.44</v>
+        <v>737.43</v>
       </c>
       <c r="I151">
-        <v>90508.52</v>
+        <v>751.22</v>
+      </c>
+      <c r="J151">
+        <v>792.22</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B152" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C152" s="2">
-        <v>44482</v>
+        <v>44483</v>
       </c>
       <c r="D152" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="E152">
-        <v>89.3</v>
+        <v>2279.3000000000002</v>
       </c>
       <c r="F152">
-        <v>84.92</v>
+        <v>2192.52</v>
       </c>
       <c r="G152">
-        <v>83.72</v>
+        <v>2184.6799999999998</v>
       </c>
       <c r="H152">
-        <v>91.6</v>
+        <v>2347.6799999999998</v>
       </c>
       <c r="I152">
-        <v>91.98</v>
+        <v>2419.13</v>
       </c>
       <c r="J152">
-        <v>100.15</v>
+        <v>2665.13</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B153" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C153" s="2">
-        <v>44482</v>
+        <v>44483</v>
       </c>
       <c r="D153" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="E153">
-        <v>318.7</v>
+        <v>1432</v>
       </c>
       <c r="F153">
-        <v>296.91000000000003</v>
+        <v>1365.27</v>
       </c>
       <c r="G153">
-        <v>230.29</v>
+        <v>1292.6400000000001</v>
       </c>
       <c r="H153">
-        <v>328.26</v>
+        <v>1474.96</v>
       </c>
       <c r="I153">
-        <v>387.22</v>
+        <v>1556.75</v>
       </c>
       <c r="J153">
-        <v>429.23</v>
+        <v>1727.7</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B154" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C154" s="2">
-        <v>44482</v>
+        <v>44483</v>
       </c>
       <c r="D154" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="E154">
-        <v>160.30000000000001</v>
+        <v>1440.35</v>
       </c>
       <c r="F154">
-        <v>157.29</v>
+        <v>1399.42</v>
       </c>
       <c r="G154">
-        <v>151.44999999999999</v>
+        <v>1344.51</v>
       </c>
       <c r="H154">
-        <v>165.11</v>
+        <v>1481.82</v>
       </c>
       <c r="I154">
-        <v>165.57</v>
+        <v>1483.56</v>
       </c>
       <c r="J154">
-        <v>168.93</v>
+        <v>1536.17</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B155" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C155" s="2">
-        <v>44481</v>
+        <v>44483</v>
       </c>
       <c r="D155" t="s">
         <v>103</v>
       </c>
       <c r="E155">
-        <v>798.85</v>
+        <v>855</v>
       </c>
       <c r="F155">
-        <v>789.01</v>
+        <v>823.23</v>
       </c>
       <c r="G155">
-        <v>774.78</v>
+        <v>822.2</v>
       </c>
       <c r="H155">
-        <v>822.82</v>
+        <v>880.65</v>
       </c>
       <c r="I155">
-        <v>839.88</v>
-      </c>
-      <c r="J155">
-        <v>895.73</v>
+        <v>916</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B156" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C156" s="2">
-        <v>44481</v>
+        <v>44483</v>
       </c>
       <c r="D156" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E156">
-        <v>3342.85</v>
+        <v>602.65</v>
       </c>
       <c r="F156">
-        <v>3255.74</v>
+        <v>575.32000000000005</v>
       </c>
       <c r="G156">
-        <v>3252.62</v>
+        <v>553.48</v>
       </c>
       <c r="H156">
-        <v>3442.13</v>
+        <v>620.73</v>
       </c>
       <c r="I156">
-        <v>3443.14</v>
+        <v>630.83000000000004</v>
       </c>
       <c r="J156">
-        <v>3705.92</v>
+        <v>653.02</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B157" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C157" s="2">
-        <v>44481</v>
+        <v>44483</v>
       </c>
       <c r="D157" t="s">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="E157">
-        <v>484.75</v>
+        <v>778.75</v>
       </c>
       <c r="F157">
-        <v>480.99</v>
+        <v>745.75</v>
       </c>
       <c r="G157">
-        <v>473.74</v>
+        <v>732.68</v>
       </c>
       <c r="H157">
-        <v>495.85</v>
+        <v>802.11</v>
       </c>
       <c r="I157">
-        <v>499.29</v>
+        <v>805.3</v>
       </c>
       <c r="J157">
-        <v>507.47</v>
+        <v>858.3</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B158" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C158" s="2">
-        <v>44481</v>
+        <v>44483</v>
       </c>
       <c r="D158" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="E158">
-        <v>2917.95</v>
+        <v>2783.7</v>
       </c>
       <c r="F158">
-        <v>2835.55</v>
+        <v>2765.46</v>
       </c>
       <c r="G158">
-        <v>2736.84</v>
+        <v>2748.62</v>
       </c>
       <c r="H158">
-        <v>3005.49</v>
+        <v>2847.53</v>
       </c>
       <c r="I158">
-        <v>3058.07</v>
+        <v>2867.21</v>
       </c>
       <c r="J158">
-        <v>3147.37</v>
+        <v>2940.77</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B159" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="C159" s="2">
-        <v>44480</v>
+        <v>44482</v>
       </c>
       <c r="D159" t="s">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="E159">
-        <v>717.25</v>
+        <v>5975.05</v>
       </c>
       <c r="F159">
-        <v>731.07</v>
+        <v>5821.78</v>
+      </c>
+      <c r="G159">
+        <v>5391.9</v>
       </c>
       <c r="H159">
-        <v>702.9</v>
+        <v>6154.3</v>
       </c>
       <c r="I159">
-        <v>694.58</v>
+        <v>6420.52</v>
       </c>
       <c r="J159">
-        <v>666.77</v>
+        <v>6748.2</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B160" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C160" s="2">
-        <v>44480</v>
+        <v>44482</v>
       </c>
       <c r="D160" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="E160">
-        <v>795</v>
+        <v>9004.2000000000007</v>
       </c>
       <c r="F160">
-        <v>766.63</v>
+        <v>8508.01</v>
       </c>
       <c r="G160">
-        <v>757.05</v>
+        <v>8023.97</v>
       </c>
       <c r="H160">
-        <v>818.85</v>
+        <v>9239.27</v>
       </c>
       <c r="I160">
-        <v>842.95</v>
+        <v>9274.33</v>
       </c>
       <c r="J160">
-        <v>927.2</v>
+        <v>9669.4500000000007</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B161" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C161" s="2">
-        <v>44480</v>
+        <v>44482</v>
       </c>
       <c r="D161" t="s">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="E161">
-        <v>1028.05</v>
+        <v>1667</v>
       </c>
       <c r="F161">
-        <v>972.87</v>
+        <v>1618.92</v>
       </c>
       <c r="G161">
-        <v>851.74</v>
+        <v>1556.89</v>
       </c>
       <c r="H161">
-        <v>1058.8900000000001</v>
+        <v>1717.01</v>
       </c>
       <c r="I161">
-        <v>1083.95</v>
+        <v>1749.1</v>
       </c>
       <c r="J161">
-        <v>1108.28</v>
+        <v>1788.92</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B162" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C162" s="2">
-        <v>44480</v>
+        <v>44482</v>
       </c>
       <c r="D162" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="E162">
-        <v>538.70000000000005</v>
+        <v>3970.9</v>
       </c>
       <c r="F162">
-        <v>500.38</v>
+        <v>3930.84</v>
       </c>
       <c r="G162">
-        <v>482.31</v>
+        <v>3814</v>
       </c>
       <c r="H162">
-        <v>554.86</v>
+        <v>4090.03</v>
       </c>
       <c r="I162">
-        <v>561.54999999999995</v>
+        <v>4139.1499999999996</v>
       </c>
       <c r="J162">
-        <v>624</v>
+        <v>4218.3500000000004</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B163" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C163" s="2">
-        <v>44480</v>
+        <v>44482</v>
       </c>
       <c r="D163" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E163">
-        <v>2473.8000000000002</v>
+        <v>86454.8</v>
       </c>
       <c r="F163">
-        <v>2417.36</v>
+        <v>82346.850000000006</v>
       </c>
       <c r="G163">
-        <v>2326.44</v>
+        <v>80904.34</v>
       </c>
       <c r="H163">
-        <v>2527.7800000000002</v>
+        <v>89048.44</v>
       </c>
       <c r="I163">
-        <v>2548.0100000000002</v>
-      </c>
-      <c r="J163">
-        <v>2576.38</v>
+        <v>90508.52</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B164" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C164" s="2">
-        <v>44480</v>
+        <v>44482</v>
       </c>
       <c r="D164" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="E164">
-        <v>3734.45</v>
+        <v>89.3</v>
       </c>
       <c r="F164">
-        <v>3549.18</v>
+        <v>84.92</v>
       </c>
       <c r="G164">
-        <v>3044.82</v>
+        <v>83.72</v>
       </c>
       <c r="H164">
-        <v>3846.48</v>
+        <v>91.6</v>
       </c>
       <c r="I164">
-        <v>3961.15</v>
+        <v>91.98</v>
       </c>
       <c r="J164">
-        <v>4090.47</v>
+        <v>100.15</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B165" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C165" s="2">
-        <v>44480</v>
+        <v>44482</v>
       </c>
       <c r="D165" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E165">
-        <v>5133</v>
+        <v>318.7</v>
       </c>
       <c r="F165">
-        <v>5066.26</v>
+        <v>296.91000000000003</v>
       </c>
       <c r="G165">
-        <v>5019.82</v>
+        <v>230.29</v>
       </c>
       <c r="H165">
-        <v>5286.99</v>
+        <v>328.26</v>
       </c>
       <c r="I165">
-        <v>5494.43</v>
+        <v>387.22</v>
       </c>
       <c r="J165">
-        <v>6065.08</v>
+        <v>429.23</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B166" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C166" s="2">
-        <v>44480</v>
+        <v>44482</v>
       </c>
       <c r="D166" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E166">
-        <v>2626</v>
+        <v>160.30000000000001</v>
       </c>
       <c r="F166">
-        <v>2431.85</v>
+        <v>157.29</v>
       </c>
       <c r="G166">
-        <v>2167.09</v>
+        <v>151.44999999999999</v>
       </c>
       <c r="H166">
-        <v>2704.78</v>
+        <v>165.11</v>
       </c>
       <c r="I166">
-        <v>2806.32</v>
+        <v>165.57</v>
       </c>
       <c r="J166">
-        <v>2945.43</v>
+        <v>168.93</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B167" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C167" s="2">
-        <v>44480</v>
+        <v>44481</v>
       </c>
       <c r="D167" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="E167">
-        <v>139</v>
+        <v>798.85</v>
       </c>
       <c r="F167">
-        <v>129.87</v>
+        <v>789.01</v>
       </c>
       <c r="G167">
-        <v>127.71</v>
+        <v>774.78</v>
       </c>
       <c r="H167">
-        <v>143.16999999999999</v>
+        <v>822.82</v>
       </c>
       <c r="I167">
-        <v>144.22999999999999</v>
+        <v>839.88</v>
       </c>
       <c r="J167">
-        <v>159.18</v>
+        <v>895.73</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B168" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C168" s="2">
-        <v>44480</v>
+        <v>44481</v>
       </c>
       <c r="D168" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="E168">
-        <v>3119.9</v>
+        <v>3342.85</v>
       </c>
       <c r="F168">
-        <v>3097.28</v>
+        <v>3255.74</v>
       </c>
       <c r="G168">
-        <v>3076.98</v>
+        <v>3252.62</v>
       </c>
       <c r="H168">
-        <v>3213.5</v>
+        <v>3442.13</v>
       </c>
       <c r="I168">
-        <v>3217.38</v>
+        <v>3443.14</v>
       </c>
       <c r="J168">
-        <v>3349.27</v>
+        <v>3705.92</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B169" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C169" s="2">
-        <v>44480</v>
+        <v>44481</v>
       </c>
       <c r="D169" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="E169">
-        <v>3460.5</v>
+        <v>484.75</v>
       </c>
       <c r="F169">
-        <v>3282.12</v>
+        <v>480.99</v>
       </c>
       <c r="G169">
-        <v>3275.75</v>
+        <v>473.74</v>
       </c>
       <c r="H169">
-        <v>3564.32</v>
+        <v>495.85</v>
       </c>
       <c r="I169">
-        <v>3801.05</v>
+        <v>499.29</v>
       </c>
       <c r="J169">
-        <v>4350.75</v>
+        <v>507.47</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B170" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C170" s="2">
-        <v>44480</v>
+        <v>44481</v>
       </c>
       <c r="D170" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="E170">
-        <v>17838.5</v>
+        <v>2917.95</v>
       </c>
       <c r="F170">
-        <v>17531.150000000001</v>
+        <v>2835.55</v>
       </c>
       <c r="G170">
-        <v>16267.43</v>
+        <v>2736.84</v>
       </c>
       <c r="H170">
-        <v>18373.650000000001</v>
+        <v>3005.49</v>
       </c>
       <c r="I170">
-        <v>18905.150000000001</v>
+        <v>3058.07</v>
       </c>
       <c r="J170">
-        <v>19464.349999999999</v>
+        <v>3147.37</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B171" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="C171" s="2">
         <v>44480</v>
       </c>
       <c r="D171" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E171">
-        <v>1742.9</v>
+        <v>717.25</v>
       </c>
       <c r="F171">
-        <v>1721.67</v>
-      </c>
-      <c r="G171">
-        <v>1670.43</v>
+        <v>731.07</v>
       </c>
       <c r="H171">
-        <v>1790.23</v>
+        <v>702.9</v>
       </c>
       <c r="I171">
-        <v>1795.19</v>
+        <v>694.58</v>
       </c>
       <c r="J171">
-        <v>1833.88</v>
+        <v>666.77</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B172" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C172" s="2">
-        <v>44477</v>
+        <v>44480</v>
       </c>
       <c r="D172" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="E172">
-        <v>85929.95</v>
+        <v>795</v>
       </c>
       <c r="F172">
-        <v>82206.34</v>
+        <v>766.63</v>
       </c>
       <c r="G172">
-        <v>80662.600000000006</v>
+        <v>757.05</v>
       </c>
       <c r="H172">
-        <v>88507.85</v>
+        <v>818.85</v>
       </c>
       <c r="I172">
-        <v>90508.52</v>
+        <v>842.95</v>
+      </c>
+      <c r="J172">
+        <v>927.2</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B173" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C173" s="2">
-        <v>44477</v>
+        <v>44480</v>
       </c>
       <c r="D173" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="E173">
-        <v>1554.65</v>
+        <v>1028.05</v>
       </c>
       <c r="F173">
-        <v>1490.79</v>
+        <v>972.87</v>
       </c>
       <c r="G173">
-        <v>1485.45</v>
+        <v>851.74</v>
       </c>
       <c r="H173">
-        <v>1601.29</v>
+        <v>1058.8900000000001</v>
       </c>
       <c r="I173">
-        <v>1603.92</v>
+        <v>1083.95</v>
       </c>
       <c r="J173">
-        <v>1739.73</v>
+        <v>1108.28</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B174" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C174" s="2">
-        <v>44477</v>
+        <v>44480</v>
       </c>
       <c r="D174" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E174">
-        <v>5652</v>
+        <v>538.70000000000005</v>
       </c>
       <c r="F174">
-        <v>5400.74</v>
+        <v>500.38</v>
       </c>
       <c r="G174">
-        <v>5154.84</v>
+        <v>482.31</v>
       </c>
       <c r="H174">
-        <v>5821.56</v>
+        <v>554.86</v>
       </c>
       <c r="I174">
-        <v>5953.1</v>
+        <v>561.54999999999995</v>
       </c>
       <c r="J174">
-        <v>6190.37</v>
+        <v>624</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B175" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C175" s="2">
-        <v>44477</v>
+        <v>44480</v>
       </c>
       <c r="D175" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E175">
-        <v>4797.5</v>
+        <v>2473.8000000000002</v>
       </c>
       <c r="F175">
-        <v>4694.4799999999996</v>
+        <v>2417.36</v>
       </c>
       <c r="G175">
-        <v>4618.71</v>
+        <v>2326.44</v>
       </c>
       <c r="H175">
-        <v>4941.43</v>
+        <v>2527.7800000000002</v>
       </c>
       <c r="I175">
-        <v>5142.12</v>
+        <v>2548.0100000000002</v>
       </c>
       <c r="J175">
-        <v>5645.77</v>
+        <v>2576.38</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B176" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C176" s="2">
-        <v>44477</v>
+        <v>44480</v>
       </c>
       <c r="D176" t="s">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="E176">
-        <v>1332</v>
+        <v>3734.45</v>
       </c>
       <c r="F176">
-        <v>1330.59</v>
+        <v>3549.18</v>
       </c>
       <c r="G176">
-        <v>1278.68</v>
+        <v>3044.82</v>
       </c>
       <c r="H176">
-        <v>1371.96</v>
+        <v>3846.48</v>
       </c>
       <c r="I176">
-        <v>1382.45</v>
+        <v>3961.15</v>
       </c>
       <c r="J176">
-        <v>1432.3</v>
+        <v>4090.47</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B177" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C177" s="2">
-        <v>44477</v>
+        <v>44480</v>
       </c>
       <c r="D177" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="E177">
-        <v>6673.4</v>
+        <v>5133</v>
       </c>
       <c r="F177">
-        <v>6636.4</v>
+        <v>5066.26</v>
       </c>
       <c r="G177">
-        <v>6083.52</v>
+        <v>5019.82</v>
       </c>
       <c r="H177">
-        <v>6873.6</v>
+        <v>5286.99</v>
       </c>
       <c r="I177">
-        <v>6909.67</v>
+        <v>5494.43</v>
       </c>
       <c r="J177">
-        <v>7148.8</v>
+        <v>6065.08</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B178" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C178" s="2">
-        <v>44477</v>
+        <v>44480</v>
       </c>
       <c r="D178" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="E178">
-        <v>486</v>
+        <v>2626</v>
       </c>
       <c r="F178">
-        <v>479.3</v>
+        <v>2431.85</v>
       </c>
       <c r="G178">
-        <v>457.25</v>
+        <v>2167.09</v>
       </c>
       <c r="H178">
-        <v>500.58</v>
+        <v>2704.78</v>
       </c>
       <c r="I178">
-        <v>515.03</v>
+        <v>2806.32</v>
       </c>
       <c r="J178">
-        <v>528.58000000000004</v>
+        <v>2945.43</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B179" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C179" s="2">
-        <v>44476</v>
+        <v>44480</v>
       </c>
       <c r="D179" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E179">
-        <v>1272.45</v>
+        <v>139</v>
       </c>
       <c r="F179">
-        <v>1230.3900000000001</v>
+        <v>129.87</v>
       </c>
       <c r="G179">
-        <v>1108.74</v>
+        <v>127.71</v>
       </c>
       <c r="H179">
-        <v>1310.6199999999999</v>
+        <v>143.16999999999999</v>
       </c>
       <c r="I179">
-        <v>1320.7</v>
+        <v>144.22999999999999</v>
       </c>
       <c r="J179">
-        <v>1372.03</v>
+        <v>159.18</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B180" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C180" s="2">
-        <v>44476</v>
+        <v>44480</v>
       </c>
       <c r="D180" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="E180">
-        <v>2457.1</v>
+        <v>3119.9</v>
       </c>
       <c r="F180">
-        <v>2408.6999999999998</v>
+        <v>3097.28</v>
       </c>
       <c r="G180">
-        <v>2319.92</v>
+        <v>3076.98</v>
       </c>
       <c r="H180">
-        <v>2527.7800000000002</v>
+        <v>3213.5</v>
       </c>
       <c r="I180">
-        <v>2530.81</v>
+        <v>3217.38</v>
       </c>
       <c r="J180">
-        <v>2576.38</v>
+        <v>3349.27</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B181" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C181" s="2">
-        <v>44476</v>
+        <v>44480</v>
       </c>
       <c r="D181" t="s">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="E181">
-        <v>3773.95</v>
+        <v>3460.5</v>
       </c>
       <c r="F181">
-        <v>3532.03</v>
+        <v>3282.12</v>
       </c>
       <c r="G181">
-        <v>3029.9</v>
+        <v>3275.75</v>
       </c>
       <c r="H181">
-        <v>3887.17</v>
+        <v>3564.32</v>
       </c>
       <c r="I181">
-        <v>3961.15</v>
+        <v>3801.05</v>
       </c>
       <c r="J181">
-        <v>4090.47</v>
+        <v>4350.75</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B182" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C182" s="2">
-        <v>44476</v>
+        <v>44480</v>
       </c>
       <c r="D182" t="s">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c r="E182">
-        <v>3858</v>
+        <v>17838.5</v>
       </c>
       <c r="F182">
-        <v>3834.24</v>
+        <v>17531.150000000001</v>
       </c>
       <c r="G182">
-        <v>3644.1</v>
+        <v>16267.43</v>
       </c>
       <c r="H182">
-        <v>3935.87</v>
+        <v>18373.650000000001</v>
       </c>
       <c r="I182">
-        <v>3973.74</v>
+        <v>18905.150000000001</v>
       </c>
       <c r="J182">
-        <v>4096.18</v>
+        <v>19464.349999999999</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B183" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C183" s="2">
-        <v>44476</v>
+        <v>44480</v>
       </c>
       <c r="D183" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="E183">
-        <v>3982.95</v>
+        <v>1742.9</v>
       </c>
       <c r="F183">
-        <v>3909.17</v>
+        <v>1721.67</v>
       </c>
       <c r="G183">
-        <v>3772.54</v>
+        <v>1670.43</v>
       </c>
       <c r="H183">
-        <v>4102.4399999999996</v>
+        <v>1790.23</v>
       </c>
       <c r="I183">
-        <v>4139.1499999999996</v>
+        <v>1795.19</v>
       </c>
       <c r="J183">
-        <v>4218.3500000000004</v>
+        <v>1833.88</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B184" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C184" s="2">
-        <v>44476</v>
+        <v>44477</v>
       </c>
       <c r="D184" t="s">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="E184">
-        <v>401.5</v>
+        <v>85929.95</v>
       </c>
       <c r="F184">
-        <v>381.21</v>
+        <v>82206.34</v>
       </c>
       <c r="G184">
-        <v>331.16</v>
+        <v>80662.600000000006</v>
       </c>
       <c r="H184">
-        <v>413.55</v>
+        <v>88507.85</v>
       </c>
       <c r="I184">
-        <v>421.35</v>
-      </c>
-      <c r="J184">
-        <v>429</v>
+        <v>90508.52</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B185" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C185" s="2">
-        <v>44476</v>
+        <v>44477</v>
       </c>
       <c r="D185" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="E185">
-        <v>4714.3999999999996</v>
+        <v>1554.65</v>
       </c>
       <c r="F185">
-        <v>4617.8</v>
+        <v>1490.79</v>
       </c>
       <c r="G185">
-        <v>4153.29</v>
+        <v>1485.45</v>
       </c>
       <c r="H185">
-        <v>4855.83</v>
+        <v>1601.29</v>
       </c>
       <c r="I185">
-        <v>5178.6000000000004</v>
+        <v>1603.92</v>
       </c>
       <c r="J185">
-        <v>5419.13</v>
+        <v>1739.73</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B186" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="C186" s="2">
-        <v>44475</v>
+        <v>44477</v>
       </c>
       <c r="D186" t="s">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="E186">
-        <v>47</v>
+        <v>5652</v>
       </c>
       <c r="F186">
-        <v>47.8</v>
+        <v>5400.74</v>
       </c>
       <c r="G186">
-        <v>51.67</v>
+        <v>5154.84</v>
       </c>
       <c r="H186">
-        <v>46.06</v>
+        <v>5821.56</v>
       </c>
       <c r="I186">
-        <v>45.17</v>
+        <v>5953.1</v>
       </c>
       <c r="J186">
-        <v>43.03</v>
+        <v>6190.37</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B187" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="C187" s="2">
-        <v>44475</v>
+        <v>44477</v>
       </c>
       <c r="D187" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="E187">
-        <v>230.45</v>
+        <v>4797.5</v>
       </c>
       <c r="F187">
-        <v>233.65</v>
+        <v>4694.4799999999996</v>
       </c>
       <c r="G187">
-        <v>235.81</v>
+        <v>4618.71</v>
       </c>
       <c r="H187">
-        <v>225.84</v>
+        <v>4941.43</v>
       </c>
       <c r="I187">
-        <v>219.38</v>
+        <v>5142.12</v>
       </c>
       <c r="J187">
-        <v>202.83</v>
+        <v>5645.77</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B188" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C188" s="2">
-        <v>44475</v>
+        <v>44477</v>
       </c>
       <c r="D188" t="s">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="E188">
-        <v>3940</v>
+        <v>1332</v>
       </c>
       <c r="F188">
-        <v>3856.8</v>
+        <v>1330.59</v>
       </c>
       <c r="G188">
-        <v>3692.26</v>
+        <v>1278.68</v>
       </c>
       <c r="H188">
-        <v>4050.97</v>
+        <v>1371.96</v>
       </c>
       <c r="I188">
-        <v>4058.2</v>
+        <v>1382.45</v>
       </c>
       <c r="J188">
-        <v>4087.87</v>
+        <v>1432.3</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B189" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="C189" s="2">
-        <v>44474</v>
+        <v>44477</v>
       </c>
       <c r="D189" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="E189">
-        <v>232.15</v>
+        <v>6673.4</v>
       </c>
       <c r="F189">
-        <v>233.68</v>
+        <v>6636.4</v>
       </c>
       <c r="G189">
-        <v>236</v>
+        <v>6083.52</v>
       </c>
       <c r="H189">
-        <v>227.51</v>
+        <v>6873.6</v>
       </c>
       <c r="I189">
-        <v>219.38</v>
+        <v>6909.67</v>
       </c>
       <c r="J189">
-        <v>202.83</v>
+        <v>7148.8</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B190" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C190" s="2">
-        <v>44474</v>
+        <v>44477</v>
       </c>
       <c r="D190" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="E190">
-        <v>1293.6500000000001</v>
+        <v>486</v>
       </c>
       <c r="F190">
-        <v>1268.21</v>
+        <v>479.3</v>
       </c>
       <c r="G190">
-        <v>1167.44</v>
+        <v>457.25</v>
       </c>
       <c r="H190">
-        <v>1332.46</v>
+        <v>500.58</v>
       </c>
       <c r="I190">
-        <v>1386.87</v>
+        <v>515.03</v>
       </c>
       <c r="J190">
-        <v>1440.53</v>
+        <v>528.58000000000004</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B191" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C191" s="2">
-        <v>44474</v>
+        <v>44476</v>
       </c>
       <c r="D191" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="E191">
-        <v>132.85</v>
+        <v>1272.45</v>
       </c>
       <c r="F191">
-        <v>127.5</v>
+        <v>1230.3900000000001</v>
       </c>
       <c r="G191">
-        <v>126.76</v>
+        <v>1108.74</v>
       </c>
       <c r="H191">
-        <v>136.84</v>
+        <v>1310.6199999999999</v>
       </c>
       <c r="I191">
-        <v>139.02000000000001</v>
+        <v>1320.7</v>
       </c>
       <c r="J191">
-        <v>141.63</v>
+        <v>1372.03</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B192" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C192" s="2">
-        <v>44474</v>
+        <v>44476</v>
       </c>
       <c r="D192" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E192">
-        <v>33725</v>
+        <v>2457.1</v>
       </c>
       <c r="F192">
-        <v>32686.36</v>
+        <v>2408.6999999999998</v>
       </c>
       <c r="G192">
-        <v>32151.46</v>
+        <v>2319.92</v>
       </c>
       <c r="H192">
-        <v>34736.75</v>
+        <v>2527.7800000000002</v>
       </c>
       <c r="I192">
-        <v>35088.800000000003</v>
+        <v>2530.81</v>
       </c>
       <c r="J192">
-        <v>36216.769999999997</v>
+        <v>2576.38</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B193" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C193" s="2">
-        <v>44473</v>
+        <v>44476</v>
       </c>
       <c r="D193" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="E193">
-        <v>3201.05</v>
+        <v>3773.95</v>
       </c>
       <c r="F193">
-        <v>3019.97</v>
+        <v>3532.03</v>
       </c>
       <c r="G193">
-        <v>2662.47</v>
+        <v>3029.9</v>
       </c>
       <c r="H193">
-        <v>3297.08</v>
+        <v>3887.17</v>
       </c>
       <c r="I193">
-        <v>3356.63</v>
+        <v>3961.15</v>
       </c>
       <c r="J193">
-        <v>3442.13</v>
+        <v>4090.47</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B194" t="s">
+        <v>11</v>
+      </c>
+      <c r="C194" s="2">
+        <v>44476</v>
+      </c>
+      <c r="D194" t="s">
         <v>118</v>
       </c>
-      <c r="C194" s="2">
-        <v>44473</v>
-      </c>
-      <c r="D194" t="s">
-        <v>81</v>
-      </c>
       <c r="E194">
-        <v>101.1</v>
+        <v>3858</v>
       </c>
       <c r="F194">
-        <v>94.24</v>
+        <v>3834.24</v>
       </c>
       <c r="G194">
-        <v>89.24</v>
+        <v>3644.1</v>
       </c>
       <c r="H194">
-        <v>104.13</v>
+        <v>3935.87</v>
       </c>
       <c r="I194">
-        <v>106.55</v>
+        <v>3973.74</v>
       </c>
       <c r="J194">
-        <v>110.93</v>
+        <v>4096.18</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B195" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C195" s="2">
-        <v>44473</v>
+        <v>44476</v>
       </c>
       <c r="D195" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="E195">
-        <v>1029.5</v>
+        <v>3982.95</v>
       </c>
       <c r="F195">
-        <v>963.54</v>
+        <v>3909.17</v>
       </c>
       <c r="G195">
-        <v>844.08</v>
+        <v>3772.54</v>
       </c>
       <c r="H195">
-        <v>1060.3800000000001</v>
+        <v>4102.4399999999996</v>
       </c>
       <c r="I195">
-        <v>1083.95</v>
+        <v>4139.1499999999996</v>
       </c>
       <c r="J195">
-        <v>1108.28</v>
+        <v>4218.3500000000004</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
+        <v>10</v>
+      </c>
+      <c r="B196" t="s">
+        <v>11</v>
+      </c>
+      <c r="C196" s="2">
+        <v>44476</v>
+      </c>
+      <c r="D196" t="s">
         <v>119</v>
       </c>
-      <c r="B196" t="s">
-        <v>118</v>
-      </c>
-      <c r="C196" s="2">
-        <v>44473</v>
-      </c>
-      <c r="D196" t="s">
-        <v>15</v>
-      </c>
       <c r="E196">
-        <v>4243.1000000000004</v>
+        <v>401.5</v>
       </c>
       <c r="F196">
-        <v>4152.6499999999996</v>
+        <v>381.21</v>
       </c>
       <c r="G196">
-        <v>3531.62</v>
+        <v>331.16</v>
       </c>
       <c r="H196">
-        <v>4370.3900000000003</v>
+        <v>413.55</v>
       </c>
       <c r="I196">
-        <v>4765.1499999999996</v>
+        <v>421.35</v>
       </c>
       <c r="J196">
-        <v>5047.68</v>
+        <v>429</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B197" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C197" s="2">
-        <v>44473</v>
+        <v>44476</v>
       </c>
       <c r="D197" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="E197">
-        <v>1388.8</v>
+        <v>4714.3999999999996</v>
       </c>
       <c r="F197">
-        <v>1371.46</v>
+        <v>4617.8</v>
       </c>
       <c r="G197">
-        <v>1209.3599999999999</v>
+        <v>4153.29</v>
       </c>
       <c r="H197">
-        <v>1430.46</v>
+        <v>4855.83</v>
       </c>
       <c r="I197">
-        <v>1464.22</v>
+        <v>5178.6000000000004</v>
       </c>
       <c r="J197">
-        <v>1494.72</v>
+        <v>5419.13</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B198" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="C198" s="2">
-        <v>44473</v>
+        <v>44475</v>
       </c>
       <c r="D198" t="s">
-        <v>17</v>
+        <v>121</v>
       </c>
       <c r="E198">
-        <v>158.9</v>
+        <v>47</v>
       </c>
       <c r="F198">
-        <v>155.91999999999999</v>
+        <v>47.8</v>
       </c>
       <c r="G198">
-        <v>152.29</v>
+        <v>51.67</v>
       </c>
       <c r="H198">
-        <v>163.66999999999999</v>
+        <v>46.06</v>
       </c>
       <c r="I198">
-        <v>166.03</v>
+        <v>45.17</v>
       </c>
       <c r="J198">
-        <v>170.13</v>
+        <v>43.03</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B199" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="C199" s="2">
-        <v>44473</v>
+        <v>44475</v>
       </c>
       <c r="D199" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="E199">
-        <v>17736.25</v>
+        <v>230.45</v>
       </c>
       <c r="F199">
-        <v>17299.48</v>
+        <v>233.65</v>
       </c>
       <c r="G199">
-        <v>15881.28</v>
+        <v>235.81</v>
       </c>
       <c r="H199">
-        <v>18268.34</v>
+        <v>225.84</v>
       </c>
       <c r="I199">
-        <v>18905.150000000001</v>
+        <v>219.38</v>
       </c>
       <c r="J199">
-        <v>19464.349999999999</v>
+        <v>202.83</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B200" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C200" s="2">
-        <v>44473</v>
+        <v>44475</v>
       </c>
       <c r="D200" t="s">
         <v>65</v>
       </c>
       <c r="E200">
-        <v>2835.3</v>
+        <v>3940</v>
       </c>
       <c r="F200">
-        <v>2649.53</v>
+        <v>3856.8</v>
       </c>
       <c r="G200">
-        <v>2600.65</v>
+        <v>3692.26</v>
       </c>
       <c r="H200">
-        <v>2920.36</v>
+        <v>4050.97</v>
       </c>
       <c r="I200">
-        <v>2997.9</v>
+        <v>4058.2</v>
       </c>
       <c r="J200">
-        <v>3366.85</v>
+        <v>4087.87</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B201" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="C201" s="2">
-        <v>44473</v>
+        <v>44474</v>
       </c>
       <c r="D201" t="s">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="E201">
-        <v>7669.95</v>
+        <v>232.15</v>
       </c>
       <c r="F201">
-        <v>7571.87</v>
+        <v>233.68</v>
       </c>
       <c r="G201">
-        <v>6979.07</v>
+        <v>236</v>
       </c>
       <c r="H201">
-        <v>7900.05</v>
+        <v>227.51</v>
       </c>
       <c r="I201">
-        <v>8004.48</v>
+        <v>219.38</v>
       </c>
       <c r="J201">
-        <v>8172.68</v>
+        <v>202.83</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B202" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C202" s="2">
-        <v>44473</v>
+        <v>44474</v>
       </c>
       <c r="D202" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="E202">
-        <v>699.55</v>
+        <v>1293.6500000000001</v>
       </c>
       <c r="F202">
-        <v>672.62</v>
+        <v>1268.21</v>
       </c>
       <c r="G202">
-        <v>625.88</v>
+        <v>1167.44</v>
       </c>
       <c r="H202">
-        <v>718.13</v>
+        <v>1332.46</v>
       </c>
       <c r="I202">
-        <v>720.54</v>
+        <v>1386.87</v>
       </c>
       <c r="J202">
-        <v>726.03</v>
+        <v>1440.53</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B203" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C203" s="2">
-        <v>44470</v>
+        <v>44474</v>
       </c>
       <c r="D203" t="s">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="E203">
-        <v>403.5</v>
+        <v>132.85</v>
       </c>
       <c r="F203">
-        <v>377.58</v>
+        <v>127.5</v>
       </c>
       <c r="G203">
-        <v>328.08</v>
+        <v>126.76</v>
       </c>
       <c r="H203">
-        <v>415.61</v>
+        <v>136.84</v>
       </c>
       <c r="I203">
-        <v>421.35</v>
+        <v>139.02000000000001</v>
       </c>
       <c r="J203">
-        <v>429</v>
+        <v>141.63</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C204" s="2">
-        <v>44470</v>
+        <v>44474</v>
       </c>
       <c r="D204" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="E204">
-        <v>1517.65</v>
+        <v>33725</v>
       </c>
       <c r="F204">
-        <v>1515.92</v>
+        <v>32686.36</v>
       </c>
       <c r="G204">
-        <v>1513.01</v>
+        <v>32151.46</v>
       </c>
       <c r="H204">
-        <v>1563.18</v>
+        <v>34736.75</v>
       </c>
       <c r="I204">
-        <v>1615.37</v>
+        <v>35088.800000000003</v>
       </c>
       <c r="J204">
-        <v>1748.32</v>
+        <v>36216.769999999997</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B205" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C205" s="2">
-        <v>44470</v>
+        <v>44473</v>
       </c>
       <c r="D205" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="E205">
-        <v>1836</v>
+        <v>3201.05</v>
       </c>
       <c r="F205">
-        <v>1777.88</v>
+        <v>3019.97</v>
       </c>
       <c r="G205">
-        <v>1722.05</v>
+        <v>2662.47</v>
       </c>
       <c r="H205">
-        <v>1880.28</v>
+        <v>3297.08</v>
       </c>
       <c r="I205">
-        <v>1891.08</v>
+        <v>3356.63</v>
       </c>
       <c r="J205">
-        <v>1914.32</v>
+        <v>3442.13</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B206" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C206" s="2">
-        <v>44470</v>
+        <v>44473</v>
       </c>
       <c r="D206" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="E206">
-        <v>7475</v>
+        <v>101.1</v>
       </c>
       <c r="F206">
-        <v>7202.67</v>
+        <v>94.24</v>
       </c>
       <c r="G206">
-        <v>6646.03</v>
+        <v>89.24</v>
       </c>
       <c r="H206">
-        <v>7699.25</v>
+        <v>104.13</v>
       </c>
       <c r="I206">
-        <v>7734.7</v>
+        <v>106.55</v>
       </c>
       <c r="J206">
-        <v>7855.93</v>
+        <v>110.93</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B207" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C207" s="2">
-        <v>44470</v>
+        <v>44473</v>
       </c>
       <c r="D207" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E207">
-        <v>639.35</v>
+        <v>1029.5</v>
       </c>
       <c r="F207">
-        <v>632.33000000000004</v>
+        <v>963.54</v>
       </c>
       <c r="G207">
-        <v>585.75</v>
+        <v>844.08</v>
       </c>
       <c r="H207">
-        <v>658.53</v>
+        <v>1060.3800000000001</v>
       </c>
       <c r="I207">
-        <v>666.63</v>
+        <v>1083.95</v>
       </c>
       <c r="J207">
-        <v>679.72</v>
+        <v>1108.28</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B208" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C208" s="2">
-        <v>44469</v>
+        <v>44473</v>
       </c>
       <c r="D208" t="s">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="E208">
-        <v>1029.4000000000001</v>
+        <v>4243.1000000000004</v>
       </c>
       <c r="F208">
-        <v>957.29</v>
+        <v>4152.6499999999996</v>
       </c>
       <c r="G208">
-        <v>841.11</v>
+        <v>3531.62</v>
       </c>
       <c r="H208">
-        <v>1060.28</v>
+        <v>4370.3900000000003</v>
       </c>
       <c r="I208">
-        <v>1147.18</v>
+        <v>4765.1499999999996</v>
       </c>
       <c r="J208">
-        <v>1171.1300000000001</v>
+        <v>5047.68</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B209" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C209" s="2">
-        <v>44469</v>
+        <v>44473</v>
       </c>
       <c r="D209" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="E209">
-        <v>3191.9</v>
+        <v>1388.8</v>
       </c>
       <c r="F209">
-        <v>3113.24</v>
+        <v>1371.46</v>
       </c>
       <c r="G209">
-        <v>3069.96</v>
+        <v>1209.3599999999999</v>
       </c>
       <c r="H209">
-        <v>3283.85</v>
+        <v>1430.46</v>
       </c>
       <c r="I209">
-        <v>3287.66</v>
+        <v>1464.22</v>
       </c>
       <c r="J209">
-        <v>3343.17</v>
+        <v>1494.72</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B210" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C210" s="2">
-        <v>44469</v>
+        <v>44473</v>
       </c>
       <c r="D210" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="E210">
-        <v>819.95</v>
+        <v>158.9</v>
       </c>
       <c r="F210">
-        <v>779.14</v>
+        <v>155.91999999999999</v>
       </c>
       <c r="G210">
-        <v>767.07</v>
+        <v>152.29</v>
       </c>
       <c r="H210">
-        <v>841.58</v>
+        <v>163.66999999999999</v>
       </c>
       <c r="I210">
-        <v>844.55</v>
+        <v>166.03</v>
       </c>
       <c r="J210">
-        <v>902.58</v>
+        <v>170.13</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
+        <v>10</v>
+      </c>
+      <c r="B211" t="s">
+        <v>11</v>
+      </c>
+      <c r="C211" s="2">
+        <v>44473</v>
+      </c>
+      <c r="D211" t="s">
+        <v>46</v>
+      </c>
+      <c r="E211">
+        <v>17736.25</v>
+      </c>
+      <c r="F211">
+        <v>17299.48</v>
+      </c>
+      <c r="G211">
+        <v>15881.28</v>
+      </c>
+      <c r="H211">
+        <v>18268.34</v>
+      </c>
+      <c r="I211">
+        <v>18905.150000000001</v>
+      </c>
+      <c r="J211">
+        <v>19464.349999999999</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>10</v>
+      </c>
+      <c r="B212" t="s">
+        <v>11</v>
+      </c>
+      <c r="C212" s="2">
+        <v>44473</v>
+      </c>
+      <c r="D212" t="s">
+        <v>81</v>
+      </c>
+      <c r="E212">
+        <v>2835.3</v>
+      </c>
+      <c r="F212">
+        <v>2649.53</v>
+      </c>
+      <c r="G212">
+        <v>2600.65</v>
+      </c>
+      <c r="H212">
+        <v>2920.36</v>
+      </c>
+      <c r="I212">
+        <v>2997.9</v>
+      </c>
+      <c r="J212">
+        <v>3366.85</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>10</v>
+      </c>
+      <c r="B213" t="s">
+        <v>11</v>
+      </c>
+      <c r="C213" s="2">
+        <v>44473</v>
+      </c>
+      <c r="D213" t="s">
+        <v>122</v>
+      </c>
+      <c r="E213">
+        <v>7669.95</v>
+      </c>
+      <c r="F213">
+        <v>7571.87</v>
+      </c>
+      <c r="G213">
+        <v>6979.07</v>
+      </c>
+      <c r="H213">
+        <v>7900.05</v>
+      </c>
+      <c r="I213">
+        <v>8004.48</v>
+      </c>
+      <c r="J213">
+        <v>8172.68</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>10</v>
+      </c>
+      <c r="B214" t="s">
+        <v>11</v>
+      </c>
+      <c r="C214" s="2">
+        <v>44473</v>
+      </c>
+      <c r="D214" t="s">
+        <v>106</v>
+      </c>
+      <c r="E214">
+        <v>699.55</v>
+      </c>
+      <c r="F214">
+        <v>672.62</v>
+      </c>
+      <c r="G214">
+        <v>625.88</v>
+      </c>
+      <c r="H214">
+        <v>718.13</v>
+      </c>
+      <c r="I214">
+        <v>720.54</v>
+      </c>
+      <c r="J214">
+        <v>726.03</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>10</v>
+      </c>
+      <c r="B215" t="s">
+        <v>11</v>
+      </c>
+      <c r="C215" s="2">
+        <v>44470</v>
+      </c>
+      <c r="D215" t="s">
         <v>119</v>
       </c>
-      <c r="B211" t="s">
-        <v>118</v>
-      </c>
-      <c r="C211" s="2">
+      <c r="E215">
+        <v>403.5</v>
+      </c>
+      <c r="F215">
+        <v>377.58</v>
+      </c>
+      <c r="G215">
+        <v>328.08</v>
+      </c>
+      <c r="H215">
+        <v>415.61</v>
+      </c>
+      <c r="I215">
+        <v>421.35</v>
+      </c>
+      <c r="J215">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>10</v>
+      </c>
+      <c r="B216" t="s">
+        <v>11</v>
+      </c>
+      <c r="C216" s="2">
+        <v>44470</v>
+      </c>
+      <c r="D216" t="s">
+        <v>14</v>
+      </c>
+      <c r="E216">
+        <v>1517.65</v>
+      </c>
+      <c r="F216">
+        <v>1515.92</v>
+      </c>
+      <c r="G216">
+        <v>1513.01</v>
+      </c>
+      <c r="H216">
+        <v>1563.18</v>
+      </c>
+      <c r="I216">
+        <v>1615.37</v>
+      </c>
+      <c r="J216">
+        <v>1748.32</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>10</v>
+      </c>
+      <c r="B217" t="s">
+        <v>11</v>
+      </c>
+      <c r="C217" s="2">
+        <v>44470</v>
+      </c>
+      <c r="D217" t="s">
+        <v>82</v>
+      </c>
+      <c r="E217">
+        <v>1836</v>
+      </c>
+      <c r="F217">
+        <v>1777.88</v>
+      </c>
+      <c r="G217">
+        <v>1722.05</v>
+      </c>
+      <c r="H217">
+        <v>1880.28</v>
+      </c>
+      <c r="I217">
+        <v>1891.08</v>
+      </c>
+      <c r="J217">
+        <v>1914.32</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>10</v>
+      </c>
+      <c r="B218" t="s">
+        <v>11</v>
+      </c>
+      <c r="C218" s="2">
+        <v>44470</v>
+      </c>
+      <c r="D218" t="s">
+        <v>123</v>
+      </c>
+      <c r="E218">
+        <v>7475</v>
+      </c>
+      <c r="F218">
+        <v>7202.67</v>
+      </c>
+      <c r="G218">
+        <v>6646.03</v>
+      </c>
+      <c r="H218">
+        <v>7699.25</v>
+      </c>
+      <c r="I218">
+        <v>7734.7</v>
+      </c>
+      <c r="J218">
+        <v>7855.93</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>10</v>
+      </c>
+      <c r="B219" t="s">
+        <v>11</v>
+      </c>
+      <c r="C219" s="2">
+        <v>44470</v>
+      </c>
+      <c r="D219" t="s">
+        <v>124</v>
+      </c>
+      <c r="E219">
+        <v>639.35</v>
+      </c>
+      <c r="F219">
+        <v>632.33000000000004</v>
+      </c>
+      <c r="G219">
+        <v>585.75</v>
+      </c>
+      <c r="H219">
+        <v>658.53</v>
+      </c>
+      <c r="I219">
+        <v>666.63</v>
+      </c>
+      <c r="J219">
+        <v>679.72</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>10</v>
+      </c>
+      <c r="B220" t="s">
+        <v>11</v>
+      </c>
+      <c r="C220" s="2">
         <v>44469</v>
       </c>
-      <c r="D211" t="s">
-        <v>77</v>
-      </c>
-      <c r="E211">
+      <c r="D220" t="s">
+        <v>115</v>
+      </c>
+      <c r="E220">
+        <v>1029.4000000000001</v>
+      </c>
+      <c r="F220">
+        <v>957.29</v>
+      </c>
+      <c r="G220">
+        <v>841.11</v>
+      </c>
+      <c r="H220">
+        <v>1060.28</v>
+      </c>
+      <c r="I220">
+        <v>1147.18</v>
+      </c>
+      <c r="J220">
+        <v>1171.1300000000001</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>10</v>
+      </c>
+      <c r="B221" t="s">
+        <v>11</v>
+      </c>
+      <c r="C221" s="2">
+        <v>44469</v>
+      </c>
+      <c r="D221" t="s">
+        <v>26</v>
+      </c>
+      <c r="E221">
+        <v>3191.9</v>
+      </c>
+      <c r="F221">
+        <v>3113.24</v>
+      </c>
+      <c r="G221">
+        <v>3069.96</v>
+      </c>
+      <c r="H221">
+        <v>3283.85</v>
+      </c>
+      <c r="I221">
+        <v>3287.66</v>
+      </c>
+      <c r="J221">
+        <v>3343.17</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>10</v>
+      </c>
+      <c r="B222" t="s">
+        <v>11</v>
+      </c>
+      <c r="C222" s="2">
+        <v>44469</v>
+      </c>
+      <c r="D222" t="s">
+        <v>91</v>
+      </c>
+      <c r="E222">
+        <v>819.95</v>
+      </c>
+      <c r="F222">
+        <v>779.14</v>
+      </c>
+      <c r="G222">
+        <v>767.07</v>
+      </c>
+      <c r="H222">
+        <v>841.58</v>
+      </c>
+      <c r="I222">
+        <v>844.55</v>
+      </c>
+      <c r="J222">
+        <v>902.58</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>10</v>
+      </c>
+      <c r="B223" t="s">
+        <v>11</v>
+      </c>
+      <c r="C223" s="2">
+        <v>44469</v>
+      </c>
+      <c r="D223" t="s">
+        <v>12</v>
+      </c>
+      <c r="E223">
         <v>1224.05</v>
       </c>
-      <c r="F211">
+      <c r="F223">
         <v>1205.3800000000001</v>
       </c>
-      <c r="G211">
+      <c r="G223">
         <v>1088.28</v>
       </c>
-      <c r="H211">
+      <c r="H223">
         <v>1259.93</v>
       </c>
-      <c r="I211">
+      <c r="I223">
         <v>1260.77</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/default/data/paid channel/backup data.xlsx
+++ b/default/data/paid channel/backup data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="133">
   <si>
     <t>What</t>
   </si>
@@ -57,12 +57,42 @@
     <t>Bullish</t>
   </si>
   <si>
+    <t>GNFC.NS</t>
+  </si>
+  <si>
+    <t>AUBANK.NS</t>
+  </si>
+  <si>
+    <t>Bearish</t>
+  </si>
+  <si>
+    <t>APOLLOTYRE.NS</t>
+  </si>
+  <si>
+    <t>MARUTI.NS</t>
+  </si>
+  <si>
+    <t>JUBLFOOD.NS</t>
+  </si>
+  <si>
+    <t>BOSCHLTD.NS</t>
+  </si>
+  <si>
+    <t>FEDERALBNK.NS</t>
+  </si>
+  <si>
+    <t>GAIL.NS</t>
+  </si>
+  <si>
+    <t>CANBK.NS</t>
+  </si>
+  <si>
+    <t>POWERGRID.NS</t>
+  </si>
+  <si>
     <t>VOLTAS.NS</t>
   </si>
   <si>
-    <t>Bearish</t>
-  </si>
-  <si>
     <t>MUTHOOTFIN.NS</t>
   </si>
   <si>
@@ -135,9 +165,6 @@
     <t>COFORGE.NS</t>
   </si>
   <si>
-    <t>MARUTI.NS</t>
-  </si>
-  <si>
     <t>MINDTREE.NS</t>
   </si>
   <si>
@@ -156,15 +183,9 @@
     <t>HEROMOTOCO.NS</t>
   </si>
   <si>
-    <t>GAIL.NS</t>
-  </si>
-  <si>
     <t>BAJAJFINSV.NS</t>
   </si>
   <si>
-    <t>POWERGRID.NS</t>
-  </si>
-  <si>
     <t>MRF.NS</t>
   </si>
   <si>
@@ -177,9 +198,6 @@
     <t>HDFCAMC.NS</t>
   </si>
   <si>
-    <t>CANBK.NS</t>
-  </si>
-  <si>
     <t>SIEMENS.NS</t>
   </si>
   <si>
@@ -357,9 +375,6 @@
     <t>INDIAMART.NS</t>
   </si>
   <si>
-    <t>FEDERALBNK.NS</t>
-  </si>
-  <si>
     <t>AXISBANK.NS</t>
   </si>
   <si>
@@ -394,6 +409,15 @@
   </si>
   <si>
     <t>WIPRO.NS</t>
+  </si>
+  <si>
+    <t>CUMMINSIND.NS</t>
+  </si>
+  <si>
+    <t>ICICIGI.NS</t>
+  </si>
+  <si>
+    <t>INDIGO.NS</t>
   </si>
 </sst>
 </file>
@@ -760,10 +784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J223"/>
+  <dimension ref="A1:J240"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
+      <selection activeCell="K242" sqref="K242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -812,28 +836,28 @@
         <v>11</v>
       </c>
       <c r="C2" s="2">
-        <v>44575</v>
+        <v>44592</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2">
-        <v>1290.0999999999999</v>
+        <v>481.1</v>
       </c>
       <c r="F2">
-        <v>1227.22</v>
+        <v>469.42</v>
       </c>
       <c r="G2">
-        <v>1226.97</v>
+        <v>439.95</v>
       </c>
       <c r="H2">
-        <v>1328.8</v>
+        <v>494.18</v>
       </c>
       <c r="I2">
-        <v>1338.38</v>
+        <v>495.53</v>
       </c>
       <c r="J2">
-        <v>1464.38</v>
+        <v>553.13</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -841,31 +865,28 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2">
+        <v>44592</v>
+      </c>
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2">
-        <v>44572</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
       <c r="E3">
-        <v>1524.55</v>
+        <v>1315.6</v>
       </c>
       <c r="F3">
-        <v>1547.43</v>
+        <v>1238.2</v>
       </c>
       <c r="G3">
-        <v>1573.33</v>
+        <v>1172.76</v>
       </c>
       <c r="H3">
-        <v>1494.06</v>
+        <v>1355.07</v>
       </c>
       <c r="I3">
-        <v>1489.34</v>
-      </c>
-      <c r="J3">
-        <v>1464.22</v>
+        <v>1592.17</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -873,31 +894,31 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2">
-        <v>44572</v>
+        <v>44588</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
       </c>
       <c r="E4">
-        <v>889.35</v>
+        <v>206.75</v>
       </c>
       <c r="F4">
-        <v>911.19</v>
+        <v>213.02</v>
       </c>
       <c r="G4">
-        <v>936.12</v>
+        <v>218.72</v>
       </c>
       <c r="H4">
-        <v>871.56</v>
+        <v>202.62</v>
       </c>
       <c r="I4">
-        <v>852.23</v>
+        <v>188.72</v>
       </c>
       <c r="J4">
-        <v>814.27</v>
+        <v>164.42</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -908,28 +929,25 @@
         <v>11</v>
       </c>
       <c r="C5" s="2">
-        <v>44572</v>
+        <v>44586</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
       </c>
       <c r="E5">
-        <v>1340.5</v>
+        <v>8360</v>
       </c>
       <c r="F5">
-        <v>1260.77</v>
+        <v>7912.1</v>
       </c>
       <c r="G5">
-        <v>1212.28</v>
+        <v>7639.85</v>
       </c>
       <c r="H5">
-        <v>1380.72</v>
+        <v>8600.48</v>
       </c>
       <c r="I5">
-        <v>1388.57</v>
-      </c>
-      <c r="J5">
-        <v>1423.3</v>
+        <v>8610.7999999999993</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -937,31 +955,31 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2">
-        <v>44571</v>
+        <v>44586</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
       </c>
       <c r="E6">
-        <v>1493.3</v>
+        <v>3446</v>
       </c>
       <c r="F6">
-        <v>1411.27</v>
+        <v>3547.35</v>
       </c>
       <c r="G6">
-        <v>1370.55</v>
+        <v>3609</v>
       </c>
       <c r="H6">
-        <v>1538.1</v>
+        <v>3377.08</v>
       </c>
       <c r="I6">
-        <v>1556.82</v>
+        <v>3322.1</v>
       </c>
       <c r="J6">
-        <v>1603</v>
+        <v>3187.6</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -969,31 +987,31 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2">
-        <v>44568</v>
+        <v>44585</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
       <c r="E7">
-        <v>2466.4</v>
+        <v>15850.1</v>
       </c>
       <c r="F7">
-        <v>2416.34</v>
+        <v>16623.560000000001</v>
       </c>
       <c r="G7">
-        <v>2396.91</v>
+        <v>16646.75</v>
       </c>
       <c r="H7">
-        <v>2540.39</v>
+        <v>15533.1</v>
       </c>
       <c r="I7">
-        <v>2648.1</v>
+        <v>14426.75</v>
       </c>
       <c r="J7">
-        <v>2738.9</v>
+        <v>12206.75</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -1001,31 +1019,31 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2">
-        <v>44568</v>
+        <v>44585</v>
       </c>
       <c r="D8" t="s">
         <v>19</v>
       </c>
       <c r="E8">
-        <v>886.3</v>
+        <v>91.3</v>
       </c>
       <c r="F8">
-        <v>847.49</v>
+        <v>91.4</v>
       </c>
       <c r="G8">
-        <v>842.71</v>
+        <v>92.33</v>
       </c>
       <c r="H8">
-        <v>912.89</v>
+        <v>89.47</v>
       </c>
       <c r="I8">
-        <v>927.72</v>
+        <v>86.71</v>
       </c>
       <c r="J8">
-        <v>1025.22</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -1033,31 +1051,31 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2">
-        <v>44567</v>
+        <v>44582</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
       </c>
       <c r="E9">
-        <v>1925</v>
+        <v>142.35</v>
       </c>
       <c r="F9">
-        <v>1949.25</v>
+        <v>142.6</v>
       </c>
       <c r="G9">
-        <v>1975.92</v>
+        <v>144.71</v>
       </c>
       <c r="H9">
-        <v>1886.5</v>
+        <v>139.5</v>
       </c>
       <c r="I9">
-        <v>1880.65</v>
+        <v>138.71</v>
       </c>
       <c r="J9">
-        <v>1865.71</v>
+        <v>136.4</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -1065,31 +1083,31 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C10" s="2">
-        <v>44566</v>
+        <v>44582</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>1467</v>
+        <v>220.1</v>
       </c>
       <c r="F10">
-        <v>1398.63</v>
+        <v>220.5</v>
       </c>
       <c r="G10">
-        <v>1367.54</v>
+        <v>241.05</v>
       </c>
       <c r="H10">
-        <v>1511.01</v>
+        <v>215.7</v>
       </c>
       <c r="I10">
-        <v>1556.82</v>
+        <v>213.88</v>
       </c>
       <c r="J10">
-        <v>1603</v>
+        <v>211.45</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1100,28 +1118,28 @@
         <v>11</v>
       </c>
       <c r="C11" s="2">
-        <v>44566</v>
+        <v>44582</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>3884.95</v>
+        <v>216.15</v>
       </c>
       <c r="F11">
-        <v>3725.44</v>
+        <v>206.8</v>
       </c>
       <c r="G11">
-        <v>3596.4</v>
+        <v>204.25</v>
       </c>
       <c r="H11">
-        <v>4001.5</v>
+        <v>222.63</v>
       </c>
       <c r="I11">
-        <v>4030.8</v>
+        <v>224.73</v>
       </c>
       <c r="J11">
-        <v>4239.3500000000004</v>
+        <v>243.18</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1129,31 +1147,31 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C12" s="2">
-        <v>44565</v>
+        <v>44579</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>121</v>
       </c>
       <c r="E12">
-        <v>19819.8</v>
+        <v>3487.65</v>
       </c>
       <c r="F12">
-        <v>19382.259999999998</v>
+        <v>3627.17</v>
       </c>
       <c r="G12">
-        <v>19309.849999999999</v>
+        <v>3741.32</v>
       </c>
       <c r="H12">
-        <v>20367.8</v>
+        <v>3417.9</v>
       </c>
       <c r="I12">
-        <v>20414.39</v>
+        <v>3396.68</v>
       </c>
       <c r="J12">
-        <v>20588.5</v>
+        <v>3384.56</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1161,31 +1179,31 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" s="2">
-        <v>44561</v>
+        <v>44579</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="E13">
-        <v>46.15</v>
+        <v>1647.95</v>
       </c>
       <c r="F13">
-        <v>46.17</v>
+        <v>1665.35</v>
       </c>
       <c r="G13">
-        <v>53.27</v>
+        <v>1705</v>
       </c>
       <c r="H13">
-        <v>45.23</v>
+        <v>1614.99</v>
       </c>
       <c r="I13">
-        <v>43.38</v>
+        <v>1603.67</v>
       </c>
       <c r="J13">
-        <v>41.63</v>
+        <v>1594.1</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1193,31 +1211,31 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C14" s="2">
-        <v>44560</v>
+        <v>44579</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>130</v>
       </c>
       <c r="E14">
-        <v>333.05</v>
+        <v>984</v>
       </c>
       <c r="F14">
-        <v>334.12</v>
+        <v>1002.35</v>
       </c>
       <c r="G14">
-        <v>334.99</v>
+        <v>1032.6300000000001</v>
       </c>
       <c r="H14">
-        <v>326.39</v>
+        <v>964.32</v>
       </c>
       <c r="I14">
-        <v>319.57</v>
+        <v>950.27</v>
       </c>
       <c r="J14">
-        <v>314.57</v>
+        <v>944.03</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1228,28 +1246,28 @@
         <v>11</v>
       </c>
       <c r="C15" s="2">
-        <v>44560</v>
+        <v>44575</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>3356.55</v>
+        <v>1290.0999999999999</v>
       </c>
       <c r="F15">
-        <v>3239.23</v>
+        <v>1227.22</v>
       </c>
       <c r="G15">
-        <v>3182.7</v>
+        <v>1226.97</v>
       </c>
       <c r="H15">
-        <v>3457.25</v>
+        <v>1328.8</v>
       </c>
       <c r="I15">
-        <v>3741.45</v>
+        <v>1338.38</v>
       </c>
       <c r="J15">
-        <v>4411.25</v>
+        <v>1464.38</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1257,31 +1275,31 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C16" s="2">
-        <v>44559</v>
+        <v>44572</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>3196.7</v>
+        <v>1524.55</v>
       </c>
       <c r="F16">
-        <v>3084.66</v>
+        <v>1547.43</v>
       </c>
       <c r="G16">
-        <v>3025.08</v>
+        <v>1573.33</v>
       </c>
       <c r="H16">
-        <v>3282.13</v>
+        <v>1494.06</v>
       </c>
       <c r="I16">
-        <v>3292.6</v>
+        <v>1489.34</v>
       </c>
       <c r="J16">
-        <v>3402.18</v>
+        <v>1464.22</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -1289,31 +1307,31 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C17" s="2">
-        <v>44559</v>
+        <v>44572</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E17">
-        <v>211</v>
+        <v>889.35</v>
       </c>
       <c r="F17">
-        <v>207.42</v>
+        <v>911.19</v>
       </c>
       <c r="G17">
-        <v>206.24</v>
+        <v>936.12</v>
       </c>
       <c r="H17">
-        <v>215.88</v>
+        <v>871.56</v>
       </c>
       <c r="I17">
-        <v>217.33</v>
+        <v>852.23</v>
       </c>
       <c r="J17">
-        <v>224.9</v>
+        <v>814.27</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -1324,28 +1342,28 @@
         <v>11</v>
       </c>
       <c r="C18" s="2">
-        <v>44552</v>
+        <v>44572</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E18">
-        <v>2299.25</v>
+        <v>1340.5</v>
       </c>
       <c r="F18">
-        <v>2168.3000000000002</v>
+        <v>1260.77</v>
       </c>
       <c r="G18">
-        <v>2123.6999999999998</v>
+        <v>1212.28</v>
       </c>
       <c r="H18">
-        <v>2353.15</v>
+        <v>1380.72</v>
       </c>
       <c r="I18">
-        <v>2368.23</v>
+        <v>1388.57</v>
       </c>
       <c r="J18">
-        <v>2630</v>
+        <v>1423.3</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -1356,28 +1374,28 @@
         <v>11</v>
       </c>
       <c r="C19" s="2">
-        <v>44552</v>
+        <v>44571</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E19">
-        <v>7196.35</v>
+        <v>1493.3</v>
       </c>
       <c r="F19">
-        <v>6779.22</v>
+        <v>1411.27</v>
       </c>
       <c r="G19">
-        <v>6729.5</v>
+        <v>1370.55</v>
       </c>
       <c r="H19">
-        <v>7412.24</v>
+        <v>1538.1</v>
       </c>
       <c r="I19">
-        <v>7452.32</v>
+        <v>1556.82</v>
       </c>
       <c r="J19">
-        <v>7773.63</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -1388,28 +1406,28 @@
         <v>11</v>
       </c>
       <c r="C20" s="2">
-        <v>44551</v>
+        <v>44568</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E20">
-        <v>1830</v>
+        <v>2466.4</v>
       </c>
       <c r="F20">
-        <v>1742.65</v>
+        <v>2416.34</v>
       </c>
       <c r="G20">
-        <v>1739.31</v>
+        <v>2396.91</v>
       </c>
       <c r="H20">
-        <v>1870.05</v>
+        <v>2540.39</v>
       </c>
       <c r="I20">
-        <v>1884.9</v>
+        <v>2648.1</v>
       </c>
       <c r="J20">
-        <v>2009.85</v>
+        <v>2738.9</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -1417,31 +1435,31 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C21" s="2">
-        <v>44550</v>
+        <v>44568</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E21">
-        <v>1558.9</v>
+        <v>886.3</v>
       </c>
       <c r="F21">
-        <v>1615.21</v>
+        <v>847.49</v>
       </c>
       <c r="G21">
-        <v>1676.08</v>
+        <v>842.71</v>
       </c>
       <c r="H21">
-        <v>1527.72</v>
+        <v>912.89</v>
       </c>
       <c r="I21">
-        <v>1445.38</v>
+        <v>927.72</v>
       </c>
       <c r="J21">
-        <v>1368.55</v>
+        <v>1025.22</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -1449,31 +1467,31 @@
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C22" s="2">
-        <v>44550</v>
+        <v>44567</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E22">
-        <v>1615</v>
+        <v>1925</v>
       </c>
       <c r="F22">
-        <v>1641.31</v>
+        <v>1949.25</v>
       </c>
       <c r="G22">
-        <v>1706.62</v>
+        <v>1975.92</v>
       </c>
       <c r="H22">
-        <v>1582.7</v>
+        <v>1886.5</v>
       </c>
       <c r="I22">
-        <v>1572.43</v>
+        <v>1880.65</v>
       </c>
       <c r="J22">
-        <v>1536.54</v>
+        <v>1865.71</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -1481,31 +1499,31 @@
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C23" s="2">
-        <v>44550</v>
+        <v>44566</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E23">
-        <v>796.35</v>
+        <v>1467</v>
       </c>
       <c r="F23">
-        <v>835.41</v>
+        <v>1398.63</v>
       </c>
       <c r="G23">
-        <v>859.65</v>
+        <v>1367.54</v>
       </c>
       <c r="H23">
-        <v>780.42</v>
+        <v>1511.01</v>
       </c>
       <c r="I23">
-        <v>737.87</v>
+        <v>1556.82</v>
       </c>
       <c r="J23">
-        <v>716.12</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -1513,31 +1531,31 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C24" s="2">
-        <v>44550</v>
+        <v>44566</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E24">
-        <v>25145.8</v>
+        <v>3884.95</v>
       </c>
       <c r="F24">
-        <v>26171.13</v>
+        <v>3725.44</v>
       </c>
       <c r="G24">
-        <v>27039.8</v>
+        <v>3596.4</v>
       </c>
       <c r="H24">
-        <v>24642.880000000001</v>
+        <v>4001.5</v>
       </c>
       <c r="I24">
-        <v>24260.7</v>
+        <v>4030.8</v>
       </c>
       <c r="J24">
-        <v>23339.919999999998</v>
+        <v>4239.3500000000004</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -1545,31 +1563,31 @@
         <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C25" s="2">
-        <v>44550</v>
+        <v>44565</v>
       </c>
       <c r="D25" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E25">
-        <v>449.6</v>
+        <v>19819.8</v>
       </c>
       <c r="F25">
-        <v>464</v>
+        <v>19382.259999999998</v>
       </c>
       <c r="G25">
-        <v>478.75</v>
+        <v>19309.849999999999</v>
       </c>
       <c r="H25">
-        <v>440.61</v>
+        <v>20367.8</v>
       </c>
       <c r="I25">
-        <v>429.13</v>
+        <v>20414.39</v>
       </c>
       <c r="J25">
-        <v>428.12</v>
+        <v>20588.5</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -1577,31 +1595,31 @@
         <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C26" s="2">
-        <v>44550</v>
+        <v>44561</v>
       </c>
       <c r="D26" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E26">
-        <v>177.5</v>
+        <v>46.15</v>
       </c>
       <c r="F26">
-        <v>184.95</v>
+        <v>46.17</v>
       </c>
       <c r="G26">
-        <v>188.87</v>
+        <v>53.27</v>
       </c>
       <c r="H26">
-        <v>173.95</v>
+        <v>45.23</v>
       </c>
       <c r="I26">
-        <v>167.37</v>
+        <v>43.38</v>
       </c>
       <c r="J26">
-        <v>159.03</v>
+        <v>41.63</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -1609,31 +1627,31 @@
         <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C27" s="2">
-        <v>44547</v>
+        <v>44560</v>
       </c>
       <c r="D27" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E27">
-        <v>5460</v>
+        <v>333.05</v>
       </c>
       <c r="F27">
-        <v>5360.21</v>
+        <v>334.12</v>
       </c>
       <c r="G27">
-        <v>5355.77</v>
+        <v>334.99</v>
       </c>
       <c r="H27">
-        <v>5623.8</v>
+        <v>326.39</v>
       </c>
       <c r="I27">
-        <v>5949.43</v>
+        <v>319.57</v>
       </c>
       <c r="J27">
-        <v>6208.35</v>
+        <v>314.57</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -1641,31 +1659,31 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C28" s="2">
-        <v>44547</v>
+        <v>44560</v>
       </c>
       <c r="D28" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E28">
-        <v>7293.25</v>
+        <v>3356.55</v>
       </c>
       <c r="F28">
-        <v>7399.49</v>
+        <v>3239.23</v>
       </c>
       <c r="G28">
-        <v>7475.5</v>
+        <v>3182.7</v>
       </c>
       <c r="H28">
-        <v>7147.39</v>
+        <v>3457.25</v>
       </c>
       <c r="I28">
-        <v>7139.25</v>
+        <v>3741.45</v>
       </c>
       <c r="J28">
-        <v>6583</v>
+        <v>4411.25</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -1676,28 +1694,28 @@
         <v>11</v>
       </c>
       <c r="C29" s="2">
-        <v>44547</v>
+        <v>44559</v>
       </c>
       <c r="D29" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E29">
-        <v>4646.95</v>
+        <v>3196.7</v>
       </c>
       <c r="F29">
-        <v>4605.92</v>
+        <v>3084.66</v>
       </c>
       <c r="G29">
-        <v>4563.1099999999997</v>
+        <v>3025.08</v>
       </c>
       <c r="H29">
-        <v>4786.3599999999997</v>
+        <v>3282.13</v>
       </c>
       <c r="I29">
-        <v>4851.3500000000004</v>
+        <v>3292.6</v>
       </c>
       <c r="J29">
-        <v>5374.15</v>
+        <v>3402.18</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -1705,31 +1723,31 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C30" s="2">
-        <v>44547</v>
+        <v>44559</v>
       </c>
       <c r="D30" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E30">
-        <v>216.85</v>
+        <v>211</v>
       </c>
       <c r="F30">
-        <v>222.83</v>
+        <v>207.42</v>
       </c>
       <c r="G30">
-        <v>224.8</v>
+        <v>206.24</v>
       </c>
       <c r="H30">
-        <v>212.51</v>
+        <v>215.88</v>
       </c>
       <c r="I30">
-        <v>210.25</v>
+        <v>217.33</v>
       </c>
       <c r="J30">
-        <v>205.45</v>
+        <v>224.9</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -1737,31 +1755,31 @@
         <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C31" s="2">
-        <v>44547</v>
+        <v>44552</v>
       </c>
       <c r="D31" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E31">
-        <v>130.69999999999999</v>
+        <v>2299.25</v>
       </c>
       <c r="F31">
-        <v>134.08000000000001</v>
+        <v>2168.3000000000002</v>
       </c>
       <c r="G31">
-        <v>138.78</v>
+        <v>2123.6999999999998</v>
       </c>
       <c r="H31">
-        <v>128.09</v>
+        <v>2353.15</v>
       </c>
       <c r="I31">
-        <v>121.92</v>
+        <v>2368.23</v>
       </c>
       <c r="J31">
-        <v>115.6</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -1769,31 +1787,31 @@
         <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C32" s="2">
-        <v>44547</v>
+        <v>44552</v>
       </c>
       <c r="D32" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E32">
-        <v>755.9</v>
+        <v>7196.35</v>
       </c>
       <c r="F32">
-        <v>781.8</v>
+        <v>6779.22</v>
       </c>
       <c r="G32">
-        <v>782.03</v>
+        <v>6729.5</v>
       </c>
       <c r="H32">
-        <v>740.78</v>
+        <v>7412.24</v>
       </c>
       <c r="I32">
-        <v>691.8</v>
+        <v>7452.32</v>
       </c>
       <c r="J32">
-        <v>601.79999999999995</v>
+        <v>7773.63</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -1801,31 +1819,31 @@
         <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C33" s="2">
-        <v>44547</v>
+        <v>44551</v>
       </c>
       <c r="D33" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E33">
-        <v>566.29999999999995</v>
+        <v>1830</v>
       </c>
       <c r="F33">
-        <v>573.6</v>
+        <v>1742.65</v>
       </c>
       <c r="G33">
-        <v>595.69000000000005</v>
+        <v>1739.31</v>
       </c>
       <c r="H33">
-        <v>554.97</v>
+        <v>1870.05</v>
       </c>
       <c r="I33">
-        <v>550.67999999999995</v>
+        <v>1884.9</v>
       </c>
       <c r="J33">
-        <v>530.98</v>
+        <v>2009.85</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -1833,31 +1851,31 @@
         <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C34" s="2">
-        <v>44546</v>
+        <v>44550</v>
       </c>
       <c r="D34" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E34">
-        <v>2467</v>
+        <v>1558.9</v>
       </c>
       <c r="F34">
-        <v>2519.6799999999998</v>
+        <v>1615.21</v>
       </c>
       <c r="G34">
-        <v>2552.7199999999998</v>
+        <v>1676.08</v>
       </c>
       <c r="H34">
-        <v>2417.66</v>
+        <v>1527.72</v>
       </c>
       <c r="I34">
-        <v>2320.63</v>
+        <v>1445.38</v>
       </c>
       <c r="J34">
-        <v>2256.3000000000002</v>
+        <v>1368.55</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -1865,31 +1883,31 @@
         <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C35" s="2">
-        <v>44546</v>
+        <v>44550</v>
       </c>
       <c r="D35" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E35">
-        <v>129.69999999999999</v>
+        <v>1615</v>
       </c>
       <c r="F35">
-        <v>134.09</v>
+        <v>1641.31</v>
       </c>
       <c r="G35">
-        <v>137.85</v>
+        <v>1706.62</v>
       </c>
       <c r="H35">
-        <v>127.11</v>
+        <v>1582.7</v>
       </c>
       <c r="I35">
-        <v>120.9</v>
+        <v>1572.43</v>
       </c>
       <c r="J35">
-        <v>116.45</v>
+        <v>1536.54</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -1897,31 +1915,31 @@
         <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C36" s="2">
-        <v>44546</v>
+        <v>44550</v>
       </c>
       <c r="D36" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E36">
-        <v>1770.9</v>
+        <v>796.35</v>
       </c>
       <c r="F36">
-        <v>1734.02</v>
+        <v>835.41</v>
       </c>
       <c r="G36">
-        <v>1731.49</v>
+        <v>859.65</v>
       </c>
       <c r="H36">
-        <v>1824.03</v>
+        <v>780.42</v>
       </c>
       <c r="I36">
-        <v>1830.7</v>
+        <v>737.87</v>
       </c>
       <c r="J36">
-        <v>1870.05</v>
+        <v>716.12</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -1929,31 +1947,31 @@
         <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C37" s="2">
-        <v>44544</v>
+        <v>44550</v>
       </c>
       <c r="D37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E37">
-        <v>17179</v>
+        <v>25145.8</v>
       </c>
       <c r="F37">
-        <v>17340.669999999998</v>
+        <v>26171.13</v>
       </c>
       <c r="G37">
-        <v>17423.900000000001</v>
+        <v>27039.8</v>
       </c>
       <c r="H37">
-        <v>16835.419999999998</v>
+        <v>24642.880000000001</v>
       </c>
       <c r="I37">
-        <v>16745.22</v>
+        <v>24260.7</v>
       </c>
       <c r="J37">
-        <v>16170.33</v>
+        <v>23339.919999999998</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -1961,31 +1979,31 @@
         <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C38" s="2">
-        <v>44544</v>
+        <v>44550</v>
       </c>
       <c r="D38" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E38">
-        <v>210.1</v>
+        <v>449.6</v>
       </c>
       <c r="F38">
-        <v>202.21</v>
+        <v>464</v>
       </c>
       <c r="G38">
-        <v>195.13</v>
+        <v>478.75</v>
       </c>
       <c r="H38">
-        <v>216.4</v>
+        <v>440.61</v>
       </c>
       <c r="I38">
-        <v>217.4</v>
+        <v>429.13</v>
       </c>
       <c r="J38">
-        <v>222.72</v>
+        <v>428.12</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -1993,31 +2011,31 @@
         <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C39" s="2">
-        <v>44544</v>
+        <v>44550</v>
       </c>
       <c r="D39" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="E39">
-        <v>3132.1</v>
+        <v>177.5</v>
       </c>
       <c r="F39">
-        <v>3018.75</v>
+        <v>184.95</v>
       </c>
       <c r="G39">
-        <v>2970.2</v>
+        <v>188.87</v>
       </c>
       <c r="H39">
-        <v>3226.06</v>
+        <v>173.95</v>
       </c>
       <c r="I39">
-        <v>3282.13</v>
+        <v>167.37</v>
       </c>
       <c r="J39">
-        <v>3402.18</v>
+        <v>159.03</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -2025,31 +2043,31 @@
         <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C40" s="2">
-        <v>44543</v>
+        <v>44547</v>
       </c>
       <c r="D40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E40">
-        <v>73720</v>
+        <v>5460</v>
       </c>
       <c r="F40">
-        <v>75357.8</v>
+        <v>5360.21</v>
       </c>
       <c r="G40">
-        <v>76056.88</v>
+        <v>5355.77</v>
       </c>
       <c r="H40">
-        <v>72245.600000000006</v>
+        <v>5623.8</v>
       </c>
       <c r="I40">
-        <v>71623.92</v>
+        <v>5949.43</v>
       </c>
       <c r="J40">
-        <v>70120.479999999996</v>
+        <v>6208.35</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -2057,31 +2075,31 @@
         <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C41" s="2">
-        <v>44543</v>
+        <v>44547</v>
       </c>
       <c r="D41" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="E41">
-        <v>2411.8000000000002</v>
+        <v>7293.25</v>
       </c>
       <c r="F41">
-        <v>2436.71</v>
+        <v>7399.49</v>
       </c>
       <c r="G41">
-        <v>2438.87</v>
+        <v>7475.5</v>
       </c>
       <c r="H41">
-        <v>2363.56</v>
+        <v>7147.39</v>
       </c>
       <c r="I41">
-        <v>2275.5300000000002</v>
+        <v>7139.25</v>
       </c>
       <c r="J41">
-        <v>2227.34</v>
+        <v>6583</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -2089,31 +2107,31 @@
         <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C42" s="2">
-        <v>44543</v>
+        <v>44547</v>
       </c>
       <c r="D42" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E42">
-        <v>1473.15</v>
+        <v>4646.95</v>
       </c>
       <c r="F42">
-        <v>1481.71</v>
+        <v>4605.92</v>
       </c>
       <c r="G42">
-        <v>1497.22</v>
+        <v>4563.1099999999997</v>
       </c>
       <c r="H42">
-        <v>1443.69</v>
+        <v>4786.3599999999997</v>
       </c>
       <c r="I42">
-        <v>1407.59</v>
+        <v>4851.3500000000004</v>
       </c>
       <c r="J42">
-        <v>1397.48</v>
+        <v>5374.15</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -2121,31 +2139,31 @@
         <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C43" s="2">
-        <v>44543</v>
+        <v>44547</v>
       </c>
       <c r="D43" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E43">
-        <v>2523.1</v>
+        <v>216.85</v>
       </c>
       <c r="F43">
-        <v>2545.17</v>
+        <v>222.83</v>
       </c>
       <c r="G43">
-        <v>2560.54</v>
+        <v>224.8</v>
       </c>
       <c r="H43">
-        <v>2472.64</v>
+        <v>212.51</v>
       </c>
       <c r="I43">
-        <v>2391.33</v>
+        <v>210.25</v>
       </c>
       <c r="J43">
-        <v>2331.35</v>
+        <v>205.45</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -2153,31 +2171,31 @@
         <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C44" s="2">
-        <v>44540</v>
+        <v>44547</v>
       </c>
       <c r="D44" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E44">
-        <v>493.8</v>
+        <v>130.69999999999999</v>
       </c>
       <c r="F44">
-        <v>490.43</v>
+        <v>134.08000000000001</v>
       </c>
       <c r="G44">
-        <v>485.79</v>
+        <v>138.78</v>
       </c>
       <c r="H44">
-        <v>508.61</v>
+        <v>128.09</v>
       </c>
       <c r="I44">
-        <v>517.13</v>
+        <v>121.92</v>
       </c>
       <c r="J44">
-        <v>573.72</v>
+        <v>115.6</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
@@ -2185,31 +2203,31 @@
         <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C45" s="2">
-        <v>44540</v>
+        <v>44547</v>
       </c>
       <c r="D45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E45">
-        <v>217.25</v>
+        <v>755.9</v>
       </c>
       <c r="F45">
-        <v>212.85</v>
+        <v>781.8</v>
       </c>
       <c r="G45">
-        <v>204.9</v>
+        <v>782.03</v>
       </c>
       <c r="H45">
-        <v>223.38</v>
+        <v>740.78</v>
       </c>
       <c r="I45">
-        <v>223.77</v>
+        <v>691.8</v>
       </c>
       <c r="J45">
-        <v>232.92</v>
+        <v>601.79999999999995</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
@@ -2217,31 +2235,31 @@
         <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C46" s="2">
-        <v>44540</v>
+        <v>44547</v>
       </c>
       <c r="D46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E46">
-        <v>2396.85</v>
+        <v>566.29999999999995</v>
       </c>
       <c r="F46">
-        <v>2247.5500000000002</v>
+        <v>573.6</v>
       </c>
       <c r="G46">
-        <v>2243.5700000000002</v>
+        <v>595.69000000000005</v>
       </c>
       <c r="H46">
-        <v>2468.7600000000002</v>
+        <v>554.97</v>
       </c>
       <c r="I46">
-        <v>2623.3</v>
+        <v>550.67999999999995</v>
       </c>
       <c r="J46">
-        <v>3042.3</v>
+        <v>530.98</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -2249,31 +2267,31 @@
         <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C47" s="2">
-        <v>44539</v>
+        <v>44546</v>
       </c>
       <c r="D47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E47">
-        <v>1438.35</v>
+        <v>2467</v>
       </c>
       <c r="F47">
-        <v>1467.78</v>
+        <v>2519.6799999999998</v>
       </c>
       <c r="G47">
-        <v>1468.62</v>
+        <v>2552.7199999999998</v>
       </c>
       <c r="H47">
-        <v>1409.58</v>
+        <v>2417.66</v>
       </c>
       <c r="I47">
-        <v>1380.57</v>
+        <v>2320.63</v>
       </c>
       <c r="J47">
-        <v>1353.67</v>
+        <v>2256.3000000000002</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -2281,31 +2299,31 @@
         <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C48" s="2">
-        <v>44539</v>
+        <v>44546</v>
       </c>
       <c r="D48" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="E48">
-        <v>2369.65</v>
+        <v>129.69999999999999</v>
       </c>
       <c r="F48">
-        <v>2392.6799999999998</v>
+        <v>134.09</v>
       </c>
       <c r="G48">
-        <v>2393.1999999999998</v>
+        <v>137.85</v>
       </c>
       <c r="H48">
-        <v>2322.2600000000002</v>
+        <v>127.11</v>
       </c>
       <c r="I48">
-        <v>2213.6999999999998</v>
+        <v>120.9</v>
       </c>
       <c r="J48">
-        <v>2139.4499999999998</v>
+        <v>116.45</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -2316,28 +2334,28 @@
         <v>11</v>
       </c>
       <c r="C49" s="2">
-        <v>44537</v>
+        <v>44546</v>
       </c>
       <c r="D49" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="E49">
-        <v>1396.95</v>
+        <v>1770.9</v>
       </c>
       <c r="F49">
-        <v>1368.62</v>
+        <v>1734.02</v>
       </c>
       <c r="G49">
-        <v>1359.7</v>
+        <v>1731.49</v>
       </c>
       <c r="H49">
-        <v>1436.27</v>
+        <v>1824.03</v>
       </c>
       <c r="I49">
-        <v>1438.86</v>
+        <v>1830.7</v>
       </c>
       <c r="J49">
-        <v>1474.22</v>
+        <v>1870.05</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -2345,31 +2363,31 @@
         <v>10</v>
       </c>
       <c r="B50" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C50" s="2">
-        <v>44537</v>
+        <v>44544</v>
       </c>
       <c r="D50" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="E50">
-        <v>343.85</v>
+        <v>17179</v>
       </c>
       <c r="F50">
-        <v>336.81</v>
+        <v>17340.669999999998</v>
       </c>
       <c r="G50">
-        <v>322.44</v>
+        <v>17423.900000000001</v>
       </c>
       <c r="H50">
-        <v>354.17</v>
+        <v>16835.419999999998</v>
       </c>
       <c r="I50">
-        <v>377.93</v>
+        <v>16745.22</v>
       </c>
       <c r="J50">
-        <v>397.48</v>
+        <v>16170.33</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -2380,28 +2398,28 @@
         <v>11</v>
       </c>
       <c r="C51" s="2">
-        <v>44532</v>
+        <v>44544</v>
       </c>
       <c r="D51" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="E51">
-        <v>563</v>
+        <v>210.1</v>
       </c>
       <c r="F51">
-        <v>537.13</v>
+        <v>202.21</v>
       </c>
       <c r="G51">
-        <v>518.1</v>
+        <v>195.13</v>
       </c>
       <c r="H51">
-        <v>576.47</v>
+        <v>216.4</v>
       </c>
       <c r="I51">
-        <v>579.89</v>
+        <v>217.4</v>
       </c>
       <c r="J51">
-        <v>589.1</v>
+        <v>222.72</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -2412,28 +2430,28 @@
         <v>11</v>
       </c>
       <c r="C52" s="2">
-        <v>44531</v>
+        <v>44544</v>
       </c>
       <c r="D52" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E52">
-        <v>2083</v>
+        <v>3132.1</v>
       </c>
       <c r="F52">
-        <v>1996.36</v>
+        <v>3018.75</v>
       </c>
       <c r="G52">
-        <v>1619.92</v>
+        <v>2970.2</v>
       </c>
       <c r="H52">
-        <v>2127.9</v>
+        <v>3226.06</v>
       </c>
       <c r="I52">
-        <v>2145.4899999999998</v>
+        <v>3282.13</v>
       </c>
       <c r="J52">
-        <v>2179.5</v>
+        <v>3402.18</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -2441,28 +2459,31 @@
         <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C53" s="2">
-        <v>44530</v>
+        <v>44543</v>
       </c>
       <c r="D53" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E53">
-        <v>3261.7</v>
+        <v>73720</v>
       </c>
       <c r="F53">
-        <v>3106.05</v>
+        <v>75357.8</v>
       </c>
       <c r="G53">
-        <v>2961.96</v>
+        <v>76056.88</v>
       </c>
       <c r="H53">
-        <v>3359.55</v>
+        <v>72245.600000000006</v>
       </c>
       <c r="I53">
-        <v>3685.62</v>
+        <v>71623.92</v>
+      </c>
+      <c r="J53">
+        <v>70120.479999999996</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -2470,31 +2491,31 @@
         <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C54" s="2">
-        <v>44530</v>
+        <v>44543</v>
       </c>
       <c r="D54" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E54">
-        <v>4119.95</v>
+        <v>2411.8000000000002</v>
       </c>
       <c r="F54">
-        <v>4118.8599999999997</v>
+        <v>2436.71</v>
       </c>
       <c r="G54">
-        <v>3953.01</v>
+        <v>2438.87</v>
       </c>
       <c r="H54">
-        <v>4243.55</v>
+        <v>2363.56</v>
       </c>
       <c r="I54">
-        <v>4342.47</v>
+        <v>2275.5300000000002</v>
       </c>
       <c r="J54">
-        <v>4551.8500000000004</v>
+        <v>2227.34</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -2502,31 +2523,31 @@
         <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C55" s="2">
-        <v>44529</v>
+        <v>44543</v>
       </c>
       <c r="D55" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E55">
-        <v>2717.3</v>
+        <v>1473.15</v>
       </c>
       <c r="F55">
-        <v>2735.84</v>
+        <v>1481.71</v>
       </c>
       <c r="G55">
-        <v>2828.77</v>
+        <v>1497.22</v>
       </c>
       <c r="H55">
-        <v>2662.95</v>
+        <v>1443.69</v>
       </c>
       <c r="I55">
-        <v>2642.47</v>
+        <v>1407.59</v>
       </c>
       <c r="J55">
-        <v>2574.37</v>
+        <v>1397.48</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -2534,31 +2555,31 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C56" s="2">
-        <v>44529</v>
+        <v>44543</v>
       </c>
       <c r="D56" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E56">
-        <v>978.25</v>
+        <v>2523.1</v>
       </c>
       <c r="F56">
-        <v>931</v>
+        <v>2545.17</v>
       </c>
       <c r="G56">
-        <v>926.82</v>
+        <v>2560.54</v>
       </c>
       <c r="H56">
-        <v>1007.6</v>
+        <v>2472.64</v>
       </c>
       <c r="I56">
-        <v>1040.78</v>
+        <v>2391.33</v>
       </c>
       <c r="J56">
-        <v>1152.48</v>
+        <v>2331.35</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -2566,31 +2587,31 @@
         <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C57" s="2">
-        <v>44524</v>
+        <v>44540</v>
       </c>
       <c r="D57" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E57">
-        <v>19246.2</v>
+        <v>493.8</v>
       </c>
       <c r="F57">
-        <v>19545.009999999998</v>
+        <v>490.43</v>
       </c>
       <c r="G57">
-        <v>19956.689999999999</v>
+        <v>485.79</v>
       </c>
       <c r="H57">
-        <v>18861.28</v>
+        <v>508.61</v>
       </c>
       <c r="I57">
-        <v>18521.45</v>
+        <v>517.13</v>
       </c>
       <c r="J57">
-        <v>17757.47</v>
+        <v>573.72</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -2601,28 +2622,28 @@
         <v>11</v>
       </c>
       <c r="C58" s="2">
-        <v>44524</v>
+        <v>44540</v>
       </c>
       <c r="D58" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="E58">
-        <v>556.54999999999995</v>
+        <v>217.25</v>
       </c>
       <c r="F58">
-        <v>523.66</v>
+        <v>212.85</v>
       </c>
       <c r="G58">
-        <v>510.71</v>
+        <v>204.9</v>
       </c>
       <c r="H58">
-        <v>571.67999999999995</v>
+        <v>223.38</v>
       </c>
       <c r="I58">
-        <v>573.25</v>
+        <v>223.77</v>
       </c>
       <c r="J58">
-        <v>634.33000000000004</v>
+        <v>232.92</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -2630,31 +2651,31 @@
         <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C59" s="2">
-        <v>44523</v>
+        <v>44540</v>
       </c>
       <c r="D59" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="E59">
-        <v>3365.55</v>
+        <v>2396.85</v>
       </c>
       <c r="F59">
-        <v>3531.32</v>
+        <v>2247.5500000000002</v>
       </c>
       <c r="G59">
-        <v>3583.32</v>
+        <v>2243.5700000000002</v>
       </c>
       <c r="H59">
-        <v>3298.24</v>
+        <v>2468.7600000000002</v>
       </c>
       <c r="I59">
-        <v>3262.63</v>
+        <v>2623.3</v>
       </c>
       <c r="J59">
-        <v>3223.52</v>
+        <v>3042.3</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -2662,31 +2683,31 @@
         <v>10</v>
       </c>
       <c r="B60" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C60" s="2">
-        <v>44522</v>
+        <v>44539</v>
       </c>
       <c r="D60" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E60">
-        <v>2525.85</v>
+        <v>1438.35</v>
       </c>
       <c r="F60">
-        <v>2622.69</v>
+        <v>1467.78</v>
       </c>
       <c r="G60">
-        <v>2653.44</v>
+        <v>1468.62</v>
       </c>
       <c r="H60">
-        <v>2475.33</v>
+        <v>1409.58</v>
       </c>
       <c r="I60">
-        <v>2317.65</v>
+        <v>1380.57</v>
       </c>
       <c r="J60">
-        <v>2234.0700000000002</v>
+        <v>1353.67</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -2694,31 +2715,31 @@
         <v>10</v>
       </c>
       <c r="B61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C61" s="2">
-        <v>44522</v>
+        <v>44539</v>
       </c>
       <c r="D61" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E61">
-        <v>75820.899999999994</v>
+        <v>2369.65</v>
       </c>
       <c r="F61">
-        <v>78495.789999999994</v>
+        <v>2392.6799999999998</v>
       </c>
       <c r="G61">
-        <v>80044.039999999994</v>
+        <v>2393.1999999999998</v>
       </c>
       <c r="H61">
-        <v>74304.479999999996</v>
+        <v>2322.2600000000002</v>
       </c>
       <c r="I61">
-        <v>73455.429999999993</v>
+        <v>2213.6999999999998</v>
       </c>
       <c r="J61">
-        <v>71529.070000000007</v>
+        <v>2139.4499999999998</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -2729,28 +2750,28 @@
         <v>11</v>
       </c>
       <c r="C62" s="2">
-        <v>44522</v>
+        <v>44537</v>
       </c>
       <c r="D62" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="E62">
-        <v>196.1</v>
+        <v>1396.95</v>
       </c>
       <c r="F62">
-        <v>188.03</v>
+        <v>1368.62</v>
       </c>
       <c r="G62">
-        <v>186.78</v>
+        <v>1359.7</v>
       </c>
       <c r="H62">
-        <v>201.98</v>
+        <v>1436.27</v>
       </c>
       <c r="I62">
-        <v>202.9</v>
+        <v>1438.86</v>
       </c>
       <c r="J62">
-        <v>220.75</v>
+        <v>1474.22</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -2758,31 +2779,31 @@
         <v>10</v>
       </c>
       <c r="B63" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C63" s="2">
-        <v>44518</v>
+        <v>44537</v>
       </c>
       <c r="D63" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="E63">
-        <v>899.1</v>
+        <v>343.85</v>
       </c>
       <c r="F63">
-        <v>928.34</v>
+        <v>336.81</v>
       </c>
       <c r="G63">
-        <v>944.62</v>
+        <v>322.44</v>
       </c>
       <c r="H63">
-        <v>881.12</v>
+        <v>354.17</v>
       </c>
       <c r="I63">
-        <v>873.97</v>
+        <v>377.93</v>
       </c>
       <c r="J63">
-        <v>849.5</v>
+        <v>397.48</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -2790,31 +2811,31 @@
         <v>10</v>
       </c>
       <c r="B64" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C64" s="2">
-        <v>44518</v>
+        <v>44532</v>
       </c>
       <c r="D64" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E64">
-        <v>3569.95</v>
+        <v>563</v>
       </c>
       <c r="F64">
-        <v>3635.6</v>
+        <v>537.13</v>
       </c>
       <c r="G64">
-        <v>3670.74</v>
+        <v>518.1</v>
       </c>
       <c r="H64">
-        <v>3498.55</v>
+        <v>576.47</v>
       </c>
       <c r="I64">
-        <v>3447.15</v>
+        <v>579.89</v>
       </c>
       <c r="J64">
-        <v>3370.95</v>
+        <v>589.1</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
@@ -2822,31 +2843,31 @@
         <v>10</v>
       </c>
       <c r="B65" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C65" s="2">
-        <v>44518</v>
+        <v>44531</v>
       </c>
       <c r="D65" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="E65">
-        <v>652.4</v>
+        <v>2083</v>
       </c>
       <c r="F65">
-        <v>676.12</v>
+        <v>1996.36</v>
       </c>
       <c r="G65">
-        <v>684.64</v>
+        <v>1619.92</v>
       </c>
       <c r="H65">
-        <v>639.35</v>
+        <v>2127.9</v>
       </c>
       <c r="I65">
-        <v>618.73</v>
+        <v>2145.4899999999998</v>
       </c>
       <c r="J65">
-        <v>600.54999999999995</v>
+        <v>2179.5</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
@@ -2854,31 +2875,28 @@
         <v>10</v>
       </c>
       <c r="B66" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C66" s="2">
-        <v>44518</v>
+        <v>44530</v>
       </c>
       <c r="D66" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="E66">
-        <v>1036.95</v>
+        <v>3261.7</v>
       </c>
       <c r="F66">
-        <v>1053.01</v>
+        <v>3106.05</v>
       </c>
       <c r="G66">
-        <v>1086.1400000000001</v>
+        <v>2961.96</v>
       </c>
       <c r="H66">
-        <v>1016.21</v>
+        <v>3359.55</v>
       </c>
       <c r="I66">
-        <v>999.2</v>
-      </c>
-      <c r="J66">
-        <v>943.3</v>
+        <v>3685.62</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
@@ -2886,31 +2904,31 @@
         <v>10</v>
       </c>
       <c r="B67" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C67" s="2">
-        <v>44518</v>
+        <v>44530</v>
       </c>
       <c r="D67" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E67">
-        <v>2257.5</v>
+        <v>4119.95</v>
       </c>
       <c r="F67">
-        <v>2336.2399999999998</v>
+        <v>4118.8599999999997</v>
       </c>
       <c r="G67">
-        <v>2478.66</v>
+        <v>3953.01</v>
       </c>
       <c r="H67">
-        <v>2212.35</v>
+        <v>4243.55</v>
       </c>
       <c r="I67">
-        <v>1936</v>
+        <v>4342.47</v>
       </c>
       <c r="J67">
-        <v>1788.83</v>
+        <v>4551.8500000000004</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
@@ -2918,31 +2936,31 @@
         <v>10</v>
       </c>
       <c r="B68" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C68" s="2">
-        <v>44518</v>
+        <v>44529</v>
       </c>
       <c r="D68" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="E68">
-        <v>2241</v>
+        <v>2717.3</v>
       </c>
       <c r="F68">
-        <v>2204.42</v>
+        <v>2735.84</v>
       </c>
       <c r="G68">
-        <v>2150.1</v>
+        <v>2828.77</v>
       </c>
       <c r="H68">
-        <v>2308.23</v>
+        <v>2662.95</v>
       </c>
       <c r="I68">
-        <v>2327.65</v>
+        <v>2642.47</v>
       </c>
       <c r="J68">
-        <v>2415.1999999999998</v>
+        <v>2574.37</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
@@ -2950,31 +2968,31 @@
         <v>10</v>
       </c>
       <c r="B69" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C69" s="2">
-        <v>44517</v>
+        <v>44529</v>
       </c>
       <c r="D69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E69">
-        <v>665.1</v>
+        <v>978.25</v>
       </c>
       <c r="F69">
-        <v>690.11</v>
+        <v>931</v>
       </c>
       <c r="G69">
-        <v>714.34</v>
+        <v>926.82</v>
       </c>
       <c r="H69">
-        <v>651.79999999999995</v>
+        <v>1007.6</v>
       </c>
       <c r="I69">
-        <v>640.48</v>
+        <v>1040.78</v>
       </c>
       <c r="J69">
-        <v>624.17999999999995</v>
+        <v>1152.48</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
@@ -2982,31 +3000,31 @@
         <v>10</v>
       </c>
       <c r="B70" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C70" s="2">
-        <v>44516</v>
+        <v>44524</v>
       </c>
       <c r="D70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E70">
-        <v>295.64999999999998</v>
+        <v>19246.2</v>
       </c>
       <c r="F70">
-        <v>288.73</v>
+        <v>19545.009999999998</v>
       </c>
       <c r="G70">
-        <v>284.8</v>
+        <v>19956.689999999999</v>
       </c>
       <c r="H70">
-        <v>304.52</v>
+        <v>18861.28</v>
       </c>
       <c r="I70">
-        <v>310.98</v>
+        <v>18521.45</v>
       </c>
       <c r="J70">
-        <v>350.47</v>
+        <v>17757.47</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
@@ -3017,28 +3035,28 @@
         <v>11</v>
       </c>
       <c r="C71" s="2">
-        <v>44516</v>
+        <v>44524</v>
       </c>
       <c r="D71" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E71">
-        <v>6554.85</v>
+        <v>556.54999999999995</v>
       </c>
       <c r="F71">
-        <v>6494.46</v>
+        <v>523.66</v>
       </c>
       <c r="G71">
-        <v>6294.15</v>
+        <v>510.71</v>
       </c>
       <c r="H71">
-        <v>6751.5</v>
+        <v>571.67999999999995</v>
       </c>
       <c r="I71">
-        <v>6770.38</v>
+        <v>573.25</v>
       </c>
       <c r="J71">
-        <v>7070.18</v>
+        <v>634.33000000000004</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
@@ -3046,31 +3064,31 @@
         <v>10</v>
       </c>
       <c r="B72" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C72" s="2">
-        <v>44516</v>
+        <v>44523</v>
       </c>
       <c r="D72" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E72">
-        <v>18349.2</v>
+        <v>3365.55</v>
       </c>
       <c r="F72">
-        <v>18142.73</v>
+        <v>3531.32</v>
       </c>
       <c r="G72">
-        <v>17748.240000000002</v>
+        <v>3583.32</v>
       </c>
       <c r="H72">
-        <v>18899.68</v>
+        <v>3298.24</v>
       </c>
       <c r="I72">
-        <v>19080.77</v>
+        <v>3262.63</v>
       </c>
       <c r="J72">
-        <v>19710.580000000002</v>
+        <v>3223.52</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
@@ -3078,31 +3096,31 @@
         <v>10</v>
       </c>
       <c r="B73" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C73" s="2">
-        <v>44516</v>
+        <v>44522</v>
       </c>
       <c r="D73" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="E73">
-        <v>332.45</v>
+        <v>2525.85</v>
       </c>
       <c r="F73">
-        <v>324.3</v>
+        <v>2622.69</v>
       </c>
       <c r="G73">
-        <v>311.52999999999997</v>
+        <v>2653.44</v>
       </c>
       <c r="H73">
-        <v>342.42</v>
+        <v>2475.33</v>
       </c>
       <c r="I73">
-        <v>365.55</v>
+        <v>2317.65</v>
       </c>
       <c r="J73">
-        <v>396.32</v>
+        <v>2234.0700000000002</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
@@ -3110,31 +3128,31 @@
         <v>10</v>
       </c>
       <c r="B74" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C74" s="2">
-        <v>44515</v>
+        <v>44522</v>
       </c>
       <c r="D74" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="E74">
-        <v>323.5</v>
+        <v>75820.899999999994</v>
       </c>
       <c r="F74">
-        <v>312.17</v>
+        <v>78495.789999999994</v>
       </c>
       <c r="G74">
-        <v>285.49</v>
+        <v>80044.039999999994</v>
       </c>
       <c r="H74">
-        <v>333.2</v>
+        <v>74304.479999999996</v>
       </c>
       <c r="I74">
-        <v>340.43</v>
+        <v>73455.429999999993</v>
       </c>
       <c r="J74">
-        <v>353.58</v>
+        <v>71529.070000000007</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
@@ -3145,28 +3163,28 @@
         <v>11</v>
       </c>
       <c r="C75" s="2">
-        <v>44515</v>
+        <v>44522</v>
       </c>
       <c r="D75" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="E75">
-        <v>147.75</v>
+        <v>196.1</v>
       </c>
       <c r="F75">
-        <v>143.44</v>
+        <v>188.03</v>
       </c>
       <c r="G75">
-        <v>135</v>
+        <v>186.78</v>
       </c>
       <c r="H75">
-        <v>151.72999999999999</v>
+        <v>201.98</v>
       </c>
       <c r="I75">
-        <v>152.18</v>
+        <v>202.9</v>
       </c>
       <c r="J75">
-        <v>156.4</v>
+        <v>220.75</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
@@ -3174,31 +3192,31 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C76" s="2">
-        <v>44515</v>
+        <v>44518</v>
       </c>
       <c r="D76" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E76">
-        <v>1589.5</v>
+        <v>899.1</v>
       </c>
       <c r="F76">
-        <v>1533.2</v>
+        <v>928.34</v>
       </c>
       <c r="G76">
-        <v>1473.57</v>
+        <v>944.62</v>
       </c>
       <c r="H76">
-        <v>1637.18</v>
+        <v>881.12</v>
       </c>
       <c r="I76">
-        <v>1688.42</v>
+        <v>873.97</v>
       </c>
       <c r="J76">
-        <v>1758.62</v>
+        <v>849.5</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
@@ -3206,31 +3224,31 @@
         <v>10</v>
       </c>
       <c r="B77" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C77" s="2">
-        <v>44512</v>
+        <v>44518</v>
       </c>
       <c r="D77" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E77">
-        <v>766.9</v>
+        <v>3569.95</v>
       </c>
       <c r="F77">
-        <v>773.17</v>
+        <v>3635.6</v>
       </c>
       <c r="G77">
-        <v>774.91</v>
+        <v>3670.74</v>
       </c>
       <c r="H77">
-        <v>751.56</v>
+        <v>3498.55</v>
       </c>
       <c r="I77">
-        <v>742.23</v>
+        <v>3447.15</v>
       </c>
       <c r="J77">
-        <v>716.97</v>
+        <v>3370.95</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
@@ -3238,28 +3256,31 @@
         <v>10</v>
       </c>
       <c r="B78" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C78" s="2">
-        <v>44512</v>
+        <v>44518</v>
       </c>
       <c r="D78" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E78">
-        <v>738.8</v>
+        <v>652.4</v>
       </c>
       <c r="F78">
-        <v>703.2</v>
+        <v>676.12</v>
       </c>
       <c r="G78">
-        <v>698.86</v>
+        <v>684.64</v>
       </c>
       <c r="H78">
-        <v>760.96</v>
+        <v>639.35</v>
       </c>
       <c r="I78">
-        <v>783.22</v>
+        <v>618.73</v>
+      </c>
+      <c r="J78">
+        <v>600.54999999999995</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
@@ -3267,31 +3288,31 @@
         <v>10</v>
       </c>
       <c r="B79" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C79" s="2">
-        <v>44512</v>
+        <v>44518</v>
       </c>
       <c r="D79" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="E79">
-        <v>2355</v>
+        <v>1036.95</v>
       </c>
       <c r="F79">
-        <v>2410.02</v>
+        <v>1053.01</v>
       </c>
       <c r="G79">
-        <v>2485.77</v>
+        <v>1086.1400000000001</v>
       </c>
       <c r="H79">
-        <v>2307.9</v>
+        <v>1016.21</v>
       </c>
       <c r="I79">
-        <v>2290.5700000000002</v>
+        <v>999.2</v>
       </c>
       <c r="J79">
-        <v>2234.0700000000002</v>
+        <v>943.3</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
@@ -3299,31 +3320,31 @@
         <v>10</v>
       </c>
       <c r="B80" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C80" s="2">
-        <v>44512</v>
+        <v>44518</v>
       </c>
       <c r="D80" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="E80">
-        <v>4174.3999999999996</v>
+        <v>2257.5</v>
       </c>
       <c r="F80">
-        <v>4068.59</v>
+        <v>2336.2399999999998</v>
       </c>
       <c r="G80">
-        <v>3816.5</v>
+        <v>2478.66</v>
       </c>
       <c r="H80">
-        <v>4299.63</v>
+        <v>2212.35</v>
       </c>
       <c r="I80">
-        <v>4342.47</v>
+        <v>1936</v>
       </c>
       <c r="J80">
-        <v>4551.8500000000004</v>
+        <v>1788.83</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
@@ -3334,28 +3355,28 @@
         <v>11</v>
       </c>
       <c r="C81" s="2">
-        <v>44510</v>
+        <v>44518</v>
       </c>
       <c r="D81" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="E81">
-        <v>295.75</v>
+        <v>2241</v>
       </c>
       <c r="F81">
-        <v>290.58</v>
+        <v>2204.42</v>
       </c>
       <c r="G81">
-        <v>278.82</v>
+        <v>2150.1</v>
       </c>
       <c r="H81">
-        <v>304.62</v>
+        <v>2308.23</v>
       </c>
       <c r="I81">
-        <v>310.98</v>
+        <v>2327.65</v>
       </c>
       <c r="J81">
-        <v>350.47</v>
+        <v>2415.1999999999998</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
@@ -3363,31 +3384,31 @@
         <v>10</v>
       </c>
       <c r="B82" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C82" s="2">
-        <v>44510</v>
+        <v>44517</v>
       </c>
       <c r="D82" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="E82">
-        <v>1911.35</v>
+        <v>665.1</v>
       </c>
       <c r="F82">
-        <v>1835.89</v>
+        <v>690.11</v>
       </c>
       <c r="G82">
-        <v>1729.17</v>
+        <v>714.34</v>
       </c>
       <c r="H82">
-        <v>1968.69</v>
+        <v>651.79999999999995</v>
       </c>
       <c r="I82">
-        <v>2015.1</v>
+        <v>640.48</v>
       </c>
       <c r="J82">
-        <v>2170.7800000000002</v>
+        <v>624.17999999999995</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
@@ -3395,31 +3416,31 @@
         <v>10</v>
       </c>
       <c r="B83" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C83" s="2">
-        <v>44509</v>
+        <v>44516</v>
       </c>
       <c r="D83" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="E83">
-        <v>153.1</v>
+        <v>295.64999999999998</v>
       </c>
       <c r="F83">
-        <v>154.79</v>
+        <v>288.73</v>
       </c>
       <c r="G83">
-        <v>155.13</v>
+        <v>284.8</v>
       </c>
       <c r="H83">
-        <v>150.04</v>
+        <v>304.52</v>
       </c>
       <c r="I83">
-        <v>140.58000000000001</v>
+        <v>310.98</v>
       </c>
       <c r="J83">
-        <v>136.55000000000001</v>
+        <v>350.47</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
@@ -3430,28 +3451,28 @@
         <v>11</v>
       </c>
       <c r="C84" s="2">
-        <v>44509</v>
+        <v>44516</v>
       </c>
       <c r="D84" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E84">
-        <v>1656.3</v>
+        <v>6554.85</v>
       </c>
       <c r="F84">
-        <v>1540.16</v>
+        <v>6494.46</v>
       </c>
       <c r="G84">
-        <v>1523.39</v>
+        <v>6294.15</v>
       </c>
       <c r="H84">
-        <v>1705.99</v>
+        <v>6751.5</v>
       </c>
       <c r="I84">
-        <v>1793.33</v>
+        <v>6770.38</v>
       </c>
       <c r="J84">
-        <v>2098.58</v>
+        <v>7070.18</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
@@ -3459,31 +3480,31 @@
         <v>10</v>
       </c>
       <c r="B85" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C85" s="2">
-        <v>44509</v>
+        <v>44516</v>
       </c>
       <c r="D85" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="E85">
-        <v>1079.5999999999999</v>
+        <v>18349.2</v>
       </c>
       <c r="F85">
-        <v>1091.52</v>
+        <v>18142.73</v>
       </c>
       <c r="G85">
-        <v>1108.82</v>
+        <v>17748.240000000002</v>
       </c>
       <c r="H85">
-        <v>1058.01</v>
+        <v>18899.68</v>
       </c>
       <c r="I85">
-        <v>1039.42</v>
+        <v>19080.77</v>
       </c>
       <c r="J85">
-        <v>999.2</v>
+        <v>19710.580000000002</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
@@ -3494,28 +3515,28 @@
         <v>11</v>
       </c>
       <c r="C86" s="2">
-        <v>44509</v>
+        <v>44516</v>
       </c>
       <c r="D86" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="E86">
-        <v>424.45</v>
+        <v>332.45</v>
       </c>
       <c r="F86">
-        <v>415.79</v>
+        <v>324.3</v>
       </c>
       <c r="G86">
-        <v>415.56</v>
+        <v>311.52999999999997</v>
       </c>
       <c r="H86">
-        <v>437.1</v>
+        <v>342.42</v>
       </c>
       <c r="I86">
-        <v>437.18</v>
+        <v>365.55</v>
       </c>
       <c r="J86">
-        <v>467.75</v>
+        <v>396.32</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
@@ -3526,28 +3547,28 @@
         <v>11</v>
       </c>
       <c r="C87" s="2">
-        <v>44509</v>
+        <v>44515</v>
       </c>
       <c r="D87" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="E87">
-        <v>2413.8000000000002</v>
+        <v>323.5</v>
       </c>
       <c r="F87">
-        <v>2375.0500000000002</v>
+        <v>312.17</v>
       </c>
       <c r="G87">
-        <v>2360.8000000000002</v>
+        <v>285.49</v>
       </c>
       <c r="H87">
-        <v>2486.21</v>
+        <v>333.2</v>
       </c>
       <c r="I87">
-        <v>2565.9</v>
+        <v>340.43</v>
       </c>
       <c r="J87">
-        <v>2870.4</v>
+        <v>353.58</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
@@ -3558,28 +3579,28 @@
         <v>11</v>
       </c>
       <c r="C88" s="2">
-        <v>44509</v>
+        <v>44515</v>
       </c>
       <c r="D88" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E88">
-        <v>1563</v>
+        <v>147.75</v>
       </c>
       <c r="F88">
-        <v>1517.24</v>
+        <v>143.44</v>
       </c>
       <c r="G88">
-        <v>1467.89</v>
+        <v>135</v>
       </c>
       <c r="H88">
-        <v>1609.89</v>
+        <v>151.72999999999999</v>
       </c>
       <c r="I88">
-        <v>1630.93</v>
+        <v>152.18</v>
       </c>
       <c r="J88">
-        <v>1661.7</v>
+        <v>156.4</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
@@ -3587,31 +3608,31 @@
         <v>10</v>
       </c>
       <c r="B89" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C89" s="2">
-        <v>44508</v>
+        <v>44515</v>
       </c>
       <c r="D89" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E89">
-        <v>467.55</v>
+        <v>1589.5</v>
       </c>
       <c r="F89">
-        <v>470.83</v>
+        <v>1533.2</v>
       </c>
       <c r="G89">
-        <v>476.29</v>
+        <v>1473.57</v>
       </c>
       <c r="H89">
-        <v>458.2</v>
+        <v>1637.18</v>
       </c>
       <c r="I89">
-        <v>432.8</v>
+        <v>1688.42</v>
       </c>
       <c r="J89">
-        <v>416.4</v>
+        <v>1758.62</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
@@ -3619,31 +3640,31 @@
         <v>10</v>
       </c>
       <c r="B90" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C90" s="2">
-        <v>44508</v>
+        <v>44512</v>
       </c>
       <c r="D90" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E90">
-        <v>2764.8</v>
+        <v>766.9</v>
       </c>
       <c r="F90">
-        <v>2705.82</v>
+        <v>773.17</v>
       </c>
       <c r="G90">
-        <v>2677.54</v>
+        <v>774.91</v>
       </c>
       <c r="H90">
-        <v>2847.74</v>
+        <v>751.56</v>
       </c>
       <c r="I90">
-        <v>2907.8</v>
+        <v>742.23</v>
       </c>
       <c r="J90">
-        <v>3060.82</v>
+        <v>716.97</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
@@ -3654,28 +3675,25 @@
         <v>11</v>
       </c>
       <c r="C91" s="2">
-        <v>44508</v>
+        <v>44512</v>
       </c>
       <c r="D91" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E91">
-        <v>2139</v>
+        <v>738.8</v>
       </c>
       <c r="F91">
-        <v>2037.09</v>
+        <v>703.2</v>
       </c>
       <c r="G91">
-        <v>1886.57</v>
+        <v>698.86</v>
       </c>
       <c r="H91">
-        <v>2203.17</v>
+        <v>760.96</v>
       </c>
       <c r="I91">
-        <v>2207.3000000000002</v>
-      </c>
-      <c r="J91">
-        <v>2321.2199999999998</v>
+        <v>783.22</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
@@ -3683,31 +3701,31 @@
         <v>10</v>
       </c>
       <c r="B92" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C92" s="2">
-        <v>44508</v>
+        <v>44512</v>
       </c>
       <c r="D92" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="E92">
-        <v>2484.3000000000002</v>
+        <v>2355</v>
       </c>
       <c r="F92">
-        <v>2442.6799999999998</v>
+        <v>2410.02</v>
       </c>
       <c r="G92">
-        <v>2215.5700000000002</v>
+        <v>2485.77</v>
       </c>
       <c r="H92">
-        <v>2558.83</v>
+        <v>2307.9</v>
       </c>
       <c r="I92">
-        <v>2666.75</v>
+        <v>2290.5700000000002</v>
       </c>
       <c r="J92">
-        <v>2808.35</v>
+        <v>2234.0700000000002</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
@@ -3715,31 +3733,31 @@
         <v>10</v>
       </c>
       <c r="B93" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C93" s="2">
-        <v>44508</v>
+        <v>44512</v>
       </c>
       <c r="D93" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="E93">
-        <v>2359.65</v>
+        <v>4174.3999999999996</v>
       </c>
       <c r="F93">
-        <v>2379.3000000000002</v>
+        <v>4068.59</v>
       </c>
       <c r="G93">
-        <v>2391.1999999999998</v>
+        <v>3816.5</v>
       </c>
       <c r="H93">
-        <v>2312.46</v>
+        <v>4299.63</v>
       </c>
       <c r="I93">
-        <v>2198.4299999999998</v>
+        <v>4342.47</v>
       </c>
       <c r="J93">
-        <v>2140.8200000000002</v>
+        <v>4551.8500000000004</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
@@ -3750,28 +3768,28 @@
         <v>11</v>
       </c>
       <c r="C94" s="2">
-        <v>44508</v>
+        <v>44510</v>
       </c>
       <c r="D94" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="E94">
-        <v>1577.85</v>
+        <v>295.75</v>
       </c>
       <c r="F94">
-        <v>1529.28</v>
+        <v>290.58</v>
       </c>
       <c r="G94">
-        <v>1519.88</v>
+        <v>278.82</v>
       </c>
       <c r="H94">
-        <v>1620.42</v>
+        <v>304.62</v>
       </c>
       <c r="I94">
-        <v>1625.19</v>
+        <v>310.98</v>
       </c>
       <c r="J94">
-        <v>1671.32</v>
+        <v>350.47</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
@@ -3782,28 +3800,28 @@
         <v>11</v>
       </c>
       <c r="C95" s="2">
-        <v>44504</v>
+        <v>44510</v>
       </c>
       <c r="D95" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="E95">
-        <v>5220</v>
+        <v>1911.35</v>
       </c>
       <c r="F95">
-        <v>5165.45</v>
+        <v>1835.89</v>
       </c>
       <c r="G95">
-        <v>5108.8100000000004</v>
+        <v>1729.17</v>
       </c>
       <c r="H95">
-        <v>5376.6</v>
+        <v>1968.69</v>
       </c>
       <c r="I95">
-        <v>5456.83</v>
+        <v>2015.1</v>
       </c>
       <c r="J95">
-        <v>5610.18</v>
+        <v>2170.7800000000002</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
@@ -3811,31 +3829,31 @@
         <v>10</v>
       </c>
       <c r="B96" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C96" s="2">
-        <v>44504</v>
+        <v>44509</v>
       </c>
       <c r="D96" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="E96">
-        <v>173.8</v>
+        <v>153.1</v>
       </c>
       <c r="F96">
-        <v>169.94</v>
+        <v>154.79</v>
       </c>
       <c r="G96">
-        <v>163.85</v>
+        <v>155.13</v>
       </c>
       <c r="H96">
-        <v>179.01</v>
+        <v>150.04</v>
       </c>
       <c r="I96">
-        <v>182.83</v>
+        <v>140.58000000000001</v>
       </c>
       <c r="J96">
-        <v>190.18</v>
+        <v>136.55000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
@@ -3846,28 +3864,28 @@
         <v>11</v>
       </c>
       <c r="C97" s="2">
-        <v>44504</v>
+        <v>44509</v>
       </c>
       <c r="D97" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="E97">
-        <v>2499.6</v>
+        <v>1656.3</v>
       </c>
       <c r="F97">
-        <v>2495.31</v>
+        <v>1540.16</v>
       </c>
       <c r="G97">
-        <v>2310.7199999999998</v>
+        <v>1523.39</v>
       </c>
       <c r="H97">
-        <v>2574.59</v>
+        <v>1705.99</v>
       </c>
       <c r="I97">
-        <v>2693.4</v>
+        <v>1793.33</v>
       </c>
       <c r="J97">
-        <v>2771.97</v>
+        <v>2098.58</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
@@ -3875,31 +3893,31 @@
         <v>10</v>
       </c>
       <c r="B98" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C98" s="2">
-        <v>44503</v>
+        <v>44509</v>
       </c>
       <c r="D98" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="E98">
-        <v>3654.6</v>
+        <v>1079.5999999999999</v>
       </c>
       <c r="F98">
-        <v>3805.37</v>
+        <v>1091.52</v>
       </c>
       <c r="G98">
-        <v>3850.49</v>
+        <v>1108.82</v>
       </c>
       <c r="H98">
-        <v>3581.51</v>
+        <v>1058.01</v>
       </c>
       <c r="I98">
-        <v>3446.93</v>
+        <v>1039.42</v>
       </c>
       <c r="J98">
-        <v>3365.07</v>
+        <v>999.2</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
@@ -3907,31 +3925,31 @@
         <v>10</v>
       </c>
       <c r="B99" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C99" s="2">
-        <v>44503</v>
+        <v>44509</v>
       </c>
       <c r="D99" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E99">
-        <v>1322.95</v>
+        <v>424.45</v>
       </c>
       <c r="F99">
-        <v>1359.45</v>
+        <v>415.79</v>
       </c>
       <c r="G99">
-        <v>1359.87</v>
+        <v>415.56</v>
       </c>
       <c r="H99">
-        <v>1296.49</v>
+        <v>437.1</v>
       </c>
       <c r="I99">
-        <v>1171.67</v>
+        <v>437.18</v>
       </c>
       <c r="J99">
-        <v>1104.2</v>
+        <v>467.75</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
@@ -3942,28 +3960,28 @@
         <v>11</v>
       </c>
       <c r="C100" s="2">
-        <v>44503</v>
+        <v>44509</v>
       </c>
       <c r="D100" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="E100">
-        <v>3078.95</v>
+        <v>2413.8000000000002</v>
       </c>
       <c r="F100">
-        <v>2886.93</v>
+        <v>2375.0500000000002</v>
       </c>
       <c r="G100">
-        <v>2865.44</v>
+        <v>2360.8000000000002</v>
       </c>
       <c r="H100">
-        <v>3171.32</v>
+        <v>2486.21</v>
       </c>
       <c r="I100">
-        <v>3201.05</v>
+        <v>2565.9</v>
       </c>
       <c r="J100">
-        <v>3280.67</v>
+        <v>2870.4</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
@@ -3974,28 +3992,28 @@
         <v>11</v>
       </c>
       <c r="C101" s="2">
-        <v>44503</v>
+        <v>44509</v>
       </c>
       <c r="D101" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E101">
-        <v>203.8</v>
+        <v>1563</v>
       </c>
       <c r="F101">
-        <v>197.77</v>
+        <v>1517.24</v>
       </c>
       <c r="G101">
-        <v>179.94</v>
+        <v>1467.89</v>
       </c>
       <c r="H101">
-        <v>209.91</v>
+        <v>1609.89</v>
       </c>
       <c r="I101">
-        <v>222.67</v>
+        <v>1630.93</v>
       </c>
       <c r="J101">
-        <v>230.1</v>
+        <v>1661.7</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
@@ -4003,31 +4021,31 @@
         <v>10</v>
       </c>
       <c r="B102" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C102" s="2">
-        <v>44502</v>
+        <v>44508</v>
       </c>
       <c r="D102" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="E102">
-        <v>2447.3000000000002</v>
+        <v>467.55</v>
       </c>
       <c r="F102">
-        <v>2411.42</v>
+        <v>470.83</v>
       </c>
       <c r="G102">
-        <v>2180.0100000000002</v>
+        <v>476.29</v>
       </c>
       <c r="H102">
-        <v>2520.7199999999998</v>
+        <v>458.2</v>
       </c>
       <c r="I102">
-        <v>2666.75</v>
+        <v>432.8</v>
       </c>
       <c r="J102">
-        <v>2808.35</v>
+        <v>416.4</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
@@ -4038,28 +4056,28 @@
         <v>11</v>
       </c>
       <c r="C103" s="2">
-        <v>44502</v>
+        <v>44508</v>
       </c>
       <c r="D103" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="E103">
-        <v>511.55</v>
+        <v>2764.8</v>
       </c>
       <c r="F103">
-        <v>507.55</v>
+        <v>2705.82</v>
       </c>
       <c r="G103">
-        <v>495.11</v>
+        <v>2677.54</v>
       </c>
       <c r="H103">
-        <v>522.41999999999996</v>
+        <v>2847.74</v>
       </c>
       <c r="I103">
-        <v>526.9</v>
+        <v>2907.8</v>
       </c>
       <c r="J103">
-        <v>535.82000000000005</v>
+        <v>3060.82</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
@@ -4070,28 +4088,28 @@
         <v>11</v>
       </c>
       <c r="C104" s="2">
-        <v>44502</v>
+        <v>44508</v>
       </c>
       <c r="D104" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="E104">
-        <v>20187.5</v>
+        <v>2139</v>
       </c>
       <c r="F104">
-        <v>19069.46</v>
+        <v>2037.09</v>
       </c>
       <c r="G104">
-        <v>17068.93</v>
+        <v>1886.57</v>
       </c>
       <c r="H104">
-        <v>20793.13</v>
+        <v>2203.17</v>
       </c>
       <c r="I104">
-        <v>21991.919999999998</v>
+        <v>2207.3000000000002</v>
       </c>
       <c r="J104">
-        <v>22755.9</v>
+        <v>2321.2199999999998</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
@@ -4102,28 +4120,28 @@
         <v>11</v>
       </c>
       <c r="C105" s="2">
-        <v>44501</v>
+        <v>44508</v>
       </c>
       <c r="D105" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="E105">
-        <v>7636.25</v>
+        <v>2484.3000000000002</v>
       </c>
       <c r="F105">
-        <v>7460.39</v>
+        <v>2442.6799999999998</v>
       </c>
       <c r="G105">
-        <v>7183.1</v>
+        <v>2215.5700000000002</v>
       </c>
       <c r="H105">
-        <v>7834.8</v>
+        <v>2558.83</v>
       </c>
       <c r="I105">
-        <v>7865.34</v>
+        <v>2666.75</v>
       </c>
       <c r="J105">
-        <v>8011</v>
+        <v>2808.35</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
@@ -4131,31 +4149,31 @@
         <v>10</v>
       </c>
       <c r="B106" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C106" s="2">
-        <v>44501</v>
+        <v>44508</v>
       </c>
       <c r="D106" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E106">
-        <v>2359.75</v>
+        <v>2359.65</v>
       </c>
       <c r="F106">
-        <v>2292.5500000000002</v>
+        <v>2379.3000000000002</v>
       </c>
       <c r="G106">
-        <v>2057.4699999999998</v>
+        <v>2391.1999999999998</v>
       </c>
       <c r="H106">
-        <v>2422.8200000000002</v>
+        <v>2312.46</v>
       </c>
       <c r="I106">
-        <v>2430.54</v>
+        <v>2198.4299999999998</v>
       </c>
       <c r="J106">
-        <v>2480.4299999999998</v>
+        <v>2140.8200000000002</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
@@ -4166,28 +4184,28 @@
         <v>11</v>
       </c>
       <c r="C107" s="2">
-        <v>44501</v>
+        <v>44508</v>
       </c>
       <c r="D107" t="s">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="E107">
-        <v>1166.3499999999999</v>
+        <v>1577.85</v>
       </c>
       <c r="F107">
-        <v>1122.46</v>
+        <v>1529.28</v>
       </c>
       <c r="G107">
-        <v>1019.71</v>
+        <v>1519.88</v>
       </c>
       <c r="H107">
-        <v>1201.3399999999999</v>
+        <v>1620.42</v>
       </c>
       <c r="I107">
-        <v>1209.72</v>
+        <v>1625.19</v>
       </c>
       <c r="J107">
-        <v>1237.53</v>
+        <v>1671.32</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
@@ -4198,28 +4216,28 @@
         <v>11</v>
       </c>
       <c r="C108" s="2">
-        <v>44501</v>
+        <v>44504</v>
       </c>
       <c r="D108" t="s">
         <v>90</v>
       </c>
       <c r="E108">
-        <v>474</v>
+        <v>5220</v>
       </c>
       <c r="F108">
-        <v>472.95</v>
+        <v>5165.45</v>
       </c>
       <c r="G108">
-        <v>437.76</v>
+        <v>5108.8100000000004</v>
       </c>
       <c r="H108">
-        <v>488.22</v>
+        <v>5376.6</v>
       </c>
       <c r="I108">
-        <v>505.82</v>
+        <v>5456.83</v>
       </c>
       <c r="J108">
-        <v>523.28</v>
+        <v>5610.18</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
@@ -4230,28 +4248,28 @@
         <v>11</v>
       </c>
       <c r="C109" s="2">
-        <v>44501</v>
+        <v>44504</v>
       </c>
       <c r="D109" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="E109">
-        <v>3325.2</v>
+        <v>173.8</v>
       </c>
       <c r="F109">
-        <v>3252.88</v>
+        <v>169.94</v>
       </c>
       <c r="G109">
-        <v>3117.9</v>
+        <v>163.85</v>
       </c>
       <c r="H109">
-        <v>3424.96</v>
+        <v>179.01</v>
       </c>
       <c r="I109">
-        <v>3615.18</v>
+        <v>182.83</v>
       </c>
       <c r="J109">
-        <v>3804.88</v>
+        <v>190.18</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
@@ -4262,28 +4280,28 @@
         <v>11</v>
       </c>
       <c r="C110" s="2">
-        <v>44498</v>
+        <v>44504</v>
       </c>
       <c r="D110" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="E110">
-        <v>1221.2</v>
+        <v>2499.6</v>
       </c>
       <c r="F110">
-        <v>1177.3399999999999</v>
+        <v>2495.31</v>
       </c>
       <c r="G110">
-        <v>1102.5899999999999</v>
+        <v>2310.7199999999998</v>
       </c>
       <c r="H110">
-        <v>1257.8399999999999</v>
+        <v>2574.59</v>
       </c>
       <c r="I110">
-        <v>1320.7</v>
+        <v>2693.4</v>
       </c>
       <c r="J110">
-        <v>1372.03</v>
+        <v>2771.97</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
@@ -4291,28 +4309,31 @@
         <v>10</v>
       </c>
       <c r="B111" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C111" s="2">
-        <v>44498</v>
+        <v>44503</v>
       </c>
       <c r="D111" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E111">
-        <v>798.95</v>
+        <v>3654.6</v>
       </c>
       <c r="F111">
-        <v>821.93</v>
+        <v>3805.37</v>
       </c>
       <c r="G111">
-        <v>784.65</v>
+        <v>3850.49</v>
       </c>
       <c r="H111">
-        <v>782.97</v>
+        <v>3581.51</v>
       </c>
       <c r="I111">
-        <v>768.55</v>
+        <v>3446.93</v>
+      </c>
+      <c r="J111">
+        <v>3365.07</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
@@ -4320,31 +4341,31 @@
         <v>10</v>
       </c>
       <c r="B112" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C112" s="2">
-        <v>44498</v>
+        <v>44503</v>
       </c>
       <c r="D112" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="E112">
-        <v>209.8</v>
+        <v>1322.95</v>
       </c>
       <c r="F112">
-        <v>205.76</v>
+        <v>1359.45</v>
       </c>
       <c r="G112">
-        <v>199.16</v>
+        <v>1359.87</v>
       </c>
       <c r="H112">
-        <v>214.75</v>
+        <v>1296.49</v>
       </c>
       <c r="I112">
-        <v>216.09</v>
+        <v>1171.67</v>
       </c>
       <c r="J112">
-        <v>220.65</v>
+        <v>1104.2</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.3">
@@ -4355,25 +4376,28 @@
         <v>11</v>
       </c>
       <c r="C113" s="2">
-        <v>44498</v>
+        <v>44503</v>
       </c>
       <c r="D113" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="E113">
-        <v>37896.85</v>
+        <v>3078.95</v>
       </c>
       <c r="F113">
-        <v>36639.31</v>
+        <v>2886.93</v>
       </c>
       <c r="G113">
-        <v>33911.24</v>
+        <v>2865.44</v>
       </c>
       <c r="H113">
-        <v>39033.760000000002</v>
+        <v>3171.32</v>
       </c>
       <c r="I113">
-        <v>39813.47</v>
+        <v>3201.05</v>
+      </c>
+      <c r="J113">
+        <v>3280.67</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
@@ -4384,22 +4408,28 @@
         <v>11</v>
       </c>
       <c r="C114" s="2">
-        <v>44498</v>
+        <v>44503</v>
       </c>
       <c r="D114" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E114">
-        <v>205.75</v>
+        <v>203.8</v>
       </c>
       <c r="F114">
-        <v>195.21</v>
+        <v>197.77</v>
       </c>
       <c r="G114">
-        <v>178.9</v>
+        <v>179.94</v>
       </c>
       <c r="H114">
-        <v>211.92</v>
+        <v>209.91</v>
+      </c>
+      <c r="I114">
+        <v>222.67</v>
+      </c>
+      <c r="J114">
+        <v>230.1</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
@@ -4407,28 +4437,31 @@
         <v>10</v>
       </c>
       <c r="B115" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C115" s="2">
-        <v>44497</v>
+        <v>44502</v>
       </c>
       <c r="D115" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E115">
-        <v>493.5</v>
+        <v>2447.3000000000002</v>
       </c>
       <c r="F115">
-        <v>507.5</v>
+        <v>2411.42</v>
       </c>
       <c r="G115">
-        <v>484.98</v>
+        <v>2180.0100000000002</v>
       </c>
       <c r="H115">
-        <v>483.63</v>
+        <v>2520.7199999999998</v>
       </c>
       <c r="I115">
-        <v>470.85</v>
+        <v>2666.75</v>
+      </c>
+      <c r="J115">
+        <v>2808.35</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.3">
@@ -4436,28 +4469,31 @@
         <v>10</v>
       </c>
       <c r="B116" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C116" s="2">
-        <v>44496</v>
+        <v>44502</v>
       </c>
       <c r="D116" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="E116">
-        <v>2885.1</v>
+        <v>511.55</v>
       </c>
       <c r="F116">
-        <v>3021.3</v>
+        <v>507.55</v>
       </c>
       <c r="G116">
-        <v>3068.4</v>
+        <v>495.11</v>
       </c>
       <c r="H116">
-        <v>2827.4</v>
+        <v>522.41999999999996</v>
       </c>
       <c r="I116">
-        <v>2656.42</v>
+        <v>526.9</v>
+      </c>
+      <c r="J116">
+        <v>535.82000000000005</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
@@ -4468,25 +4504,28 @@
         <v>11</v>
       </c>
       <c r="C117" s="2">
-        <v>44495</v>
+        <v>44502</v>
       </c>
       <c r="D117" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E117">
-        <v>141.5</v>
+        <v>20187.5</v>
       </c>
       <c r="F117">
-        <v>136.66999999999999</v>
+        <v>19069.46</v>
       </c>
       <c r="G117">
-        <v>129.02000000000001</v>
+        <v>17068.93</v>
       </c>
       <c r="H117">
-        <v>145.75</v>
+        <v>20793.13</v>
       </c>
       <c r="I117">
-        <v>159.18</v>
+        <v>21991.919999999998</v>
+      </c>
+      <c r="J117">
+        <v>22755.9</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
@@ -4497,28 +4536,28 @@
         <v>11</v>
       </c>
       <c r="C118" s="2">
-        <v>44495</v>
+        <v>44501</v>
       </c>
       <c r="D118" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="E118">
-        <v>106.8</v>
+        <v>7636.25</v>
       </c>
       <c r="F118">
-        <v>102.38</v>
+        <v>7460.39</v>
       </c>
       <c r="G118">
-        <v>94.16</v>
+        <v>7183.1</v>
       </c>
       <c r="H118">
-        <v>110</v>
+        <v>7834.8</v>
       </c>
       <c r="I118">
-        <v>110.93</v>
+        <v>7865.34</v>
       </c>
       <c r="J118">
-        <v>128.18</v>
+        <v>8011</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.3">
@@ -4529,28 +4568,28 @@
         <v>11</v>
       </c>
       <c r="C119" s="2">
-        <v>44495</v>
+        <v>44501</v>
       </c>
       <c r="D119" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E119">
-        <v>1049.0999999999999</v>
+        <v>2359.75</v>
       </c>
       <c r="F119">
-        <v>1012.39</v>
+        <v>2292.5500000000002</v>
       </c>
       <c r="G119">
-        <v>950.73</v>
+        <v>2057.4699999999998</v>
       </c>
       <c r="H119">
-        <v>1080.57</v>
+        <v>2422.8200000000002</v>
       </c>
       <c r="I119">
-        <v>1086.42</v>
+        <v>2430.54</v>
       </c>
       <c r="J119">
-        <v>1106.6199999999999</v>
+        <v>2480.4299999999998</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.3">
@@ -4561,25 +4600,28 @@
         <v>11</v>
       </c>
       <c r="C120" s="2">
-        <v>44495</v>
+        <v>44501</v>
       </c>
       <c r="D120" t="s">
         <v>95</v>
       </c>
       <c r="E120">
-        <v>331.65</v>
+        <v>1166.3499999999999</v>
       </c>
       <c r="F120">
-        <v>316.91000000000003</v>
+        <v>1122.46</v>
       </c>
       <c r="G120">
-        <v>286.43</v>
+        <v>1019.71</v>
       </c>
       <c r="H120">
-        <v>341.6</v>
+        <v>1201.3399999999999</v>
       </c>
       <c r="I120">
-        <v>367.12</v>
+        <v>1209.72</v>
+      </c>
+      <c r="J120">
+        <v>1237.53</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
@@ -4590,28 +4632,28 @@
         <v>11</v>
       </c>
       <c r="C121" s="2">
-        <v>44495</v>
+        <v>44501</v>
       </c>
       <c r="D121" t="s">
         <v>96</v>
       </c>
       <c r="E121">
-        <v>4571.25</v>
+        <v>474</v>
       </c>
       <c r="F121">
-        <v>4293.3599999999997</v>
+        <v>472.95</v>
       </c>
       <c r="G121">
-        <v>3811.67</v>
+        <v>437.76</v>
       </c>
       <c r="H121">
-        <v>4708.3900000000003</v>
+        <v>488.22</v>
       </c>
       <c r="I121">
-        <v>4743.75</v>
+        <v>505.82</v>
       </c>
       <c r="J121">
-        <v>4849.03</v>
+        <v>523.28</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">
@@ -4622,28 +4664,28 @@
         <v>11</v>
       </c>
       <c r="C122" s="2">
-        <v>44495</v>
+        <v>44501</v>
       </c>
       <c r="D122" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="E122">
-        <v>602.9</v>
+        <v>3325.2</v>
       </c>
       <c r="F122">
-        <v>580.78</v>
+        <v>3252.88</v>
       </c>
       <c r="G122">
-        <v>564.62</v>
+        <v>3117.9</v>
       </c>
       <c r="H122">
-        <v>620.99</v>
+        <v>3424.96</v>
       </c>
       <c r="I122">
-        <v>630.83000000000004</v>
+        <v>3615.18</v>
       </c>
       <c r="J122">
-        <v>653.02</v>
+        <v>3804.88</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.3">
@@ -4651,31 +4693,28 @@
         <v>10</v>
       </c>
       <c r="B123" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C123" s="2">
-        <v>44495</v>
+        <v>44498</v>
       </c>
       <c r="D123" t="s">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="E123">
-        <v>708.5</v>
+        <v>1972.35</v>
       </c>
       <c r="F123">
-        <v>691.39</v>
-      </c>
-      <c r="G123">
-        <v>677.62</v>
+        <v>2004.9</v>
       </c>
       <c r="H123">
-        <v>729.75</v>
+        <v>1932.9</v>
       </c>
       <c r="I123">
-        <v>744.87</v>
+        <v>1822.08</v>
       </c>
       <c r="J123">
-        <v>773.15</v>
+        <v>1622.47</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.3">
@@ -4686,28 +4725,28 @@
         <v>11</v>
       </c>
       <c r="C124" s="2">
-        <v>44495</v>
+        <v>44498</v>
       </c>
       <c r="D124" t="s">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="E124">
-        <v>1001.55</v>
+        <v>1221.2</v>
       </c>
       <c r="F124">
-        <v>986.77</v>
+        <v>1177.3399999999999</v>
       </c>
       <c r="G124">
-        <v>900.53</v>
+        <v>1102.5899999999999</v>
       </c>
       <c r="H124">
-        <v>1031.5999999999999</v>
+        <v>1257.8399999999999</v>
       </c>
       <c r="I124">
-        <v>1047.07</v>
+        <v>1320.7</v>
       </c>
       <c r="J124">
-        <v>1212.52</v>
+        <v>1372.03</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.3">
@@ -4715,31 +4754,28 @@
         <v>10</v>
       </c>
       <c r="B125" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C125" s="2">
-        <v>44495</v>
+        <v>44498</v>
       </c>
       <c r="D125" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="E125">
-        <v>20200.25</v>
+        <v>798.95</v>
       </c>
       <c r="F125">
-        <v>18859.75</v>
+        <v>821.93</v>
       </c>
       <c r="G125">
-        <v>16952.77</v>
+        <v>784.65</v>
       </c>
       <c r="H125">
-        <v>20806.259999999998</v>
+        <v>782.97</v>
       </c>
       <c r="I125">
-        <v>21858.2</v>
-      </c>
-      <c r="J125">
-        <v>22528.400000000001</v>
+        <v>768.55</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.3">
@@ -4750,28 +4786,28 @@
         <v>11</v>
       </c>
       <c r="C126" s="2">
-        <v>44494</v>
+        <v>44498</v>
       </c>
       <c r="D126" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E126">
-        <v>3142.45</v>
+        <v>209.8</v>
       </c>
       <c r="F126">
-        <v>3089.56</v>
+        <v>205.76</v>
       </c>
       <c r="G126">
-        <v>3082.08</v>
+        <v>199.16</v>
       </c>
       <c r="H126">
-        <v>3217.38</v>
+        <v>214.75</v>
       </c>
       <c r="I126">
-        <v>3236.72</v>
+        <v>216.09</v>
       </c>
       <c r="J126">
-        <v>3349.27</v>
+        <v>220.65</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.3">
@@ -4779,28 +4815,28 @@
         <v>10</v>
       </c>
       <c r="B127" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C127" s="2">
-        <v>44494</v>
+        <v>44498</v>
       </c>
       <c r="D127" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E127">
-        <v>556.20000000000005</v>
+        <v>37896.85</v>
       </c>
       <c r="F127">
-        <v>563.34</v>
+        <v>36639.31</v>
       </c>
       <c r="G127">
-        <v>545.08000000000004</v>
+        <v>33911.24</v>
       </c>
       <c r="H127">
-        <v>529.88</v>
+        <v>39033.760000000002</v>
       </c>
       <c r="I127">
-        <v>521.08000000000004</v>
+        <v>39813.47</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.3">
@@ -4811,28 +4847,22 @@
         <v>11</v>
       </c>
       <c r="C128" s="2">
-        <v>44491</v>
+        <v>44498</v>
       </c>
       <c r="D128" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="E128">
-        <v>2457.0500000000002</v>
+        <v>205.75</v>
       </c>
       <c r="F128">
-        <v>2426.4899999999998</v>
+        <v>195.21</v>
       </c>
       <c r="G128">
-        <v>2155.9699999999998</v>
+        <v>178.9</v>
       </c>
       <c r="H128">
-        <v>2530.7600000000002</v>
-      </c>
-      <c r="I128">
-        <v>2531.6999999999998</v>
-      </c>
-      <c r="J128">
-        <v>2594.2800000000002</v>
+        <v>211.92</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.3">
@@ -4840,31 +4870,31 @@
         <v>10</v>
       </c>
       <c r="B129" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C129" s="2">
-        <v>44491</v>
+        <v>44497</v>
       </c>
       <c r="D129" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="E129">
-        <v>798.05</v>
+        <v>465.5</v>
       </c>
       <c r="F129">
-        <v>823.46</v>
+        <v>473.55</v>
       </c>
       <c r="G129">
-        <v>839.56</v>
+        <v>473.69</v>
       </c>
       <c r="H129">
-        <v>782.09</v>
+        <v>456.19</v>
       </c>
       <c r="I129">
-        <v>773.15</v>
+        <v>455.67</v>
       </c>
       <c r="J129">
-        <v>759.67</v>
+        <v>444.05</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.3">
@@ -4872,28 +4902,28 @@
         <v>10</v>
       </c>
       <c r="B130" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C130" s="2">
-        <v>44491</v>
+        <v>44497</v>
       </c>
       <c r="D130" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="E130">
-        <v>1595.15</v>
+        <v>493.5</v>
       </c>
       <c r="F130">
-        <v>1524.23</v>
+        <v>507.5</v>
       </c>
       <c r="G130">
-        <v>1514.54</v>
+        <v>484.98</v>
       </c>
       <c r="H130">
-        <v>1643</v>
+        <v>483.63</v>
       </c>
       <c r="I130">
-        <v>1748.32</v>
+        <v>470.85</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.3">
@@ -4901,31 +4931,28 @@
         <v>10</v>
       </c>
       <c r="B131" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C131" s="2">
-        <v>44491</v>
+        <v>44496</v>
       </c>
       <c r="D131" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="E131">
-        <v>2271.65</v>
+        <v>2885.1</v>
       </c>
       <c r="F131">
-        <v>2257.91</v>
+        <v>3021.3</v>
       </c>
       <c r="G131">
-        <v>2067.2800000000002</v>
+        <v>3068.4</v>
       </c>
       <c r="H131">
-        <v>2339.8000000000002</v>
+        <v>2827.4</v>
       </c>
       <c r="I131">
-        <v>2667.22</v>
-      </c>
-      <c r="J131">
-        <v>2806.32</v>
+        <v>2656.42</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.3">
@@ -4936,28 +4963,25 @@
         <v>11</v>
       </c>
       <c r="C132" s="2">
-        <v>44491</v>
+        <v>44495</v>
       </c>
       <c r="D132" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="E132">
-        <v>1670.25</v>
+        <v>141.5</v>
       </c>
       <c r="F132">
-        <v>1635.79</v>
+        <v>136.66999999999999</v>
       </c>
       <c r="G132">
-        <v>1565.17</v>
+        <v>129.02000000000001</v>
       </c>
       <c r="H132">
-        <v>1720.36</v>
+        <v>145.75</v>
       </c>
       <c r="I132">
-        <v>1736.97</v>
-      </c>
-      <c r="J132">
-        <v>1792.13</v>
+        <v>159.18</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.3">
@@ -4968,28 +4992,28 @@
         <v>11</v>
       </c>
       <c r="C133" s="2">
-        <v>44491</v>
+        <v>44495</v>
       </c>
       <c r="D133" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="E133">
-        <v>3826</v>
+        <v>106.8</v>
       </c>
       <c r="F133">
-        <v>3568.29</v>
+        <v>102.38</v>
       </c>
       <c r="G133">
-        <v>3216.52</v>
+        <v>94.16</v>
       </c>
       <c r="H133">
-        <v>3940.78</v>
+        <v>110</v>
       </c>
       <c r="I133">
-        <v>4139.1499999999996</v>
+        <v>110.93</v>
       </c>
       <c r="J133">
-        <v>4218.3500000000004</v>
+        <v>128.18</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.3">
@@ -5000,22 +5024,28 @@
         <v>11</v>
       </c>
       <c r="C134" s="2">
-        <v>44491</v>
+        <v>44495</v>
       </c>
       <c r="D134" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E134">
-        <v>618.35</v>
+        <v>1049.0999999999999</v>
       </c>
       <c r="F134">
-        <v>580.01</v>
+        <v>1012.39</v>
       </c>
       <c r="G134">
-        <v>576.19000000000005</v>
+        <v>950.73</v>
       </c>
       <c r="H134">
-        <v>636.9</v>
+        <v>1080.57</v>
+      </c>
+      <c r="I134">
+        <v>1086.42</v>
+      </c>
+      <c r="J134">
+        <v>1106.6199999999999</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.3">
@@ -5026,28 +5056,25 @@
         <v>11</v>
       </c>
       <c r="C135" s="2">
-        <v>44490</v>
+        <v>44495</v>
       </c>
       <c r="D135" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="E135">
-        <v>1739</v>
+        <v>331.65</v>
       </c>
       <c r="F135">
-        <v>1661.54</v>
+        <v>316.91000000000003</v>
       </c>
       <c r="G135">
-        <v>1575.67</v>
+        <v>286.43</v>
       </c>
       <c r="H135">
-        <v>1788.92</v>
+        <v>341.6</v>
       </c>
       <c r="I135">
-        <v>1791.17</v>
-      </c>
-      <c r="J135">
-        <v>1828.75</v>
+        <v>367.12</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.3">
@@ -5055,31 +5082,31 @@
         <v>10</v>
       </c>
       <c r="B136" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C136" s="2">
-        <v>44490</v>
+        <v>44495</v>
       </c>
       <c r="D136" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="E136">
-        <v>2318.9</v>
+        <v>4571.25</v>
       </c>
       <c r="F136">
-        <v>2353.17</v>
+        <v>4293.3599999999997</v>
       </c>
       <c r="G136">
-        <v>2433.41</v>
+        <v>3811.67</v>
       </c>
       <c r="H136">
-        <v>2283.27</v>
+        <v>4708.3900000000003</v>
       </c>
       <c r="I136">
-        <v>2272.52</v>
+        <v>4743.75</v>
       </c>
       <c r="J136">
-        <v>2184.58</v>
+        <v>4849.03</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.3">
@@ -5087,31 +5114,31 @@
         <v>10</v>
       </c>
       <c r="B137" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C137" s="2">
-        <v>44490</v>
+        <v>44495</v>
       </c>
       <c r="D137" t="s">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="E137">
-        <v>2215</v>
+        <v>602.9</v>
       </c>
       <c r="F137">
-        <v>2248.75</v>
+        <v>580.78</v>
       </c>
       <c r="G137">
-        <v>2420.09</v>
+        <v>564.62</v>
       </c>
       <c r="H137">
-        <v>2170.6999999999998</v>
+        <v>620.99</v>
       </c>
       <c r="I137">
-        <v>2070.5700000000002</v>
+        <v>630.83000000000004</v>
       </c>
       <c r="J137">
-        <v>1752.13</v>
+        <v>653.02</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.3">
@@ -5122,28 +5149,28 @@
         <v>11</v>
       </c>
       <c r="C138" s="2">
-        <v>44490</v>
+        <v>44495</v>
       </c>
       <c r="D138" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="E138">
-        <v>2840.95</v>
+        <v>708.5</v>
       </c>
       <c r="F138">
-        <v>2776.4</v>
+        <v>691.39</v>
       </c>
       <c r="G138">
-        <v>2762.74</v>
+        <v>677.62</v>
       </c>
       <c r="H138">
-        <v>2926.18</v>
+        <v>729.75</v>
       </c>
       <c r="I138">
-        <v>2940.77</v>
+        <v>744.87</v>
       </c>
       <c r="J138">
-        <v>3098.92</v>
+        <v>773.15</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.3">
@@ -5151,31 +5178,31 @@
         <v>10</v>
       </c>
       <c r="B139" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C139" s="2">
-        <v>44490</v>
+        <v>44495</v>
       </c>
       <c r="D139" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="E139">
-        <v>2757.95</v>
+        <v>1001.55</v>
       </c>
       <c r="F139">
-        <v>2812.63</v>
+        <v>986.77</v>
       </c>
       <c r="G139">
-        <v>2860.02</v>
+        <v>900.53</v>
       </c>
       <c r="H139">
-        <v>2705.25</v>
+        <v>1031.5999999999999</v>
       </c>
       <c r="I139">
-        <v>2702.79</v>
+        <v>1047.07</v>
       </c>
       <c r="J139">
-        <v>2578</v>
+        <v>1212.52</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.3">
@@ -5183,28 +5210,31 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C140" s="2">
-        <v>44490</v>
+        <v>44495</v>
       </c>
       <c r="D140" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="E140">
-        <v>780</v>
+        <v>20200.25</v>
       </c>
       <c r="F140">
-        <v>785.02</v>
+        <v>18859.75</v>
       </c>
       <c r="G140">
-        <v>819.17</v>
+        <v>16952.77</v>
       </c>
       <c r="H140">
-        <v>764.4</v>
+        <v>20806.259999999998</v>
       </c>
       <c r="I140">
-        <v>729.6</v>
+        <v>21858.2</v>
+      </c>
+      <c r="J140">
+        <v>22528.400000000001</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.3">
@@ -5212,31 +5242,31 @@
         <v>10</v>
       </c>
       <c r="B141" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C141" s="2">
-        <v>44490</v>
+        <v>44494</v>
       </c>
       <c r="D141" t="s">
-        <v>104</v>
+        <v>36</v>
       </c>
       <c r="E141">
-        <v>3013.4</v>
+        <v>3142.45</v>
       </c>
       <c r="F141">
-        <v>3093.03</v>
+        <v>3089.56</v>
       </c>
       <c r="G141">
-        <v>3209.51</v>
+        <v>3082.08</v>
       </c>
       <c r="H141">
-        <v>2953.13</v>
+        <v>3217.38</v>
       </c>
       <c r="I141">
-        <v>2921.82</v>
+        <v>3236.72</v>
       </c>
       <c r="J141">
-        <v>2836.32</v>
+        <v>3349.27</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.3">
@@ -5244,31 +5274,28 @@
         <v>10</v>
       </c>
       <c r="B142" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C142" s="2">
-        <v>44490</v>
+        <v>44494</v>
       </c>
       <c r="D142" t="s">
         <v>105</v>
       </c>
       <c r="E142">
-        <v>2070</v>
+        <v>556.20000000000005</v>
       </c>
       <c r="F142">
-        <v>2006.33</v>
+        <v>563.34</v>
       </c>
       <c r="G142">
-        <v>1886.39</v>
+        <v>545.08000000000004</v>
       </c>
       <c r="H142">
-        <v>2132.1</v>
+        <v>529.88</v>
       </c>
       <c r="I142">
-        <v>2142.87</v>
-      </c>
-      <c r="J142">
-        <v>2211.5500000000002</v>
+        <v>521.08000000000004</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.3">
@@ -5276,28 +5303,31 @@
         <v>10</v>
       </c>
       <c r="B143" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C143" s="2">
-        <v>44489</v>
+        <v>44491</v>
       </c>
       <c r="D143" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="E143">
-        <v>756.85</v>
+        <v>2801.35</v>
       </c>
       <c r="F143">
-        <v>714.7</v>
+        <v>2806.24</v>
       </c>
       <c r="G143">
-        <v>710.34</v>
+        <v>2844.43</v>
       </c>
       <c r="H143">
-        <v>779.56</v>
+        <v>2745.32</v>
       </c>
       <c r="I143">
-        <v>792.22</v>
+        <v>2508.4</v>
+      </c>
+      <c r="J143">
+        <v>2412.1999999999998</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.3">
@@ -5308,28 +5338,28 @@
         <v>11</v>
       </c>
       <c r="C144" s="2">
-        <v>44488</v>
+        <v>44491</v>
       </c>
       <c r="D144" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="E144">
-        <v>3145</v>
+        <v>2457.0500000000002</v>
       </c>
       <c r="F144">
-        <v>3104.52</v>
+        <v>2426.4899999999998</v>
       </c>
       <c r="G144">
-        <v>3082.78</v>
+        <v>2155.9699999999998</v>
       </c>
       <c r="H144">
-        <v>3217.38</v>
+        <v>2530.7600000000002</v>
       </c>
       <c r="I144">
-        <v>3239.35</v>
+        <v>2531.6999999999998</v>
       </c>
       <c r="J144">
-        <v>3349.27</v>
+        <v>2594.2800000000002</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.3">
@@ -5337,31 +5367,31 @@
         <v>10</v>
       </c>
       <c r="B145" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C145" s="2">
-        <v>44488</v>
+        <v>44491</v>
       </c>
       <c r="D145" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="E145">
-        <v>2315.6999999999998</v>
+        <v>798.05</v>
       </c>
       <c r="F145">
-        <v>2201.96</v>
+        <v>823.46</v>
       </c>
       <c r="G145">
-        <v>2197.67</v>
+        <v>839.56</v>
       </c>
       <c r="H145">
-        <v>2385.17</v>
+        <v>782.09</v>
       </c>
       <c r="I145">
-        <v>2419.13</v>
+        <v>773.15</v>
       </c>
       <c r="J145">
-        <v>2665.13</v>
+        <v>759.67</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.3">
@@ -5369,31 +5399,28 @@
         <v>10</v>
       </c>
       <c r="B146" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C146" s="2">
-        <v>44487</v>
+        <v>44491</v>
       </c>
       <c r="D146" t="s">
-        <v>107</v>
+        <v>24</v>
       </c>
       <c r="E146">
-        <v>738.5</v>
+        <v>1595.15</v>
       </c>
       <c r="F146">
-        <v>752.84</v>
+        <v>1524.23</v>
       </c>
       <c r="G146">
-        <v>809.51</v>
+        <v>1514.54</v>
       </c>
       <c r="H146">
-        <v>724.92</v>
+        <v>1643</v>
       </c>
       <c r="I146">
-        <v>723.73</v>
-      </c>
-      <c r="J146">
-        <v>708.23</v>
+        <v>1748.32</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.3">
@@ -5404,28 +5431,28 @@
         <v>11</v>
       </c>
       <c r="C147" s="2">
-        <v>44487</v>
+        <v>44491</v>
       </c>
       <c r="D147" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="E147">
-        <v>22036.95</v>
+        <v>2271.65</v>
       </c>
       <c r="F147">
-        <v>21531.06</v>
+        <v>2257.91</v>
       </c>
       <c r="G147">
-        <v>20240.98</v>
+        <v>2067.2800000000002</v>
       </c>
       <c r="H147">
-        <v>22528.400000000001</v>
+        <v>2339.8000000000002</v>
       </c>
       <c r="I147">
-        <v>22698.06</v>
+        <v>2667.22</v>
       </c>
       <c r="J147">
-        <v>23198.6</v>
+        <v>2806.32</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.3">
@@ -5436,28 +5463,28 @@
         <v>11</v>
       </c>
       <c r="C148" s="2">
-        <v>44487</v>
+        <v>44491</v>
       </c>
       <c r="D148" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E148">
-        <v>660.6</v>
+        <v>1670.25</v>
       </c>
       <c r="F148">
-        <v>639.37</v>
+        <v>1635.79</v>
       </c>
       <c r="G148">
-        <v>565.70000000000005</v>
+        <v>1565.17</v>
       </c>
       <c r="H148">
-        <v>680.42</v>
+        <v>1720.36</v>
       </c>
       <c r="I148">
-        <v>713.77</v>
+        <v>1736.97</v>
       </c>
       <c r="J148">
-        <v>734.73</v>
+        <v>1792.13</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.3">
@@ -5465,31 +5492,31 @@
         <v>10</v>
       </c>
       <c r="B149" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C149" s="2">
-        <v>44483</v>
+        <v>44491</v>
       </c>
       <c r="D149" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="E149">
-        <v>231.05</v>
+        <v>3826</v>
       </c>
       <c r="F149">
-        <v>233.59</v>
+        <v>3568.29</v>
       </c>
       <c r="G149">
-        <v>235.15</v>
+        <v>3216.52</v>
       </c>
       <c r="H149">
-        <v>226.43</v>
+        <v>3940.78</v>
       </c>
       <c r="I149">
-        <v>219.38</v>
+        <v>4139.1499999999996</v>
       </c>
       <c r="J149">
-        <v>202.83</v>
+        <v>4218.3500000000004</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.3">
@@ -5497,31 +5524,25 @@
         <v>10</v>
       </c>
       <c r="B150" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C150" s="2">
-        <v>44483</v>
+        <v>44491</v>
       </c>
       <c r="D150" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E150">
-        <v>615</v>
+        <v>618.35</v>
       </c>
       <c r="F150">
-        <v>617.76</v>
+        <v>580.01</v>
       </c>
       <c r="G150">
-        <v>627.91</v>
+        <v>576.19000000000005</v>
       </c>
       <c r="H150">
-        <v>602.70000000000005</v>
-      </c>
-      <c r="I150">
-        <v>602.15</v>
-      </c>
-      <c r="J150">
-        <v>594.70000000000005</v>
+        <v>636.9</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.3">
@@ -5532,28 +5553,28 @@
         <v>11</v>
       </c>
       <c r="C151" s="2">
-        <v>44483</v>
+        <v>44490</v>
       </c>
       <c r="D151" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="E151">
-        <v>715.95</v>
+        <v>1739</v>
       </c>
       <c r="F151">
-        <v>708.75</v>
+        <v>1661.54</v>
       </c>
       <c r="G151">
-        <v>707.41</v>
+        <v>1575.67</v>
       </c>
       <c r="H151">
-        <v>737.43</v>
+        <v>1788.92</v>
       </c>
       <c r="I151">
-        <v>751.22</v>
+        <v>1791.17</v>
       </c>
       <c r="J151">
-        <v>792.22</v>
+        <v>1828.75</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.3">
@@ -5561,31 +5582,31 @@
         <v>10</v>
       </c>
       <c r="B152" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C152" s="2">
-        <v>44483</v>
+        <v>44490</v>
       </c>
       <c r="D152" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="E152">
-        <v>2279.3000000000002</v>
+        <v>2318.9</v>
       </c>
       <c r="F152">
-        <v>2192.52</v>
+        <v>2353.17</v>
       </c>
       <c r="G152">
-        <v>2184.6799999999998</v>
+        <v>2433.41</v>
       </c>
       <c r="H152">
-        <v>2347.6799999999998</v>
+        <v>2283.27</v>
       </c>
       <c r="I152">
-        <v>2419.13</v>
+        <v>2272.52</v>
       </c>
       <c r="J152">
-        <v>2665.13</v>
+        <v>2184.58</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.3">
@@ -5593,31 +5614,31 @@
         <v>10</v>
       </c>
       <c r="B153" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C153" s="2">
-        <v>44483</v>
+        <v>44490</v>
       </c>
       <c r="D153" t="s">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="E153">
-        <v>1432</v>
+        <v>2215</v>
       </c>
       <c r="F153">
-        <v>1365.27</v>
+        <v>2248.75</v>
       </c>
       <c r="G153">
-        <v>1292.6400000000001</v>
+        <v>2420.09</v>
       </c>
       <c r="H153">
-        <v>1474.96</v>
+        <v>2170.6999999999998</v>
       </c>
       <c r="I153">
-        <v>1556.75</v>
+        <v>2070.5700000000002</v>
       </c>
       <c r="J153">
-        <v>1727.7</v>
+        <v>1752.13</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.3">
@@ -5628,28 +5649,28 @@
         <v>11</v>
       </c>
       <c r="C154" s="2">
-        <v>44483</v>
+        <v>44490</v>
       </c>
       <c r="D154" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E154">
-        <v>1440.35</v>
+        <v>2840.95</v>
       </c>
       <c r="F154">
-        <v>1399.42</v>
+        <v>2776.4</v>
       </c>
       <c r="G154">
-        <v>1344.51</v>
+        <v>2762.74</v>
       </c>
       <c r="H154">
-        <v>1481.82</v>
+        <v>2926.18</v>
       </c>
       <c r="I154">
-        <v>1483.56</v>
+        <v>2940.77</v>
       </c>
       <c r="J154">
-        <v>1536.17</v>
+        <v>3098.92</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.3">
@@ -5657,28 +5678,31 @@
         <v>10</v>
       </c>
       <c r="B155" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C155" s="2">
-        <v>44483</v>
+        <v>44490</v>
       </c>
       <c r="D155" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="E155">
-        <v>855</v>
+        <v>2757.95</v>
       </c>
       <c r="F155">
-        <v>823.23</v>
+        <v>2812.63</v>
       </c>
       <c r="G155">
-        <v>822.2</v>
+        <v>2860.02</v>
       </c>
       <c r="H155">
-        <v>880.65</v>
+        <v>2705.25</v>
       </c>
       <c r="I155">
-        <v>916</v>
+        <v>2702.79</v>
+      </c>
+      <c r="J155">
+        <v>2578</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.3">
@@ -5686,31 +5710,28 @@
         <v>10</v>
       </c>
       <c r="B156" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C156" s="2">
-        <v>44483</v>
+        <v>44490</v>
       </c>
       <c r="D156" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="E156">
-        <v>602.65</v>
+        <v>780</v>
       </c>
       <c r="F156">
-        <v>575.32000000000005</v>
+        <v>785.02</v>
       </c>
       <c r="G156">
-        <v>553.48</v>
+        <v>819.17</v>
       </c>
       <c r="H156">
-        <v>620.73</v>
+        <v>764.4</v>
       </c>
       <c r="I156">
-        <v>630.83000000000004</v>
-      </c>
-      <c r="J156">
-        <v>653.02</v>
+        <v>729.6</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.3">
@@ -5718,31 +5739,31 @@
         <v>10</v>
       </c>
       <c r="B157" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C157" s="2">
-        <v>44483</v>
+        <v>44490</v>
       </c>
       <c r="D157" t="s">
         <v>110</v>
       </c>
       <c r="E157">
-        <v>778.75</v>
+        <v>3013.4</v>
       </c>
       <c r="F157">
-        <v>745.75</v>
+        <v>3093.03</v>
       </c>
       <c r="G157">
-        <v>732.68</v>
+        <v>3209.51</v>
       </c>
       <c r="H157">
-        <v>802.11</v>
+        <v>2953.13</v>
       </c>
       <c r="I157">
-        <v>805.3</v>
+        <v>2921.82</v>
       </c>
       <c r="J157">
-        <v>858.3</v>
+        <v>2836.32</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.3">
@@ -5753,28 +5774,28 @@
         <v>11</v>
       </c>
       <c r="C158" s="2">
-        <v>44483</v>
+        <v>44490</v>
       </c>
       <c r="D158" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="E158">
-        <v>2783.7</v>
+        <v>2070</v>
       </c>
       <c r="F158">
-        <v>2765.46</v>
+        <v>2006.33</v>
       </c>
       <c r="G158">
-        <v>2748.62</v>
+        <v>1886.39</v>
       </c>
       <c r="H158">
-        <v>2847.53</v>
+        <v>2132.1</v>
       </c>
       <c r="I158">
-        <v>2867.21</v>
+        <v>2142.87</v>
       </c>
       <c r="J158">
-        <v>2940.77</v>
+        <v>2211.5500000000002</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.3">
@@ -5785,28 +5806,25 @@
         <v>11</v>
       </c>
       <c r="C159" s="2">
-        <v>44482</v>
+        <v>44489</v>
       </c>
       <c r="D159" t="s">
-        <v>29</v>
+        <v>112</v>
       </c>
       <c r="E159">
-        <v>5975.05</v>
+        <v>756.85</v>
       </c>
       <c r="F159">
-        <v>5821.78</v>
+        <v>714.7</v>
       </c>
       <c r="G159">
-        <v>5391.9</v>
+        <v>710.34</v>
       </c>
       <c r="H159">
-        <v>6154.3</v>
+        <v>779.56</v>
       </c>
       <c r="I159">
-        <v>6420.52</v>
-      </c>
-      <c r="J159">
-        <v>6748.2</v>
+        <v>792.22</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.3">
@@ -5817,28 +5835,28 @@
         <v>11</v>
       </c>
       <c r="C160" s="2">
-        <v>44482</v>
+        <v>44488</v>
       </c>
       <c r="D160" t="s">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="E160">
-        <v>9004.2000000000007</v>
+        <v>3145</v>
       </c>
       <c r="F160">
-        <v>8508.01</v>
+        <v>3104.52</v>
       </c>
       <c r="G160">
-        <v>8023.97</v>
+        <v>3082.78</v>
       </c>
       <c r="H160">
-        <v>9239.27</v>
+        <v>3217.38</v>
       </c>
       <c r="I160">
-        <v>9274.33</v>
+        <v>3239.35</v>
       </c>
       <c r="J160">
-        <v>9669.4500000000007</v>
+        <v>3349.27</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.3">
@@ -5849,28 +5867,28 @@
         <v>11</v>
       </c>
       <c r="C161" s="2">
-        <v>44482</v>
+        <v>44488</v>
       </c>
       <c r="D161" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="E161">
-        <v>1667</v>
+        <v>2315.6999999999998</v>
       </c>
       <c r="F161">
-        <v>1618.92</v>
+        <v>2201.96</v>
       </c>
       <c r="G161">
-        <v>1556.89</v>
+        <v>2197.67</v>
       </c>
       <c r="H161">
-        <v>1717.01</v>
+        <v>2385.17</v>
       </c>
       <c r="I161">
-        <v>1749.1</v>
+        <v>2419.13</v>
       </c>
       <c r="J161">
-        <v>1788.92</v>
+        <v>2665.13</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.3">
@@ -5878,31 +5896,31 @@
         <v>10</v>
       </c>
       <c r="B162" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C162" s="2">
-        <v>44482</v>
+        <v>44487</v>
       </c>
       <c r="D162" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="E162">
-        <v>3970.9</v>
+        <v>738.5</v>
       </c>
       <c r="F162">
-        <v>3930.84</v>
+        <v>752.84</v>
       </c>
       <c r="G162">
-        <v>3814</v>
+        <v>809.51</v>
       </c>
       <c r="H162">
-        <v>4090.03</v>
+        <v>724.92</v>
       </c>
       <c r="I162">
-        <v>4139.1499999999996</v>
+        <v>723.73</v>
       </c>
       <c r="J162">
-        <v>4218.3500000000004</v>
+        <v>708.23</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.3">
@@ -5913,25 +5931,28 @@
         <v>11</v>
       </c>
       <c r="C163" s="2">
-        <v>44482</v>
+        <v>44487</v>
       </c>
       <c r="D163" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="E163">
-        <v>86454.8</v>
+        <v>22036.95</v>
       </c>
       <c r="F163">
-        <v>82346.850000000006</v>
+        <v>21531.06</v>
       </c>
       <c r="G163">
-        <v>80904.34</v>
+        <v>20240.98</v>
       </c>
       <c r="H163">
-        <v>89048.44</v>
+        <v>22528.400000000001</v>
       </c>
       <c r="I163">
-        <v>90508.52</v>
+        <v>22698.06</v>
+      </c>
+      <c r="J163">
+        <v>23198.6</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.3">
@@ -5942,28 +5963,28 @@
         <v>11</v>
       </c>
       <c r="C164" s="2">
-        <v>44482</v>
+        <v>44487</v>
       </c>
       <c r="D164" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E164">
-        <v>89.3</v>
+        <v>660.6</v>
       </c>
       <c r="F164">
-        <v>84.92</v>
+        <v>639.37</v>
       </c>
       <c r="G164">
-        <v>83.72</v>
+        <v>565.70000000000005</v>
       </c>
       <c r="H164">
-        <v>91.6</v>
+        <v>680.42</v>
       </c>
       <c r="I164">
-        <v>91.98</v>
+        <v>713.77</v>
       </c>
       <c r="J164">
-        <v>100.15</v>
+        <v>734.73</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.3">
@@ -5971,31 +5992,31 @@
         <v>10</v>
       </c>
       <c r="B165" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C165" s="2">
-        <v>44482</v>
+        <v>44483</v>
       </c>
       <c r="D165" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="E165">
-        <v>318.7</v>
+        <v>231.05</v>
       </c>
       <c r="F165">
-        <v>296.91000000000003</v>
+        <v>233.59</v>
       </c>
       <c r="G165">
-        <v>230.29</v>
+        <v>235.15</v>
       </c>
       <c r="H165">
-        <v>328.26</v>
+        <v>226.43</v>
       </c>
       <c r="I165">
-        <v>387.22</v>
+        <v>219.38</v>
       </c>
       <c r="J165">
-        <v>429.23</v>
+        <v>202.83</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.3">
@@ -6003,31 +6024,31 @@
         <v>10</v>
       </c>
       <c r="B166" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C166" s="2">
-        <v>44482</v>
+        <v>44483</v>
       </c>
       <c r="D166" t="s">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="E166">
-        <v>160.30000000000001</v>
+        <v>615</v>
       </c>
       <c r="F166">
-        <v>157.29</v>
+        <v>617.76</v>
       </c>
       <c r="G166">
-        <v>151.44999999999999</v>
+        <v>627.91</v>
       </c>
       <c r="H166">
-        <v>165.11</v>
+        <v>602.70000000000005</v>
       </c>
       <c r="I166">
-        <v>165.57</v>
+        <v>602.15</v>
       </c>
       <c r="J166">
-        <v>168.93</v>
+        <v>594.70000000000005</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.3">
@@ -6038,28 +6059,28 @@
         <v>11</v>
       </c>
       <c r="C167" s="2">
-        <v>44481</v>
+        <v>44483</v>
       </c>
       <c r="D167" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E167">
-        <v>798.85</v>
+        <v>715.95</v>
       </c>
       <c r="F167">
-        <v>789.01</v>
+        <v>708.75</v>
       </c>
       <c r="G167">
-        <v>774.78</v>
+        <v>707.41</v>
       </c>
       <c r="H167">
-        <v>822.82</v>
+        <v>737.43</v>
       </c>
       <c r="I167">
-        <v>839.88</v>
+        <v>751.22</v>
       </c>
       <c r="J167">
-        <v>895.73</v>
+        <v>792.22</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.3">
@@ -6070,28 +6091,28 @@
         <v>11</v>
       </c>
       <c r="C168" s="2">
-        <v>44481</v>
+        <v>44483</v>
       </c>
       <c r="D168" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="E168">
-        <v>3342.85</v>
+        <v>2279.3000000000002</v>
       </c>
       <c r="F168">
-        <v>3255.74</v>
+        <v>2192.52</v>
       </c>
       <c r="G168">
-        <v>3252.62</v>
+        <v>2184.6799999999998</v>
       </c>
       <c r="H168">
-        <v>3442.13</v>
+        <v>2347.6799999999998</v>
       </c>
       <c r="I168">
-        <v>3443.14</v>
+        <v>2419.13</v>
       </c>
       <c r="J168">
-        <v>3705.92</v>
+        <v>2665.13</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.3">
@@ -6102,28 +6123,28 @@
         <v>11</v>
       </c>
       <c r="C169" s="2">
-        <v>44481</v>
+        <v>44483</v>
       </c>
       <c r="D169" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E169">
-        <v>484.75</v>
+        <v>1432</v>
       </c>
       <c r="F169">
-        <v>480.99</v>
+        <v>1365.27</v>
       </c>
       <c r="G169">
-        <v>473.74</v>
+        <v>1292.6400000000001</v>
       </c>
       <c r="H169">
-        <v>495.85</v>
+        <v>1474.96</v>
       </c>
       <c r="I169">
-        <v>499.29</v>
+        <v>1556.75</v>
       </c>
       <c r="J169">
-        <v>507.47</v>
+        <v>1727.7</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.3">
@@ -6134,28 +6155,28 @@
         <v>11</v>
       </c>
       <c r="C170" s="2">
-        <v>44481</v>
+        <v>44483</v>
       </c>
       <c r="D170" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E170">
-        <v>2917.95</v>
+        <v>1440.35</v>
       </c>
       <c r="F170">
-        <v>2835.55</v>
+        <v>1399.42</v>
       </c>
       <c r="G170">
-        <v>2736.84</v>
+        <v>1344.51</v>
       </c>
       <c r="H170">
-        <v>3005.49</v>
+        <v>1481.82</v>
       </c>
       <c r="I170">
-        <v>3058.07</v>
+        <v>1483.56</v>
       </c>
       <c r="J170">
-        <v>3147.37</v>
+        <v>1536.17</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.3">
@@ -6163,28 +6184,28 @@
         <v>10</v>
       </c>
       <c r="B171" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C171" s="2">
-        <v>44480</v>
+        <v>44483</v>
       </c>
       <c r="D171" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E171">
-        <v>717.25</v>
+        <v>855</v>
       </c>
       <c r="F171">
-        <v>731.07</v>
+        <v>823.23</v>
+      </c>
+      <c r="G171">
+        <v>822.2</v>
       </c>
       <c r="H171">
-        <v>702.9</v>
+        <v>880.65</v>
       </c>
       <c r="I171">
-        <v>694.58</v>
-      </c>
-      <c r="J171">
-        <v>666.77</v>
+        <v>916</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.3">
@@ -6195,28 +6216,28 @@
         <v>11</v>
       </c>
       <c r="C172" s="2">
-        <v>44480</v>
+        <v>44483</v>
       </c>
       <c r="D172" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="E172">
-        <v>795</v>
+        <v>602.65</v>
       </c>
       <c r="F172">
-        <v>766.63</v>
+        <v>575.32000000000005</v>
       </c>
       <c r="G172">
-        <v>757.05</v>
+        <v>553.48</v>
       </c>
       <c r="H172">
-        <v>818.85</v>
+        <v>620.73</v>
       </c>
       <c r="I172">
-        <v>842.95</v>
+        <v>630.83000000000004</v>
       </c>
       <c r="J172">
-        <v>927.2</v>
+        <v>653.02</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.3">
@@ -6227,28 +6248,28 @@
         <v>11</v>
       </c>
       <c r="C173" s="2">
-        <v>44480</v>
+        <v>44483</v>
       </c>
       <c r="D173" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E173">
-        <v>1028.05</v>
+        <v>778.75</v>
       </c>
       <c r="F173">
-        <v>972.87</v>
+        <v>745.75</v>
       </c>
       <c r="G173">
-        <v>851.74</v>
+        <v>732.68</v>
       </c>
       <c r="H173">
-        <v>1058.8900000000001</v>
+        <v>802.11</v>
       </c>
       <c r="I173">
-        <v>1083.95</v>
+        <v>805.3</v>
       </c>
       <c r="J173">
-        <v>1108.28</v>
+        <v>858.3</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.3">
@@ -6259,28 +6280,28 @@
         <v>11</v>
       </c>
       <c r="C174" s="2">
-        <v>44480</v>
+        <v>44483</v>
       </c>
       <c r="D174" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="E174">
-        <v>538.70000000000005</v>
+        <v>2783.7</v>
       </c>
       <c r="F174">
-        <v>500.38</v>
+        <v>2765.46</v>
       </c>
       <c r="G174">
-        <v>482.31</v>
+        <v>2748.62</v>
       </c>
       <c r="H174">
-        <v>554.86</v>
+        <v>2847.53</v>
       </c>
       <c r="I174">
-        <v>561.54999999999995</v>
+        <v>2867.21</v>
       </c>
       <c r="J174">
-        <v>624</v>
+        <v>2940.77</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.3">
@@ -6291,28 +6312,28 @@
         <v>11</v>
       </c>
       <c r="C175" s="2">
-        <v>44480</v>
+        <v>44482</v>
       </c>
       <c r="D175" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="E175">
-        <v>2473.8000000000002</v>
+        <v>5975.05</v>
       </c>
       <c r="F175">
-        <v>2417.36</v>
+        <v>5821.78</v>
       </c>
       <c r="G175">
-        <v>2326.44</v>
+        <v>5391.9</v>
       </c>
       <c r="H175">
-        <v>2527.7800000000002</v>
+        <v>6154.3</v>
       </c>
       <c r="I175">
-        <v>2548.0100000000002</v>
+        <v>6420.52</v>
       </c>
       <c r="J175">
-        <v>2576.38</v>
+        <v>6748.2</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.3">
@@ -6323,28 +6344,28 @@
         <v>11</v>
       </c>
       <c r="C176" s="2">
-        <v>44480</v>
+        <v>44482</v>
       </c>
       <c r="D176" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="E176">
-        <v>3734.45</v>
+        <v>9004.2000000000007</v>
       </c>
       <c r="F176">
-        <v>3549.18</v>
+        <v>8508.01</v>
       </c>
       <c r="G176">
-        <v>3044.82</v>
+        <v>8023.97</v>
       </c>
       <c r="H176">
-        <v>3846.48</v>
+        <v>9239.27</v>
       </c>
       <c r="I176">
-        <v>3961.15</v>
+        <v>9274.33</v>
       </c>
       <c r="J176">
-        <v>4090.47</v>
+        <v>9669.4500000000007</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.3">
@@ -6355,28 +6376,28 @@
         <v>11</v>
       </c>
       <c r="C177" s="2">
-        <v>44480</v>
+        <v>44482</v>
       </c>
       <c r="D177" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="E177">
-        <v>5133</v>
+        <v>1667</v>
       </c>
       <c r="F177">
-        <v>5066.26</v>
+        <v>1618.92</v>
       </c>
       <c r="G177">
-        <v>5019.82</v>
+        <v>1556.89</v>
       </c>
       <c r="H177">
-        <v>5286.99</v>
+        <v>1717.01</v>
       </c>
       <c r="I177">
-        <v>5494.43</v>
+        <v>1749.1</v>
       </c>
       <c r="J177">
-        <v>6065.08</v>
+        <v>1788.92</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.3">
@@ -6387,28 +6408,28 @@
         <v>11</v>
       </c>
       <c r="C178" s="2">
-        <v>44480</v>
+        <v>44482</v>
       </c>
       <c r="D178" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="E178">
-        <v>2626</v>
+        <v>3970.9</v>
       </c>
       <c r="F178">
-        <v>2431.85</v>
+        <v>3930.84</v>
       </c>
       <c r="G178">
-        <v>2167.09</v>
+        <v>3814</v>
       </c>
       <c r="H178">
-        <v>2704.78</v>
+        <v>4090.03</v>
       </c>
       <c r="I178">
-        <v>2806.32</v>
+        <v>4139.1499999999996</v>
       </c>
       <c r="J178">
-        <v>2945.43</v>
+        <v>4218.3500000000004</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.3">
@@ -6419,28 +6440,25 @@
         <v>11</v>
       </c>
       <c r="C179" s="2">
-        <v>44480</v>
+        <v>44482</v>
       </c>
       <c r="D179" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="E179">
-        <v>139</v>
+        <v>86454.8</v>
       </c>
       <c r="F179">
-        <v>129.87</v>
+        <v>82346.850000000006</v>
       </c>
       <c r="G179">
-        <v>127.71</v>
+        <v>80904.34</v>
       </c>
       <c r="H179">
-        <v>143.16999999999999</v>
+        <v>89048.44</v>
       </c>
       <c r="I179">
-        <v>144.22999999999999</v>
-      </c>
-      <c r="J179">
-        <v>159.18</v>
+        <v>90508.52</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.3">
@@ -6451,28 +6469,28 @@
         <v>11</v>
       </c>
       <c r="C180" s="2">
-        <v>44480</v>
+        <v>44482</v>
       </c>
       <c r="D180" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E180">
-        <v>3119.9</v>
+        <v>89.3</v>
       </c>
       <c r="F180">
-        <v>3097.28</v>
+        <v>84.92</v>
       </c>
       <c r="G180">
-        <v>3076.98</v>
+        <v>83.72</v>
       </c>
       <c r="H180">
-        <v>3213.5</v>
+        <v>91.6</v>
       </c>
       <c r="I180">
-        <v>3217.38</v>
+        <v>91.98</v>
       </c>
       <c r="J180">
-        <v>3349.27</v>
+        <v>100.15</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.3">
@@ -6483,28 +6501,28 @@
         <v>11</v>
       </c>
       <c r="C181" s="2">
-        <v>44480</v>
+        <v>44482</v>
       </c>
       <c r="D181" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="E181">
-        <v>3460.5</v>
+        <v>318.7</v>
       </c>
       <c r="F181">
-        <v>3282.12</v>
+        <v>296.91000000000003</v>
       </c>
       <c r="G181">
-        <v>3275.75</v>
+        <v>230.29</v>
       </c>
       <c r="H181">
-        <v>3564.32</v>
+        <v>328.26</v>
       </c>
       <c r="I181">
-        <v>3801.05</v>
+        <v>387.22</v>
       </c>
       <c r="J181">
-        <v>4350.75</v>
+        <v>429.23</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.3">
@@ -6515,28 +6533,28 @@
         <v>11</v>
       </c>
       <c r="C182" s="2">
-        <v>44480</v>
+        <v>44482</v>
       </c>
       <c r="D182" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="E182">
-        <v>17838.5</v>
+        <v>160.30000000000001</v>
       </c>
       <c r="F182">
-        <v>17531.150000000001</v>
+        <v>157.29</v>
       </c>
       <c r="G182">
-        <v>16267.43</v>
+        <v>151.44999999999999</v>
       </c>
       <c r="H182">
-        <v>18373.650000000001</v>
+        <v>165.11</v>
       </c>
       <c r="I182">
-        <v>18905.150000000001</v>
+        <v>165.57</v>
       </c>
       <c r="J182">
-        <v>19464.349999999999</v>
+        <v>168.93</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.3">
@@ -6547,28 +6565,28 @@
         <v>11</v>
       </c>
       <c r="C183" s="2">
-        <v>44480</v>
+        <v>44481</v>
       </c>
       <c r="D183" t="s">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="E183">
-        <v>1742.9</v>
+        <v>798.85</v>
       </c>
       <c r="F183">
-        <v>1721.67</v>
+        <v>789.01</v>
       </c>
       <c r="G183">
-        <v>1670.43</v>
+        <v>774.78</v>
       </c>
       <c r="H183">
-        <v>1790.23</v>
+        <v>822.82</v>
       </c>
       <c r="I183">
-        <v>1795.19</v>
+        <v>839.88</v>
       </c>
       <c r="J183">
-        <v>1833.88</v>
+        <v>895.73</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.3">
@@ -6579,25 +6597,28 @@
         <v>11</v>
       </c>
       <c r="C184" s="2">
-        <v>44477</v>
+        <v>44481</v>
       </c>
       <c r="D184" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="E184">
-        <v>85929.95</v>
+        <v>3342.85</v>
       </c>
       <c r="F184">
-        <v>82206.34</v>
+        <v>3255.74</v>
       </c>
       <c r="G184">
-        <v>80662.600000000006</v>
+        <v>3252.62</v>
       </c>
       <c r="H184">
-        <v>88507.85</v>
+        <v>3442.13</v>
       </c>
       <c r="I184">
-        <v>90508.52</v>
+        <v>3443.14</v>
+      </c>
+      <c r="J184">
+        <v>3705.92</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.3">
@@ -6608,28 +6629,28 @@
         <v>11</v>
       </c>
       <c r="C185" s="2">
-        <v>44477</v>
+        <v>44481</v>
       </c>
       <c r="D185" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="E185">
-        <v>1554.65</v>
+        <v>484.75</v>
       </c>
       <c r="F185">
-        <v>1490.79</v>
+        <v>480.99</v>
       </c>
       <c r="G185">
-        <v>1485.45</v>
+        <v>473.74</v>
       </c>
       <c r="H185">
-        <v>1601.29</v>
+        <v>495.85</v>
       </c>
       <c r="I185">
-        <v>1603.92</v>
+        <v>499.29</v>
       </c>
       <c r="J185">
-        <v>1739.73</v>
+        <v>507.47</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.3">
@@ -6640,28 +6661,28 @@
         <v>11</v>
       </c>
       <c r="C186" s="2">
-        <v>44477</v>
+        <v>44481</v>
       </c>
       <c r="D186" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="E186">
-        <v>5652</v>
+        <v>2917.95</v>
       </c>
       <c r="F186">
-        <v>5400.74</v>
+        <v>2835.55</v>
       </c>
       <c r="G186">
-        <v>5154.84</v>
+        <v>2736.84</v>
       </c>
       <c r="H186">
-        <v>5821.56</v>
+        <v>3005.49</v>
       </c>
       <c r="I186">
-        <v>5953.1</v>
+        <v>3058.07</v>
       </c>
       <c r="J186">
-        <v>6190.37</v>
+        <v>3147.37</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.3">
@@ -6669,31 +6690,28 @@
         <v>10</v>
       </c>
       <c r="B187" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C187" s="2">
-        <v>44477</v>
+        <v>44480</v>
       </c>
       <c r="D187" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="E187">
-        <v>4797.5</v>
+        <v>717.25</v>
       </c>
       <c r="F187">
-        <v>4694.4799999999996</v>
-      </c>
-      <c r="G187">
-        <v>4618.71</v>
+        <v>731.07</v>
       </c>
       <c r="H187">
-        <v>4941.43</v>
+        <v>702.9</v>
       </c>
       <c r="I187">
-        <v>5142.12</v>
+        <v>694.58</v>
       </c>
       <c r="J187">
-        <v>5645.77</v>
+        <v>666.77</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.3">
@@ -6704,28 +6722,28 @@
         <v>11</v>
       </c>
       <c r="C188" s="2">
-        <v>44477</v>
+        <v>44480</v>
       </c>
       <c r="D188" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="E188">
-        <v>1332</v>
+        <v>795</v>
       </c>
       <c r="F188">
-        <v>1330.59</v>
+        <v>766.63</v>
       </c>
       <c r="G188">
-        <v>1278.68</v>
+        <v>757.05</v>
       </c>
       <c r="H188">
-        <v>1371.96</v>
+        <v>818.85</v>
       </c>
       <c r="I188">
-        <v>1382.45</v>
+        <v>842.95</v>
       </c>
       <c r="J188">
-        <v>1432.3</v>
+        <v>927.2</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.3">
@@ -6736,28 +6754,28 @@
         <v>11</v>
       </c>
       <c r="C189" s="2">
-        <v>44477</v>
+        <v>44480</v>
       </c>
       <c r="D189" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="E189">
-        <v>6673.4</v>
+        <v>1028.05</v>
       </c>
       <c r="F189">
-        <v>6636.4</v>
+        <v>972.87</v>
       </c>
       <c r="G189">
-        <v>6083.52</v>
+        <v>851.74</v>
       </c>
       <c r="H189">
-        <v>6873.6</v>
+        <v>1058.8900000000001</v>
       </c>
       <c r="I189">
-        <v>6909.67</v>
+        <v>1083.95</v>
       </c>
       <c r="J189">
-        <v>7148.8</v>
+        <v>1108.28</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.3">
@@ -6768,28 +6786,28 @@
         <v>11</v>
       </c>
       <c r="C190" s="2">
-        <v>44477</v>
+        <v>44480</v>
       </c>
       <c r="D190" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="E190">
-        <v>486</v>
+        <v>538.70000000000005</v>
       </c>
       <c r="F190">
-        <v>479.3</v>
+        <v>500.38</v>
       </c>
       <c r="G190">
-        <v>457.25</v>
+        <v>482.31</v>
       </c>
       <c r="H190">
-        <v>500.58</v>
+        <v>554.86</v>
       </c>
       <c r="I190">
-        <v>515.03</v>
+        <v>561.54999999999995</v>
       </c>
       <c r="J190">
-        <v>528.58000000000004</v>
+        <v>624</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.3">
@@ -6800,28 +6818,28 @@
         <v>11</v>
       </c>
       <c r="C191" s="2">
-        <v>44476</v>
+        <v>44480</v>
       </c>
       <c r="D191" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="E191">
-        <v>1272.45</v>
+        <v>2473.8000000000002</v>
       </c>
       <c r="F191">
-        <v>1230.3900000000001</v>
+        <v>2417.36</v>
       </c>
       <c r="G191">
-        <v>1108.74</v>
+        <v>2326.44</v>
       </c>
       <c r="H191">
-        <v>1310.6199999999999</v>
+        <v>2527.7800000000002</v>
       </c>
       <c r="I191">
-        <v>1320.7</v>
+        <v>2548.0100000000002</v>
       </c>
       <c r="J191">
-        <v>1372.03</v>
+        <v>2576.38</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.3">
@@ -6832,28 +6850,28 @@
         <v>11</v>
       </c>
       <c r="C192" s="2">
-        <v>44476</v>
+        <v>44480</v>
       </c>
       <c r="D192" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="E192">
-        <v>2457.1</v>
+        <v>3734.45</v>
       </c>
       <c r="F192">
-        <v>2408.6999999999998</v>
+        <v>3549.18</v>
       </c>
       <c r="G192">
-        <v>2319.92</v>
+        <v>3044.82</v>
       </c>
       <c r="H192">
-        <v>2527.7800000000002</v>
+        <v>3846.48</v>
       </c>
       <c r="I192">
-        <v>2530.81</v>
+        <v>3961.15</v>
       </c>
       <c r="J192">
-        <v>2576.38</v>
+        <v>4090.47</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.3">
@@ -6864,28 +6882,28 @@
         <v>11</v>
       </c>
       <c r="C193" s="2">
-        <v>44476</v>
+        <v>44480</v>
       </c>
       <c r="D193" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="E193">
-        <v>3773.95</v>
+        <v>5133</v>
       </c>
       <c r="F193">
-        <v>3532.03</v>
+        <v>5066.26</v>
       </c>
       <c r="G193">
-        <v>3029.9</v>
+        <v>5019.82</v>
       </c>
       <c r="H193">
-        <v>3887.17</v>
+        <v>5286.99</v>
       </c>
       <c r="I193">
-        <v>3961.15</v>
+        <v>5494.43</v>
       </c>
       <c r="J193">
-        <v>4090.47</v>
+        <v>6065.08</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.3">
@@ -6896,28 +6914,28 @@
         <v>11</v>
       </c>
       <c r="C194" s="2">
-        <v>44476</v>
+        <v>44480</v>
       </c>
       <c r="D194" t="s">
-        <v>118</v>
+        <v>28</v>
       </c>
       <c r="E194">
-        <v>3858</v>
+        <v>2626</v>
       </c>
       <c r="F194">
-        <v>3834.24</v>
+        <v>2431.85</v>
       </c>
       <c r="G194">
-        <v>3644.1</v>
+        <v>2167.09</v>
       </c>
       <c r="H194">
-        <v>3935.87</v>
+        <v>2704.78</v>
       </c>
       <c r="I194">
-        <v>3973.74</v>
+        <v>2806.32</v>
       </c>
       <c r="J194">
-        <v>4096.18</v>
+        <v>2945.43</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.3">
@@ -6928,28 +6946,28 @@
         <v>11</v>
       </c>
       <c r="C195" s="2">
-        <v>44476</v>
+        <v>44480</v>
       </c>
       <c r="D195" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E195">
-        <v>3982.95</v>
+        <v>139</v>
       </c>
       <c r="F195">
-        <v>3909.17</v>
+        <v>129.87</v>
       </c>
       <c r="G195">
-        <v>3772.54</v>
+        <v>127.71</v>
       </c>
       <c r="H195">
-        <v>4102.4399999999996</v>
+        <v>143.16999999999999</v>
       </c>
       <c r="I195">
-        <v>4139.1499999999996</v>
+        <v>144.22999999999999</v>
       </c>
       <c r="J195">
-        <v>4218.3500000000004</v>
+        <v>159.18</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.3">
@@ -6960,28 +6978,28 @@
         <v>11</v>
       </c>
       <c r="C196" s="2">
-        <v>44476</v>
+        <v>44480</v>
       </c>
       <c r="D196" t="s">
-        <v>119</v>
+        <v>36</v>
       </c>
       <c r="E196">
-        <v>401.5</v>
+        <v>3119.9</v>
       </c>
       <c r="F196">
-        <v>381.21</v>
+        <v>3097.28</v>
       </c>
       <c r="G196">
-        <v>331.16</v>
+        <v>3076.98</v>
       </c>
       <c r="H196">
-        <v>413.55</v>
+        <v>3213.5</v>
       </c>
       <c r="I196">
-        <v>421.35</v>
+        <v>3217.38</v>
       </c>
       <c r="J196">
-        <v>429</v>
+        <v>3349.27</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.3">
@@ -6992,28 +7010,28 @@
         <v>11</v>
       </c>
       <c r="C197" s="2">
-        <v>44476</v>
+        <v>44480</v>
       </c>
       <c r="D197" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E197">
-        <v>4714.3999999999996</v>
+        <v>3460.5</v>
       </c>
       <c r="F197">
-        <v>4617.8</v>
+        <v>3282.12</v>
       </c>
       <c r="G197">
-        <v>4153.29</v>
+        <v>3275.75</v>
       </c>
       <c r="H197">
-        <v>4855.83</v>
+        <v>3564.32</v>
       </c>
       <c r="I197">
-        <v>5178.6000000000004</v>
+        <v>3801.05</v>
       </c>
       <c r="J197">
-        <v>5419.13</v>
+        <v>4350.75</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.3">
@@ -7021,31 +7039,31 @@
         <v>10</v>
       </c>
       <c r="B198" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C198" s="2">
-        <v>44475</v>
+        <v>44480</v>
       </c>
       <c r="D198" t="s">
-        <v>121</v>
+        <v>54</v>
       </c>
       <c r="E198">
-        <v>47</v>
+        <v>17838.5</v>
       </c>
       <c r="F198">
-        <v>47.8</v>
+        <v>17531.150000000001</v>
       </c>
       <c r="G198">
-        <v>51.67</v>
+        <v>16267.43</v>
       </c>
       <c r="H198">
-        <v>46.06</v>
+        <v>18373.650000000001</v>
       </c>
       <c r="I198">
-        <v>45.17</v>
+        <v>18905.150000000001</v>
       </c>
       <c r="J198">
-        <v>43.03</v>
+        <v>19464.349999999999</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.3">
@@ -7053,31 +7071,31 @@
         <v>10</v>
       </c>
       <c r="B199" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C199" s="2">
-        <v>44475</v>
+        <v>44480</v>
       </c>
       <c r="D199" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E199">
-        <v>230.45</v>
+        <v>1742.9</v>
       </c>
       <c r="F199">
-        <v>233.65</v>
+        <v>1721.67</v>
       </c>
       <c r="G199">
-        <v>235.81</v>
+        <v>1670.43</v>
       </c>
       <c r="H199">
-        <v>225.84</v>
+        <v>1790.23</v>
       </c>
       <c r="I199">
-        <v>219.38</v>
+        <v>1795.19</v>
       </c>
       <c r="J199">
-        <v>202.83</v>
+        <v>1833.88</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.3">
@@ -7088,28 +7106,25 @@
         <v>11</v>
       </c>
       <c r="C200" s="2">
-        <v>44475</v>
+        <v>44477</v>
       </c>
       <c r="D200" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E200">
-        <v>3940</v>
+        <v>85929.95</v>
       </c>
       <c r="F200">
-        <v>3856.8</v>
+        <v>82206.34</v>
       </c>
       <c r="G200">
-        <v>3692.26</v>
+        <v>80662.600000000006</v>
       </c>
       <c r="H200">
-        <v>4050.97</v>
+        <v>88507.85</v>
       </c>
       <c r="I200">
-        <v>4058.2</v>
-      </c>
-      <c r="J200">
-        <v>4087.87</v>
+        <v>90508.52</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.3">
@@ -7117,31 +7132,31 @@
         <v>10</v>
       </c>
       <c r="B201" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C201" s="2">
-        <v>44474</v>
+        <v>44477</v>
       </c>
       <c r="D201" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="E201">
-        <v>232.15</v>
+        <v>1554.65</v>
       </c>
       <c r="F201">
-        <v>233.68</v>
+        <v>1490.79</v>
       </c>
       <c r="G201">
-        <v>236</v>
+        <v>1485.45</v>
       </c>
       <c r="H201">
-        <v>227.51</v>
+        <v>1601.29</v>
       </c>
       <c r="I201">
-        <v>219.38</v>
+        <v>1603.92</v>
       </c>
       <c r="J201">
-        <v>202.83</v>
+        <v>1739.73</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.3">
@@ -7152,28 +7167,28 @@
         <v>11</v>
       </c>
       <c r="C202" s="2">
-        <v>44474</v>
+        <v>44477</v>
       </c>
       <c r="D202" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="E202">
-        <v>1293.6500000000001</v>
+        <v>5652</v>
       </c>
       <c r="F202">
-        <v>1268.21</v>
+        <v>5400.74</v>
       </c>
       <c r="G202">
-        <v>1167.44</v>
+        <v>5154.84</v>
       </c>
       <c r="H202">
-        <v>1332.46</v>
+        <v>5821.56</v>
       </c>
       <c r="I202">
-        <v>1386.87</v>
+        <v>5953.1</v>
       </c>
       <c r="J202">
-        <v>1440.53</v>
+        <v>6190.37</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.3">
@@ -7184,28 +7199,28 @@
         <v>11</v>
       </c>
       <c r="C203" s="2">
-        <v>44474</v>
+        <v>44477</v>
       </c>
       <c r="D203" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="E203">
-        <v>132.85</v>
+        <v>4797.5</v>
       </c>
       <c r="F203">
-        <v>127.5</v>
+        <v>4694.4799999999996</v>
       </c>
       <c r="G203">
-        <v>126.76</v>
+        <v>4618.71</v>
       </c>
       <c r="H203">
-        <v>136.84</v>
+        <v>4941.43</v>
       </c>
       <c r="I203">
-        <v>139.02000000000001</v>
+        <v>5142.12</v>
       </c>
       <c r="J203">
-        <v>141.63</v>
+        <v>5645.77</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.3">
@@ -7216,28 +7231,28 @@
         <v>11</v>
       </c>
       <c r="C204" s="2">
-        <v>44474</v>
+        <v>44477</v>
       </c>
       <c r="D204" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="E204">
-        <v>33725</v>
+        <v>1332</v>
       </c>
       <c r="F204">
-        <v>32686.36</v>
+        <v>1330.59</v>
       </c>
       <c r="G204">
-        <v>32151.46</v>
+        <v>1278.68</v>
       </c>
       <c r="H204">
-        <v>34736.75</v>
+        <v>1371.96</v>
       </c>
       <c r="I204">
-        <v>35088.800000000003</v>
+        <v>1382.45</v>
       </c>
       <c r="J204">
-        <v>36216.769999999997</v>
+        <v>1432.3</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.3">
@@ -7248,28 +7263,28 @@
         <v>11</v>
       </c>
       <c r="C205" s="2">
-        <v>44473</v>
+        <v>44477</v>
       </c>
       <c r="D205" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="E205">
-        <v>3201.05</v>
+        <v>6673.4</v>
       </c>
       <c r="F205">
-        <v>3019.97</v>
+        <v>6636.4</v>
       </c>
       <c r="G205">
-        <v>2662.47</v>
+        <v>6083.52</v>
       </c>
       <c r="H205">
-        <v>3297.08</v>
+        <v>6873.6</v>
       </c>
       <c r="I205">
-        <v>3356.63</v>
+        <v>6909.67</v>
       </c>
       <c r="J205">
-        <v>3442.13</v>
+        <v>7148.8</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.3">
@@ -7280,28 +7295,28 @@
         <v>11</v>
       </c>
       <c r="C206" s="2">
-        <v>44473</v>
+        <v>44477</v>
       </c>
       <c r="D206" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E206">
-        <v>101.1</v>
+        <v>486</v>
       </c>
       <c r="F206">
-        <v>94.24</v>
+        <v>479.3</v>
       </c>
       <c r="G206">
-        <v>89.24</v>
+        <v>457.25</v>
       </c>
       <c r="H206">
-        <v>104.13</v>
+        <v>500.58</v>
       </c>
       <c r="I206">
-        <v>106.55</v>
+        <v>515.03</v>
       </c>
       <c r="J206">
-        <v>110.93</v>
+        <v>528.58000000000004</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.3">
@@ -7312,28 +7327,28 @@
         <v>11</v>
       </c>
       <c r="C207" s="2">
-        <v>44473</v>
+        <v>44476</v>
       </c>
       <c r="D207" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
       <c r="E207">
-        <v>1029.5</v>
+        <v>1272.45</v>
       </c>
       <c r="F207">
-        <v>963.54</v>
+        <v>1230.3900000000001</v>
       </c>
       <c r="G207">
-        <v>844.08</v>
+        <v>1108.74</v>
       </c>
       <c r="H207">
-        <v>1060.3800000000001</v>
+        <v>1310.6199999999999</v>
       </c>
       <c r="I207">
-        <v>1083.95</v>
+        <v>1320.7</v>
       </c>
       <c r="J207">
-        <v>1108.28</v>
+        <v>1372.03</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.3">
@@ -7344,28 +7359,28 @@
         <v>11</v>
       </c>
       <c r="C208" s="2">
-        <v>44473</v>
+        <v>44476</v>
       </c>
       <c r="D208" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="E208">
-        <v>4243.1000000000004</v>
+        <v>2457.1</v>
       </c>
       <c r="F208">
-        <v>4152.6499999999996</v>
+        <v>2408.6999999999998</v>
       </c>
       <c r="G208">
-        <v>3531.62</v>
+        <v>2319.92</v>
       </c>
       <c r="H208">
-        <v>4370.3900000000003</v>
+        <v>2527.7800000000002</v>
       </c>
       <c r="I208">
-        <v>4765.1499999999996</v>
+        <v>2530.81</v>
       </c>
       <c r="J208">
-        <v>5047.68</v>
+        <v>2576.38</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.3">
@@ -7376,28 +7391,28 @@
         <v>11</v>
       </c>
       <c r="C209" s="2">
-        <v>44473</v>
+        <v>44476</v>
       </c>
       <c r="D209" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="E209">
-        <v>1388.8</v>
+        <v>3773.95</v>
       </c>
       <c r="F209">
-        <v>1371.46</v>
+        <v>3532.03</v>
       </c>
       <c r="G209">
-        <v>1209.3599999999999</v>
+        <v>3029.9</v>
       </c>
       <c r="H209">
-        <v>1430.46</v>
+        <v>3887.17</v>
       </c>
       <c r="I209">
-        <v>1464.22</v>
+        <v>3961.15</v>
       </c>
       <c r="J209">
-        <v>1494.72</v>
+        <v>4090.47</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.3">
@@ -7408,28 +7423,28 @@
         <v>11</v>
       </c>
       <c r="C210" s="2">
-        <v>44473</v>
+        <v>44476</v>
       </c>
       <c r="D210" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="E210">
-        <v>158.9</v>
+        <v>3858</v>
       </c>
       <c r="F210">
-        <v>155.91999999999999</v>
+        <v>3834.24</v>
       </c>
       <c r="G210">
-        <v>152.29</v>
+        <v>3644.1</v>
       </c>
       <c r="H210">
-        <v>163.66999999999999</v>
+        <v>3935.87</v>
       </c>
       <c r="I210">
-        <v>166.03</v>
+        <v>3973.74</v>
       </c>
       <c r="J210">
-        <v>170.13</v>
+        <v>4096.18</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.3">
@@ -7440,28 +7455,28 @@
         <v>11</v>
       </c>
       <c r="C211" s="2">
-        <v>44473</v>
+        <v>44476</v>
       </c>
       <c r="D211" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="E211">
-        <v>17736.25</v>
+        <v>3982.95</v>
       </c>
       <c r="F211">
-        <v>17299.48</v>
+        <v>3909.17</v>
       </c>
       <c r="G211">
-        <v>15881.28</v>
+        <v>3772.54</v>
       </c>
       <c r="H211">
-        <v>18268.34</v>
+        <v>4102.4399999999996</v>
       </c>
       <c r="I211">
-        <v>18905.150000000001</v>
+        <v>4139.1499999999996</v>
       </c>
       <c r="J211">
-        <v>19464.349999999999</v>
+        <v>4218.3500000000004</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.3">
@@ -7472,28 +7487,28 @@
         <v>11</v>
       </c>
       <c r="C212" s="2">
-        <v>44473</v>
+        <v>44476</v>
       </c>
       <c r="D212" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="E212">
-        <v>2835.3</v>
+        <v>401.5</v>
       </c>
       <c r="F212">
-        <v>2649.53</v>
+        <v>381.21</v>
       </c>
       <c r="G212">
-        <v>2600.65</v>
+        <v>331.16</v>
       </c>
       <c r="H212">
-        <v>2920.36</v>
+        <v>413.55</v>
       </c>
       <c r="I212">
-        <v>2997.9</v>
+        <v>421.35</v>
       </c>
       <c r="J212">
-        <v>3366.85</v>
+        <v>429</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.3">
@@ -7504,28 +7519,28 @@
         <v>11</v>
       </c>
       <c r="C213" s="2">
-        <v>44473</v>
+        <v>44476</v>
       </c>
       <c r="D213" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E213">
-        <v>7669.95</v>
+        <v>4714.3999999999996</v>
       </c>
       <c r="F213">
-        <v>7571.87</v>
+        <v>4617.8</v>
       </c>
       <c r="G213">
-        <v>6979.07</v>
+        <v>4153.29</v>
       </c>
       <c r="H213">
-        <v>7900.05</v>
+        <v>4855.83</v>
       </c>
       <c r="I213">
-        <v>8004.48</v>
+        <v>5178.6000000000004</v>
       </c>
       <c r="J213">
-        <v>8172.68</v>
+        <v>5419.13</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.3">
@@ -7533,31 +7548,31 @@
         <v>10</v>
       </c>
       <c r="B214" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C214" s="2">
-        <v>44473</v>
+        <v>44475</v>
       </c>
       <c r="D214" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="E214">
-        <v>699.55</v>
+        <v>47</v>
       </c>
       <c r="F214">
-        <v>672.62</v>
+        <v>47.8</v>
       </c>
       <c r="G214">
-        <v>625.88</v>
+        <v>51.67</v>
       </c>
       <c r="H214">
-        <v>718.13</v>
+        <v>46.06</v>
       </c>
       <c r="I214">
-        <v>720.54</v>
+        <v>45.17</v>
       </c>
       <c r="J214">
-        <v>726.03</v>
+        <v>43.03</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.3">
@@ -7565,31 +7580,31 @@
         <v>10</v>
       </c>
       <c r="B215" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C215" s="2">
-        <v>44470</v>
+        <v>44475</v>
       </c>
       <c r="D215" t="s">
-        <v>119</v>
+        <v>49</v>
       </c>
       <c r="E215">
-        <v>403.5</v>
+        <v>230.45</v>
       </c>
       <c r="F215">
-        <v>377.58</v>
+        <v>233.65</v>
       </c>
       <c r="G215">
-        <v>328.08</v>
+        <v>235.81</v>
       </c>
       <c r="H215">
-        <v>415.61</v>
+        <v>225.84</v>
       </c>
       <c r="I215">
-        <v>421.35</v>
+        <v>219.38</v>
       </c>
       <c r="J215">
-        <v>429</v>
+        <v>202.83</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.3">
@@ -7600,28 +7615,28 @@
         <v>11</v>
       </c>
       <c r="C216" s="2">
-        <v>44470</v>
+        <v>44475</v>
       </c>
       <c r="D216" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="E216">
-        <v>1517.65</v>
+        <v>3940</v>
       </c>
       <c r="F216">
-        <v>1515.92</v>
+        <v>3856.8</v>
       </c>
       <c r="G216">
-        <v>1513.01</v>
+        <v>3692.26</v>
       </c>
       <c r="H216">
-        <v>1563.18</v>
+        <v>4050.97</v>
       </c>
       <c r="I216">
-        <v>1615.37</v>
+        <v>4058.2</v>
       </c>
       <c r="J216">
-        <v>1748.32</v>
+        <v>4087.87</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.3">
@@ -7629,31 +7644,31 @@
         <v>10</v>
       </c>
       <c r="B217" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C217" s="2">
-        <v>44470</v>
+        <v>44474</v>
       </c>
       <c r="D217" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="E217">
-        <v>1836</v>
+        <v>232.15</v>
       </c>
       <c r="F217">
-        <v>1777.88</v>
+        <v>233.68</v>
       </c>
       <c r="G217">
-        <v>1722.05</v>
+        <v>236</v>
       </c>
       <c r="H217">
-        <v>1880.28</v>
+        <v>227.51</v>
       </c>
       <c r="I217">
-        <v>1891.08</v>
+        <v>219.38</v>
       </c>
       <c r="J217">
-        <v>1914.32</v>
+        <v>202.83</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.3">
@@ -7664,28 +7679,28 @@
         <v>11</v>
       </c>
       <c r="C218" s="2">
-        <v>44470</v>
+        <v>44474</v>
       </c>
       <c r="D218" t="s">
-        <v>123</v>
+        <v>26</v>
       </c>
       <c r="E218">
-        <v>7475</v>
+        <v>1293.6500000000001</v>
       </c>
       <c r="F218">
-        <v>7202.67</v>
+        <v>1268.21</v>
       </c>
       <c r="G218">
-        <v>6646.03</v>
+        <v>1167.44</v>
       </c>
       <c r="H218">
-        <v>7699.25</v>
+        <v>1332.46</v>
       </c>
       <c r="I218">
-        <v>7734.7</v>
+        <v>1386.87</v>
       </c>
       <c r="J218">
-        <v>7855.93</v>
+        <v>1440.53</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.3">
@@ -7696,28 +7711,28 @@
         <v>11</v>
       </c>
       <c r="C219" s="2">
-        <v>44470</v>
+        <v>44474</v>
       </c>
       <c r="D219" t="s">
-        <v>124</v>
+        <v>78</v>
       </c>
       <c r="E219">
-        <v>639.35</v>
+        <v>132.85</v>
       </c>
       <c r="F219">
-        <v>632.33000000000004</v>
+        <v>127.5</v>
       </c>
       <c r="G219">
-        <v>585.75</v>
+        <v>126.76</v>
       </c>
       <c r="H219">
-        <v>658.53</v>
+        <v>136.84</v>
       </c>
       <c r="I219">
-        <v>666.63</v>
+        <v>139.02000000000001</v>
       </c>
       <c r="J219">
-        <v>679.72</v>
+        <v>141.63</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.3">
@@ -7728,28 +7743,28 @@
         <v>11</v>
       </c>
       <c r="C220" s="2">
-        <v>44469</v>
+        <v>44474</v>
       </c>
       <c r="D220" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="E220">
-        <v>1029.4000000000001</v>
+        <v>33725</v>
       </c>
       <c r="F220">
-        <v>957.29</v>
+        <v>32686.36</v>
       </c>
       <c r="G220">
-        <v>841.11</v>
+        <v>32151.46</v>
       </c>
       <c r="H220">
-        <v>1060.28</v>
+        <v>34736.75</v>
       </c>
       <c r="I220">
-        <v>1147.18</v>
+        <v>35088.800000000003</v>
       </c>
       <c r="J220">
-        <v>1171.1300000000001</v>
+        <v>36216.769999999997</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.3">
@@ -7760,28 +7775,28 @@
         <v>11</v>
       </c>
       <c r="C221" s="2">
-        <v>44469</v>
+        <v>44473</v>
       </c>
       <c r="D221" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="E221">
-        <v>3191.9</v>
+        <v>3201.05</v>
       </c>
       <c r="F221">
-        <v>3113.24</v>
+        <v>3019.97</v>
       </c>
       <c r="G221">
-        <v>3069.96</v>
+        <v>2662.47</v>
       </c>
       <c r="H221">
-        <v>3283.85</v>
+        <v>3297.08</v>
       </c>
       <c r="I221">
-        <v>3287.66</v>
+        <v>3356.63</v>
       </c>
       <c r="J221">
-        <v>3343.17</v>
+        <v>3442.13</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.3">
@@ -7792,28 +7807,28 @@
         <v>11</v>
       </c>
       <c r="C222" s="2">
-        <v>44469</v>
+        <v>44473</v>
       </c>
       <c r="D222" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E222">
-        <v>819.95</v>
+        <v>101.1</v>
       </c>
       <c r="F222">
-        <v>779.14</v>
+        <v>94.24</v>
       </c>
       <c r="G222">
-        <v>767.07</v>
+        <v>89.24</v>
       </c>
       <c r="H222">
-        <v>841.58</v>
+        <v>104.13</v>
       </c>
       <c r="I222">
-        <v>844.55</v>
+        <v>106.55</v>
       </c>
       <c r="J222">
-        <v>902.58</v>
+        <v>110.93</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.3">
@@ -7824,24 +7839,565 @@
         <v>11</v>
       </c>
       <c r="C223" s="2">
+        <v>44473</v>
+      </c>
+      <c r="D223" t="s">
+        <v>120</v>
+      </c>
+      <c r="E223">
+        <v>1029.5</v>
+      </c>
+      <c r="F223">
+        <v>963.54</v>
+      </c>
+      <c r="G223">
+        <v>844.08</v>
+      </c>
+      <c r="H223">
+        <v>1060.3800000000001</v>
+      </c>
+      <c r="I223">
+        <v>1083.95</v>
+      </c>
+      <c r="J223">
+        <v>1108.28</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>10</v>
+      </c>
+      <c r="B224" t="s">
+        <v>11</v>
+      </c>
+      <c r="C224" s="2">
+        <v>44473</v>
+      </c>
+      <c r="D224" t="s">
+        <v>48</v>
+      </c>
+      <c r="E224">
+        <v>4243.1000000000004</v>
+      </c>
+      <c r="F224">
+        <v>4152.6499999999996</v>
+      </c>
+      <c r="G224">
+        <v>3531.62</v>
+      </c>
+      <c r="H224">
+        <v>4370.3900000000003</v>
+      </c>
+      <c r="I224">
+        <v>4765.1499999999996</v>
+      </c>
+      <c r="J224">
+        <v>5047.68</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>10</v>
+      </c>
+      <c r="B225" t="s">
+        <v>11</v>
+      </c>
+      <c r="C225" s="2">
+        <v>44473</v>
+      </c>
+      <c r="D225" t="s">
+        <v>79</v>
+      </c>
+      <c r="E225">
+        <v>1388.8</v>
+      </c>
+      <c r="F225">
+        <v>1371.46</v>
+      </c>
+      <c r="G225">
+        <v>1209.3599999999999</v>
+      </c>
+      <c r="H225">
+        <v>1430.46</v>
+      </c>
+      <c r="I225">
+        <v>1464.22</v>
+      </c>
+      <c r="J225">
+        <v>1494.72</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>10</v>
+      </c>
+      <c r="B226" t="s">
+        <v>11</v>
+      </c>
+      <c r="C226" s="2">
+        <v>44473</v>
+      </c>
+      <c r="D226" t="s">
+        <v>50</v>
+      </c>
+      <c r="E226">
+        <v>158.9</v>
+      </c>
+      <c r="F226">
+        <v>155.91999999999999</v>
+      </c>
+      <c r="G226">
+        <v>152.29</v>
+      </c>
+      <c r="H226">
+        <v>163.66999999999999</v>
+      </c>
+      <c r="I226">
+        <v>166.03</v>
+      </c>
+      <c r="J226">
+        <v>170.13</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>10</v>
+      </c>
+      <c r="B227" t="s">
+        <v>11</v>
+      </c>
+      <c r="C227" s="2">
+        <v>44473</v>
+      </c>
+      <c r="D227" t="s">
+        <v>54</v>
+      </c>
+      <c r="E227">
+        <v>17736.25</v>
+      </c>
+      <c r="F227">
+        <v>17299.48</v>
+      </c>
+      <c r="G227">
+        <v>15881.28</v>
+      </c>
+      <c r="H227">
+        <v>18268.34</v>
+      </c>
+      <c r="I227">
+        <v>18905.150000000001</v>
+      </c>
+      <c r="J227">
+        <v>19464.349999999999</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>10</v>
+      </c>
+      <c r="B228" t="s">
+        <v>11</v>
+      </c>
+      <c r="C228" s="2">
+        <v>44473</v>
+      </c>
+      <c r="D228" t="s">
+        <v>87</v>
+      </c>
+      <c r="E228">
+        <v>2835.3</v>
+      </c>
+      <c r="F228">
+        <v>2649.53</v>
+      </c>
+      <c r="G228">
+        <v>2600.65</v>
+      </c>
+      <c r="H228">
+        <v>2920.36</v>
+      </c>
+      <c r="I228">
+        <v>2997.9</v>
+      </c>
+      <c r="J228">
+        <v>3366.85</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>10</v>
+      </c>
+      <c r="B229" t="s">
+        <v>11</v>
+      </c>
+      <c r="C229" s="2">
+        <v>44473</v>
+      </c>
+      <c r="D229" t="s">
+        <v>127</v>
+      </c>
+      <c r="E229">
+        <v>7669.95</v>
+      </c>
+      <c r="F229">
+        <v>7571.87</v>
+      </c>
+      <c r="G229">
+        <v>6979.07</v>
+      </c>
+      <c r="H229">
+        <v>7900.05</v>
+      </c>
+      <c r="I229">
+        <v>8004.48</v>
+      </c>
+      <c r="J229">
+        <v>8172.68</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>10</v>
+      </c>
+      <c r="B230" t="s">
+        <v>11</v>
+      </c>
+      <c r="C230" s="2">
+        <v>44473</v>
+      </c>
+      <c r="D230" t="s">
+        <v>112</v>
+      </c>
+      <c r="E230">
+        <v>699.55</v>
+      </c>
+      <c r="F230">
+        <v>672.62</v>
+      </c>
+      <c r="G230">
+        <v>625.88</v>
+      </c>
+      <c r="H230">
+        <v>718.13</v>
+      </c>
+      <c r="I230">
+        <v>720.54</v>
+      </c>
+      <c r="J230">
+        <v>726.03</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>10</v>
+      </c>
+      <c r="B231" t="s">
+        <v>14</v>
+      </c>
+      <c r="C231" s="2">
+        <v>44470</v>
+      </c>
+      <c r="D231" t="s">
+        <v>131</v>
+      </c>
+      <c r="E231">
+        <v>1574.65</v>
+      </c>
+      <c r="F231">
+        <v>1602.5</v>
+      </c>
+      <c r="H231">
+        <v>1543.16</v>
+      </c>
+      <c r="I231">
+        <v>1528.03</v>
+      </c>
+      <c r="J231">
+        <v>1497.3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>10</v>
+      </c>
+      <c r="B232" t="s">
+        <v>11</v>
+      </c>
+      <c r="C232" s="2">
+        <v>44470</v>
+      </c>
+      <c r="D232" t="s">
+        <v>124</v>
+      </c>
+      <c r="E232">
+        <v>403.5</v>
+      </c>
+      <c r="F232">
+        <v>377.58</v>
+      </c>
+      <c r="G232">
+        <v>328.08</v>
+      </c>
+      <c r="H232">
+        <v>415.61</v>
+      </c>
+      <c r="I232">
+        <v>421.35</v>
+      </c>
+      <c r="J232">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>10</v>
+      </c>
+      <c r="B233" t="s">
+        <v>11</v>
+      </c>
+      <c r="C233" s="2">
+        <v>44470</v>
+      </c>
+      <c r="D233" t="s">
+        <v>24</v>
+      </c>
+      <c r="E233">
+        <v>1517.65</v>
+      </c>
+      <c r="F233">
+        <v>1515.92</v>
+      </c>
+      <c r="G233">
+        <v>1513.01</v>
+      </c>
+      <c r="H233">
+        <v>1563.18</v>
+      </c>
+      <c r="I233">
+        <v>1615.37</v>
+      </c>
+      <c r="J233">
+        <v>1748.32</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>10</v>
+      </c>
+      <c r="B234" t="s">
+        <v>11</v>
+      </c>
+      <c r="C234" s="2">
+        <v>44470</v>
+      </c>
+      <c r="D234" t="s">
+        <v>88</v>
+      </c>
+      <c r="E234">
+        <v>1836</v>
+      </c>
+      <c r="F234">
+        <v>1777.88</v>
+      </c>
+      <c r="G234">
+        <v>1722.05</v>
+      </c>
+      <c r="H234">
+        <v>1880.28</v>
+      </c>
+      <c r="I234">
+        <v>1891.08</v>
+      </c>
+      <c r="J234">
+        <v>1914.32</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>10</v>
+      </c>
+      <c r="B235" t="s">
+        <v>11</v>
+      </c>
+      <c r="C235" s="2">
+        <v>44470</v>
+      </c>
+      <c r="D235" t="s">
+        <v>128</v>
+      </c>
+      <c r="E235">
+        <v>7475</v>
+      </c>
+      <c r="F235">
+        <v>7202.67</v>
+      </c>
+      <c r="G235">
+        <v>6646.03</v>
+      </c>
+      <c r="H235">
+        <v>7699.25</v>
+      </c>
+      <c r="I235">
+        <v>7734.7</v>
+      </c>
+      <c r="J235">
+        <v>7855.93</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>10</v>
+      </c>
+      <c r="B236" t="s">
+        <v>11</v>
+      </c>
+      <c r="C236" s="2">
+        <v>44470</v>
+      </c>
+      <c r="D236" t="s">
+        <v>129</v>
+      </c>
+      <c r="E236">
+        <v>639.35</v>
+      </c>
+      <c r="F236">
+        <v>632.33000000000004</v>
+      </c>
+      <c r="G236">
+        <v>585.75</v>
+      </c>
+      <c r="H236">
+        <v>658.53</v>
+      </c>
+      <c r="I236">
+        <v>666.63</v>
+      </c>
+      <c r="J236">
+        <v>679.72</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>10</v>
+      </c>
+      <c r="B237" t="s">
+        <v>11</v>
+      </c>
+      <c r="C237" s="2">
         <v>44469</v>
       </c>
-      <c r="D223" t="s">
-        <v>12</v>
-      </c>
-      <c r="E223">
+      <c r="D237" t="s">
+        <v>120</v>
+      </c>
+      <c r="E237">
+        <v>1029.4000000000001</v>
+      </c>
+      <c r="F237">
+        <v>957.29</v>
+      </c>
+      <c r="G237">
+        <v>841.11</v>
+      </c>
+      <c r="H237">
+        <v>1060.28</v>
+      </c>
+      <c r="I237">
+        <v>1147.18</v>
+      </c>
+      <c r="J237">
+        <v>1171.1300000000001</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>10</v>
+      </c>
+      <c r="B238" t="s">
+        <v>11</v>
+      </c>
+      <c r="C238" s="2">
+        <v>44469</v>
+      </c>
+      <c r="D238" t="s">
+        <v>36</v>
+      </c>
+      <c r="E238">
+        <v>3191.9</v>
+      </c>
+      <c r="F238">
+        <v>3113.24</v>
+      </c>
+      <c r="G238">
+        <v>3069.96</v>
+      </c>
+      <c r="H238">
+        <v>3283.85</v>
+      </c>
+      <c r="I238">
+        <v>3287.66</v>
+      </c>
+      <c r="J238">
+        <v>3343.17</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>10</v>
+      </c>
+      <c r="B239" t="s">
+        <v>11</v>
+      </c>
+      <c r="C239" s="2">
+        <v>44469</v>
+      </c>
+      <c r="D239" t="s">
+        <v>97</v>
+      </c>
+      <c r="E239">
+        <v>819.95</v>
+      </c>
+      <c r="F239">
+        <v>779.14</v>
+      </c>
+      <c r="G239">
+        <v>767.07</v>
+      </c>
+      <c r="H239">
+        <v>841.58</v>
+      </c>
+      <c r="I239">
+        <v>844.55</v>
+      </c>
+      <c r="J239">
+        <v>902.58</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>10</v>
+      </c>
+      <c r="B240" t="s">
+        <v>11</v>
+      </c>
+      <c r="C240" s="2">
+        <v>44469</v>
+      </c>
+      <c r="D240" t="s">
+        <v>23</v>
+      </c>
+      <c r="E240">
         <v>1224.05</v>
       </c>
-      <c r="F223">
+      <c r="F240">
         <v>1205.3800000000001</v>
       </c>
-      <c r="G223">
+      <c r="G240">
         <v>1088.28</v>
       </c>
-      <c r="H223">
+      <c r="H240">
         <v>1259.93</v>
       </c>
-      <c r="I223">
+      <c r="I240">
         <v>1260.77</v>
       </c>
     </row>
